--- a/RippleStreet_API/src/test/resources/config/CB.xlsx
+++ b/RippleStreet_API/src/test/resources/config/CB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashanthchigarer\Documents\Workspace\RippleStreet_API\RippleStreet_API\src\test\resources\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashanthchigarer\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D468E12E-383C-4F7A-B9FA-595307BF7A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A2EC02-0AC3-4394-9C28-7F0B0ED5B192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{76379156-385B-4CE0-9353-DC164ABCD207}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="773">
   <si>
     <t>Expected_Output</t>
   </si>
@@ -4550,13 +4550,31 @@
   <si>
     <t>{"totalCount":261,"data":[{"id":504,"name":"SlimFast","slug":"slimfast","summary":"SlimFast has helped millions of people across America lose those unwanted pounds faster than dieting alone.","description":"&lt;p&gt;SlimFast has helped millions of people across America lose those unwanted pounds faster than dieting alone and is one of the most delicious ways to lose weight*. Clinically proven to lose weight fast and keep it off, you can see real results in just 1 week with America&amp;rsquo;s most trusted weight loss brand. Losing weight with SlimFast has never been easier. Just two SlimFast shakes, bars or smoothies a day, three snacks and one sensible meal is all it takes.&lt;/p&gt;\n&lt;p&gt;&lt;span style=\"font-size: x-small;\"&gt;*Based on the SlimFast Plan (a reduced-calorie diet, regular exercise, and plenty of fluids). Individual results may vary. Read label prior to use. Check with your doctor if nursing, pregnant, under 18, or following a doctor prescribed diet.&amp;nbsp;&lt;/span&gt;&lt;/p&gt;","deleted":false,"active":false,"discoverable":false,"featured":false,"premium":false,"adultOnly":false,"categories":[{"id":12,"name":"Health &amp; wellness","slug":"healthandwellness","order":11,"assetId":1286559,"isDeleted":0,"created":"2011-07-09 10:15:46","modified":"2011-07-10 12:13:33"},{"id":11,"name":"Food &amp; beverage","slug":"foodandbeverage","order":10,"assetId":1286557,"isDeleted":0,"created":"2011-07-09 10:15:22","modified":"2011-07-10 12:13:33"}],"terms":"","website":"","facebook":"slimfast","twitter":"","pinterest":"","instagram":"","pgUnivWelcome":"","customCss":"","customJs":"","customTrackingTags":"","facebookEmbed":"","twitterSearch":null,"fbUsername":"","fbPageId":"","fbPageSlug":"","fbEventId":null,"personCount":2448,"discussionCount":3,"likeCount":20,"featuredStart":null,"featuredEnd":null,"created":"2020-01-30 22:24:16","modified":"2020-03-17 16:16:42"},{"id":479,"name":"TNT Claws","slug":"tnt","summary":"Home of Claws, Animal Kingdom, The Alienist, Drop The Mic, Snoop Dogg Presents The Joker's Wild, and I Am the Night.","description":"&lt;p&gt;Home of Claws, Animal Kingdom, The Alienist, Drop The Mic, Snoop Dogg Presents The Joker's Wild, and I Am the Night.&lt;/p&gt;","deleted":false,"active":false,"discoverable":false,"featured":false,"premium":false,"adultOnly":false,"categories":[{"id":27,"name":"TV, movies, music","slug":"tvmoviesmusic","order":26,"assetId":1286581,"isDeleted":0,"created":"2011-07-09 10:23:29","modified":"2011-07-09 10:23:29"}],"terms":"","website":"","facebook":"","twitter":"","pinterest":"","instagram":"","pgUnivWelcome":"","customCss":"","customJs":"","customTrackingTags":"","facebookEmbed":"","twitterSearch":null,"fbUsername":"","fbPageId":"","fbPageSlug":"","fbEventId":null,"personCount":0,"discussionCount":0,"likeCount":0,"featuredStart":null,"featuredEnd":null,"created":"2019-04-29 12:01:44","modified":"2019-05-20 12:14:16"},{"id":443,"name":"Star Wars Movies","slug":"star-wars-movies","summary":"Star Wars introduced the mystical Force into the cultural vocabulary and it continues to grow.","description":"&lt;p&gt;From the mind of visionary writer and director George Lucas, Star Wars introduced the mystical Force into the cultural vocabulary and it continues to grow, its lush universe ever-expanding through film, television, publishing, video games, and more.&lt;/p&gt;\n&lt;p&gt;Watch these iconic movies over and over again and reconnect with your favorite legendary Star Wars characters like Yoda, Han Solo, Luke Skywalker, Rey, Princess Leia Organa, Anakin Skywalker, Chewbacca, Obi-Wan Kenobi, Darth Vader, Ahsoka Tano, and Ezra Bridger.&lt;/p&gt;","deleted":false,"active":false,"discoverable":false,"featured":false,"premium":false,"adultOnly":false,"categories":[{"id":27,"name":"TV, movies, music","slug":"tvmoviesmusic","order":26,"assetId":1286581,"isDeleted":0,"created":"2011-07-09 10:23:29","modified":"2011-07-09 10:23:29"}],"terms":"","website":"","facebook":"StarWarsMovies","twitter":"","pinterest":"","instagram":"","pgUnivWelcome":"","customCss":"","customJs":"","customTrackingTags":"","facebookEmbed":"","twitterSearch":null,"fbUsername":"","fbPageId":"","fbPageSlug":"","fbEventId":null,"personCount":5132,"discussionCount":240,"likeCount":117,"featuredStart":null,"featuredEnd":null,"created":"2018-08-24 12:00:42","modified":"2018-11-09 11:10:04"},{"id":434,"name":"JOHNSON'S®","slug":"johnson-johnson","summary":"For nearly 125 years JOHNSON’S® mission has been to create the gentlest baby products in the world.","description":"&lt;p&gt;For nearly 125 years JOHNSON&amp;rsquo;S® mission has been to create the gentlest baby products in the world. Products so pure and mild, they can be used from the very moment of birth. That&amp;rsquo;s our standard of gentle. And JOHNSON&amp;rsquo;S® never stops raising the bar when it comes to delivering the best for your baby &amp;ndash; that drives everything we do. Guided by our mission to create the gentlest products backed by science, and our desire to address parents&amp;rsquo; growing needs JOHNSON'S® collaborated with and listened to 11,500 parents, midwives, and pediatricians around the world to improve our products inside and out. The #1 choice of hospitals is now more gentle than ever.&lt;/p&gt;","deleted":false,"active":false,"discoverable":false,"featured":false,"premium":false,"adultOnly":false,"categories":[],"terms":"","website":"","facebook":"johnsonsbabyUS","twitter":"","pinterest":"","instagram":"","pgUnivWelcome":"","customCss":"","customJs":"","customTrackingTags":"","facebookEmbed":"","twitterSearch":null,"fbUsername":"","fbPageId":"","fbPageSlug":"","fbEventId":null,"personCount":7067,"discussionCount":276,"likeCount":124,"featuredStart":null,"featuredEnd":null,"created":"2018-06-20 13:18:46","modified":"2019-04-26 13:02:45"},{"id":422,"name":"Marvel Studios’ Black Panther","slug":"black-panther","summary":"Marvel Studios’ Black Panther follows T’Challa when he is drawn into a formidable conflict that puts the fate of Wakanda at risk.","description":"&lt;p&gt;Marvel Studios&amp;rsquo; Black Panther follows T&amp;rsquo;Challa who, after the death of his father, the King of Wakanda, returns home to the isolated, technologically advanced African nation to succeed to the throne and take his rightful place as king. But when a powerful old enemy reappears, T&amp;rsquo;Challa&amp;rsquo;s mettle as king &amp;ndash; and Black Panther &amp;ndash; is tested when he is drawn into a formidable conflict that puts the fate of Wakanda and the entire world at risk. Faced with treachery and danger, the young king must rally his allies and release the full power of Black Panther to defeat his foes and secure the safety of his people and their way of life.&lt;/p&gt;\n&lt;p&gt;&lt;span style=\"font-size: x-small;\"&gt;©2018 MARVEL&lt;br /&gt;&lt;br /&gt;Buena Vista Home Entertainment, Inc. is providing Party Pack items as-is without warranty of any kind, either express or implied, and &lt;span style=\"font-size: x-small;\"&gt;Buena Vista Home Entertainment, Inc.&lt;/span&gt; hereby disclaims all such warranties, including but not limited to, the implied warranties or merchantability, fitness for a particular purpose and/or non-infringement.&lt;/span&gt;&lt;/p&gt;","deleted":false,"active":false,"discoverable":false,"featured":false,"premium":false,"adultOnly":false,"categories":[],"terms":"","website":"http://bit.ly/witnessthelegend","facebook":"BlackPantherMovie","twitter":"theblackpanther","pinterest":"","instagram":"blackpanther","pgUnivWelcome":"","customCss":"","customJs":"","customTrackingTags":"","facebookEmbed":"","twitterSearch":null,"fbUsername":"","fbPageId":"","fbPageSlug":"","fbEventId":null,"personCount":6567,"discussionCount":136,"likeCount":43,"featuredStart":null,"featuredEnd":null,"created":"2018-03-23 17:30:41","modified":"2018-06-20 14:50:41"},{"id":420,"name":"M&amp;M’S®","slug":"mmschocolatecandies","summary":null,"description":"","deleted":true,"active":false,"discoverable":false,"featured":false,"premium":false,"adultOnly":false,"categories":[],"terms":null,"website":"http://www.mms.com/","facebook":"mms","twitter":"mmschocolate","pinterest":null,"instagram":"mmschocolate","pgUnivWelcome":null,"customCss":null,"customJs":null,"customTrackingTags":null,"facebookEmbed":null,"twitterSearch":null,"fbUsername":null,"fbPageId":null,"fbPageSlug":null,"fbEventId":null,"personCount":0,"discussionCount":0,"likeCount":0,"featuredStart":null,"featuredEnd":null,"created":"2018-03-06 13:12:16","modified":"2018-03-06 13:12:16"},{"id":414,"name":"Target","slug":"target","summary":"","description":"","deleted":false,"active":false,"discoverable":false,"featured":false,"premium":false,"adultOnly":false,"categories":[],"terms":"","website":"https://www.target.com/","facebook":"","twitter":"","pinterest":"","instagram":"","pgUnivWelcome":"","customCss":"","customJs":"","customTrackingTags":"","facebookEmbed":"","twitterSearch":null,"fbUsername":"","fbPageId":"","fbPageSlug":"","fbEventId":null,"personCount":2,"discussionCount":0,"likeCount":0,"featuredStart":null,"featuredEnd":null,"created":"2018-02-05 12:37:00","modified":"2018-05-02 23:14:18"},{"id":408,"name":"H-E-B","slug":"heb","summary":"","description":"","deleted":false,"active":false,"discoverable":false,"featured":false,"premium":false,"adultOnly":false,"categories":[],"terms":null,"website":"https://www.heb.com/","facebook":"","twitter":"","pinterest":"","instagram":"","pgUnivWelcome":"","customCss":"","customJs":"","customTrackingTags":"","facebookEmbed":"","twitterSearch":null,"fbUsername":"","fbPageId":"","fbPageSlug":"","fbEventId":null,"personCount":0,"discussionCount":0,"likeCount":0,"featuredStart":null,"featuredEnd":null,"created":"2018-01-08 16:58:35","modified":"2018-01-29 11:28:33"},{"id":407,"name":"Nick Jr.","slug":"nickjr","summary":"Nick Jr.","description":"&lt;p&gt;&lt;span&gt;Nick Jr. is the smart place to play!&amp;nbsp;&lt;/span&gt;&lt;span&gt;At Nick Jr., our mission is to provide playful and engaging learning experiences that develop vital preschool skills and i&lt;/span&gt;&lt;span class=\"text_exposed_show\"&gt;nstill in kids a love of life-long learning.&lt;/span&gt;&lt;/p&gt;\n&lt;p&gt;&lt;span class=\"text_exposed_show\"&gt;TAKEN FROM FACEBOOK PAGE.&lt;/span&gt;&lt;/p&gt;","deleted":true,"active":false,"discoverable":false,"featured":false,"premium":false,"adultOnly":false,"categories":[],"terms":null,"website":"","facebook":"","twitter":"","pinterest":"","instagram":"","pgUnivWelcome":"","customCss":"","customJs":"","customTrackingTags":"","facebookEmbed":"","twitterSearch":null,"fbUsername":"","fbPageId":"","fbPageSlug":"","fbEventId":null,"personCount":0,"discussionCount":0,"likeCount":0,"featuredStart":null,"featuredEnd":null,"created":"2017-12-26 10:31:34","modified":"2017-12-28 14:44:18"},{"id":402,"name":"SNICKERS&lt;sup&gt;®&lt;/sup&gt; and SKITTLES&lt;sup&gt;®&lt;/sup&gt;","slug":"snickersandskittles","summary":"Snickers and Skittles","description":"","deleted":false,"active":false,"discoverable":false,"featured":false,"premium":false,"adultOnly":false,"categories":[],"terms":"","website":"","facebook":"","twitter":"","pinterest":"","instagram":"","pgUnivWelcome":"","customCss":"","customJs":"","customTrackingTags":"","facebookEmbed":"","twitterSearch":null,"fbUsername":"","fbPageId":"","fbPageSlug":"","fbEventId":null,"personCount":1,"discussionCount":0,"likeCount":0,"featuredStart":null,"featuredEnd":null,"created":"2017-11-06 15:38:08","modified":"2018-05-02 23:36:03"}]}</t>
   </si>
+  <si>
+    <t>FeedControllerGetApi</t>
+  </si>
+  <si>
+    <t>getAllFeedForEvents</t>
+  </si>
+  <si>
+    <t>{"count":3,"events":[{"eventData":{"id":1298,"name":"Discover Wines Aged in Spirits Barrels HP","brandName":"Robert Mondavi Private Selection","sponsorId":576,"milestoneLabel":"Applications close on","milestoneDate":"Sat Sep 23 16:29:59 GMT 2023","promotionalText":null,"categories":"Beer, wine, liquor","isChatterBox":false,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"lagunitas","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1479,"name":"Cooking HP","brandName":"Carapelli® Extra Virgin Olive Oil","sponsorId":429,"milestoneLabel":"Applications close on","milestoneDate":"Sun Jun 16 11:06:00 GMT 2024","promotionalText":null,"categories":null,"isChatterBox":false,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"cookinghp","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1496,"name":"Re1","brandName":"Beyond Meat","sponsorId":588,"milestoneLabel":"Applications close on","milestoneDate":"Thu Sep 28 02:53:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":true,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"re1","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false}]}</t>
+  </si>
+  <si>
+    <t>{"count":11,"events":[{"eventData":{"id":1298,"name":"Discover Wines Aged in Spirits Barrels HP","brandName":"Robert Mondavi Private Selection","sponsorId":576,"milestoneLabel":"Host selection by ","milestoneDate":"Sun Sep 24 11:59:59 GMT 2023","promotionalText":null,"categories":"Beer, wine, liquor","isChatterBox":false,"heroPlayList":null,"totalApplications":25,"availablePacks":0,"reviewCount":null,"reviewAverageRating":null,"slug":"lagunitas","packArrivalDate":null},"tag":null,"activities":{"total":2,"completed":0,"completionPercentage":0.0},"isBookmarked":false},{"eventData":{"id":1310,"name":"Breakfast Sausage Chatterbox​","brandName":"MORNINGSTAR FARMS®","sponsorId":116,"milestoneLabel":"Chatterbox selection by ","milestoneDate":"Tue Feb 15 23:59:59 GMT 2022","promotionalText":null,"categories":null,"isChatterBox":true,"heroPlayList":null,"totalApplications":3,"availablePacks":0,"reviewCount":null,"reviewAverageRating":null,"slug":"morningstarfarmssausagechat","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1472,"name":"Nexxus","brandName":"Blue Bunny®","sponsorId":587,"milestoneLabel":"Chatterbox selection by ","milestoneDate":"Sun Aug 20 11:02:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":true,"heroPlayList":null,"totalApplications":4,"availablePacks":0,"reviewCount":null,"reviewAverageRating":null,"slug":"nexxus2","packArrivalDate":null},"tag":null,"activities":{"total":0,"completed":0,"completionPercentage":100.0},"isBookmarked":false},{"eventData":{"id":1479,"name":"Cooking HP","brandName":"Carapelli® Extra Virgin Olive Oil","sponsorId":429,"milestoneLabel":"Host selection by ","milestoneDate":"Thu Jun 27 11:06:00 GMT 2024","promotionalText":null,"categories":null,"isChatterBox":false,"heroPlayList":null,"totalApplications":7,"availablePacks":2,"reviewCount":null,"reviewAverageRating":null,"slug":"cookinghp","packArrivalDate":null},"tag":null,"activities":{"total":0,"completed":0,"completionPercentage":100.0},"isBookmarked":false},{"eventData":{"id":1483,"name":"Ultimate Soccer Watch Party","brandName":"CHIPS AHOY!","sponsorId":349,"milestoneLabel":"Host selection by ","milestoneDate":"Fri Jul 21 23:59:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":false,"heroPlayList":null,"totalApplications":30,"availablePacks":978,"reviewCount":null,"reviewAverageRating":null,"slug":"soccer","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1487,"name":"Simply� Mixology","brandName":"SKYY","sponsorId":590,"milestoneLabel":"Chatterbox selection by ","milestoneDate":"Sat Sep 02 23:58:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":true,"heroPlayList":null,"totalApplications":5,"availablePacks":850,"reviewCount":null,"reviewAverageRating":null,"slug":"simplymixologychat","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1488,"name":"Tailgate Party&amp;#8203;","brandName":"Blue Bunny®","sponsorId":587,"milestoneLabel":"Host selection by ","milestoneDate":"Wed Sep 06 23:59:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":false,"heroPlayList":null,"totalApplications":6,"availablePacks":4465,"reviewCount":null,"reviewAverageRating":null,"slug":"tailgateparty","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1489,"name":"It's All Gravy Party","brandName":"Blue Bunny®","sponsorId":587,"milestoneLabel":"Host selection by ","milestoneDate":"Wed Aug 23 08:20:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":false,"heroPlayList":null,"totalApplications":7,"availablePacks":1384,"reviewCount":null,"reviewAverageRating":null,"slug":"itsallgravyparty","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1493,"name":"CVS Pharmacy","brandName":"SKYY","sponsorId":590,"milestoneLabel":"Chatterbox selection by ","milestoneDate":"Wed Aug 23 10:44:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":true,"heroPlayList":null,"totalApplications":7,"availablePacks":5,"reviewCount":null,"reviewAverageRating":null,"slug":"1031by","packArrivalDate":null},"tag":null,"activities":{"total":0,"completed":0,"completionPercentage":100.0},"isBookmarked":false},{"eventData":{"id":1494,"name":"Activia Probiotic Dailies ","brandName":"Beyond Meat","sponsorId":588,"milestoneLabel":"Chatterbox selection by ","milestoneDate":"Sun Nov 30 00:00:00 GMT 2","promotionalText":null,"categories":null,"isChatterBox":true,"heroPlayList":null,"totalApplications":10,"availablePacks":20,"reviewCount":null,"reviewAverageRating":null,"slug":"activiaprobioticdailies","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false}]}</t>
+  </si>
+  <si>
+    <t>{"count":11,"events":[{"eventData":{"id":1298,"name":"Discover Wines Aged in Spirits Barrels HP","brandName":"Robert Mondavi Private Selection","sponsorId":576,"milestoneLabel":"Party date ","milestoneDate":"Sun Sep 24 16:30:00 GMT 2023","promotionalText":null,"categories":"Beer, wine, liquor","isChatterBox":false,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"lagunitas","packArrivalDate":"Sun Sep 24 15:59:59 GMT 2023"},"tag":null,"activities":{"total":2,"completed":0,"completionPercentage":0.0},"isBookmarked":false},{"eventData":{"id":1310,"name":"Breakfast Sausage Chatterbox​","brandName":"MORNINGSTAR FARMS®","sponsorId":116,"milestoneLabel":"Party date ","milestoneDate":"Mon May 01 00:00:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":true,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"morningstarfarmssausagechat","packArrivalDate":"Fri Jun 30 23:59:00 GMT 2023"},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1472,"name":"Nexxus","brandName":"Blue Bunny®","sponsorId":587,"milestoneLabel":"Party date ","milestoneDate":"Mon Aug 21 11:02:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":true,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"nexxus2","packArrivalDate":"Fri Sep 01 11:02:00 GMT 2023"},"tag":null,"activities":{"total":0,"completed":0,"completionPercentage":100.0},"isBookmarked":false},{"eventData":{"id":1479,"name":"Cooking HP","brandName":"Carapelli® Extra Virgin Olive Oil","sponsorId":429,"milestoneLabel":"Party date ","milestoneDate":"Sun Jun 30 11:07:00 GMT 2024","promotionalText":null,"categories":null,"isChatterBox":false,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"cookinghp","packArrivalDate":"Sat Jun 29 11:07:00 GMT 2024"},"tag":null,"activities":{"total":0,"completed":0,"completionPercentage":100.0},"isBookmarked":false},{"eventData":{"id":1483,"name":"Ultimate Soccer Watch Party","brandName":"CHIPS AHOY!","sponsorId":349,"milestoneLabel":"Party date ","milestoneDate":"Fri Jul 21 23:59:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":false,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"soccer","packArrivalDate":"Fri Jul 21 23:59:00 GMT 2023"},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1487,"name":"Simply� Mixology","brandName":"SKYY","sponsorId":590,"milestoneLabel":"Party date ","milestoneDate":"Sun Sep 03 00:01:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":true,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"simplymixologychat","packArrivalDate":"Thu Sep 07 23:59:00 GMT 2023"},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1488,"name":"Tailgate Party&amp;#8203;","brandName":"Blue Bunny®","sponsorId":587,"milestoneLabel":"Party date ","milestoneDate":"Thu Sep 14 00:01:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":false,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"tailgateparty","packArrivalDate":"Fri Sep 08 23:58:00 GMT 2023"},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1489,"name":"It's All Gravy Party","brandName":"Blue Bunny®","sponsorId":587,"milestoneLabel":"Party date ","milestoneDate":"Wed Sep 13 00:01:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":false,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"itsallgravyparty","packArrivalDate":"Tue Aug 22 08:20:00 GMT 2023"},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1493,"name":"CVS Pharmacy","brandName":"SKYY","sponsorId":590,"milestoneLabel":"Party date ","milestoneDate":"Wed Aug 23 10:44:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":true,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"1031by","packArrivalDate":"Mon Sep 04 10:44:00 GMT 2023"},"tag":null,"activities":{"total":0,"completed":0,"completionPercentage":100.0},"isBookmarked":false},{"eventData":{"id":1494,"name":"Activia Probiotic Dailies ","brandName":"Beyond Meat","sponsorId":588,"milestoneLabel":"Party date ","milestoneDate":"Sun Nov 30 00:00:00 GMT 2","promotionalText":null,"categories":null,"isChatterBox":true,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"activiaprobioticdailies","packArrivalDate":"Sun Nov 30 00:00:00 GMT 2"},"tag":null,"activities":null,"isBookmarked":false}]}</t>
+  </si>
+  <si>
+    <t>{"count":11,"events":[{"eventData":{"id":1298,"name":"Discover Wines Aged in Spirits Barrels HP","brandName":"Robert Mondavi Private Selection","sponsorId":576,"milestoneLabel":"Applications close on","milestoneDate":"Sat Sep 23 16:29:59 GMT 2023","promotionalText":null,"categories":"Beer, wine, liquor","isChatterBox":false,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"lagunitas","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1310,"name":"Breakfast Sausage Chatterbox​","brandName":"MORNINGSTAR FARMS®","sponsorId":116,"milestoneLabel":"This Event ended on","milestoneDate":"Sat Nov 04 15:29:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":true,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"morningstarfarmssausagechat","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1472,"name":"Nexxus","brandName":"Blue Bunny®","sponsorId":587,"milestoneLabel":"Experiencing until","milestoneDate":"Sun Sep 10 11:03:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":true,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"nexxus2","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1479,"name":"Cooking HP","brandName":"Carapelli® Extra Virgin Olive Oil","sponsorId":429,"milestoneLabel":"Applications close on","milestoneDate":"Sun Jun 16 11:06:00 GMT 2024","promotionalText":null,"categories":null,"isChatterBox":false,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"cookinghp","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1483,"name":"Ultimate Soccer Watch Party","brandName":"CHIPS AHOY!","sponsorId":349,"milestoneLabel":"Experiencing until","milestoneDate":"Mon Sep 18 23:59:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":false,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"soccer","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1487,"name":"Simply� Mixology","brandName":"SKYY","sponsorId":590,"milestoneLabel":"Selections close on","milestoneDate":"Fri Sep 01 23:59:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":true,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"simplymixologychat","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1488,"name":"Tailgate Party&amp;#8203;","brandName":"Blue Bunny®","sponsorId":587,"milestoneLabel":"Selections close on","milestoneDate":"Wed Sep 06 23:59:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":false,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"tailgateparty","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1489,"name":"It's All Gravy Party","brandName":"Blue Bunny®","sponsorId":587,"milestoneLabel":"Experiencing until","milestoneDate":"Mon Sep 25 10:47:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":false,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"itsallgravyparty","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1493,"name":"CVS Pharmacy","brandName":"SKYY","sponsorId":590,"milestoneLabel":"Experiencing until","milestoneDate":"Mon Sep 04 10:44:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":true,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"1031by","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1494,"name":"Activia Probiotic Dailies ","brandName":"Beyond Meat","sponsorId":588,"milestoneLabel":"This Event ended on","milestoneDate":"Mon Sep 04 11:07:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":true,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"activiaprobioticdailies","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false}]}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5070,11 +5088,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938AA5C4-D23B-4354-B61E-D632D48448E3}">
   <dimension ref="A1:J703"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="59" zoomScaleNormal="104" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A419" zoomScale="59" zoomScaleNormal="104" workbookViewId="0">
+      <selection activeCell="C425" sqref="C425"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="47.453125"/>
     <col min="2" max="2" customWidth="true" width="44.453125"/>
@@ -5084,7 +5102,7 @@
     <col min="7" max="7" customWidth="true" width="64.81640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="49" customHeight="1">
+    <row r="1" spans="1:10" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5110,7 +5128,7 @@
       <c r="I1" s="29"/>
       <c r="J1" s="29"/>
     </row>
-    <row r="2" spans="1:10" ht="127" customHeight="1">
+    <row r="2" spans="1:10" ht="127" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -5134,7 +5152,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="1:10" ht="73.5" customHeight="1">
+    <row r="3" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -5158,7 +5176,7 @@
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
     </row>
-    <row r="4" spans="1:10" ht="103.5" customHeight="1">
+    <row r="4" spans="1:10" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -5182,7 +5200,7 @@
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
     </row>
-    <row r="5" spans="1:10" ht="111" customHeight="1">
+    <row r="5" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -5206,7 +5224,7 @@
       <c r="I5" s="29"/>
       <c r="J5" s="29"/>
     </row>
-    <row r="6" spans="1:10" ht="112" customHeight="1">
+    <row r="6" spans="1:10" ht="112" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -5230,7 +5248,7 @@
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
     </row>
-    <row r="7" spans="1:10" ht="97" customHeight="1">
+    <row r="7" spans="1:10" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -5254,7 +5272,7 @@
       <c r="I7" s="29"/>
       <c r="J7" s="29"/>
     </row>
-    <row r="8" spans="1:10" ht="107.5" customHeight="1">
+    <row r="8" spans="1:10" ht="107.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -5278,7 +5296,7 @@
       <c r="I8" s="29"/>
       <c r="J8" s="29"/>
     </row>
-    <row r="9" spans="1:10" ht="104.5" customHeight="1">
+    <row r="9" spans="1:10" ht="104.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -5302,7 +5320,7 @@
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
     </row>
-    <row r="10" spans="1:10" ht="86.5" customHeight="1">
+    <row r="10" spans="1:10" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -5326,7 +5344,7 @@
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
     </row>
-    <row r="11" spans="1:10" ht="97" customHeight="1">
+    <row r="11" spans="1:10" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -5350,7 +5368,7 @@
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
     </row>
-    <row r="12" spans="1:10" ht="94.5" customHeight="1">
+    <row r="12" spans="1:10" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -5374,7 +5392,7 @@
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
     </row>
-    <row r="13" spans="1:10" ht="87.5" customHeight="1">
+    <row r="13" spans="1:10" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -5398,7 +5416,7 @@
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
     </row>
-    <row r="14" spans="1:10" ht="92" customHeight="1">
+    <row r="14" spans="1:10" ht="92" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -5422,7 +5440,7 @@
       <c r="I14" s="29"/>
       <c r="J14" s="29"/>
     </row>
-    <row r="15" spans="1:10" ht="142" customHeight="1">
+    <row r="15" spans="1:10" ht="142" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -5446,7 +5464,7 @@
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
     </row>
-    <row r="16" spans="1:10" ht="87" customHeight="1">
+    <row r="16" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
@@ -5470,7 +5488,7 @@
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
     </row>
-    <row r="17" spans="1:10" ht="409.5">
+    <row r="17" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
@@ -5494,7 +5512,7 @@
       <c r="I17" s="29"/>
       <c r="J17" s="29"/>
     </row>
-    <row r="18" spans="1:10" ht="409.5">
+    <row r="18" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
@@ -5518,7 +5536,7 @@
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
     </row>
-    <row r="19" spans="1:10" ht="409.5">
+    <row r="19" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
@@ -5542,7 +5560,7 @@
       <c r="I19" s="29"/>
       <c r="J19" s="29"/>
     </row>
-    <row r="20" spans="1:10" ht="99" customHeight="1">
+    <row r="20" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
@@ -5566,7 +5584,7 @@
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
     </row>
-    <row r="21" spans="1:10" ht="101" customHeight="1">
+    <row r="21" spans="1:10" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
@@ -5590,7 +5608,7 @@
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
     </row>
-    <row r="22" spans="1:10" ht="94" customHeight="1">
+    <row r="22" spans="1:10" ht="94" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>27</v>
       </c>
@@ -5614,7 +5632,7 @@
       <c r="I22" s="29"/>
       <c r="J22" s="29"/>
     </row>
-    <row r="23" spans="1:10" ht="114" customHeight="1">
+    <row r="23" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>29</v>
       </c>
@@ -5638,7 +5656,7 @@
       <c r="I23" s="29"/>
       <c r="J23" s="29"/>
     </row>
-    <row r="24" spans="1:10" ht="102" customHeight="1">
+    <row r="24" spans="1:10" ht="102" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>31</v>
       </c>
@@ -5662,7 +5680,7 @@
       <c r="I24" s="29"/>
       <c r="J24" s="29"/>
     </row>
-    <row r="25" spans="1:10" ht="93" customHeight="1">
+    <row r="25" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>32</v>
       </c>
@@ -5686,7 +5704,7 @@
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
     </row>
-    <row r="26" spans="1:10" ht="92.5" customHeight="1">
+    <row r="26" spans="1:10" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>33</v>
       </c>
@@ -5710,7 +5728,7 @@
       <c r="I26" s="29"/>
       <c r="J26" s="29"/>
     </row>
-    <row r="27" spans="1:10" ht="100.5" customHeight="1">
+    <row r="27" spans="1:10" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>34</v>
       </c>
@@ -5734,7 +5752,7 @@
       <c r="I27" s="29"/>
       <c r="J27" s="29"/>
     </row>
-    <row r="28" spans="1:10" ht="88" customHeight="1">
+    <row r="28" spans="1:10" ht="88" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>35</v>
       </c>
@@ -5758,7 +5776,7 @@
       <c r="I28" s="29"/>
       <c r="J28" s="29"/>
     </row>
-    <row r="29" spans="1:10" ht="107" customHeight="1">
+    <row r="29" spans="1:10" ht="107" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>36</v>
       </c>
@@ -5782,7 +5800,7 @@
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
     </row>
-    <row r="30" spans="1:10" ht="85" customHeight="1">
+    <row r="30" spans="1:10" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>37</v>
       </c>
@@ -5806,7 +5824,7 @@
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
     </row>
-    <row r="31" spans="1:10" ht="81" customHeight="1">
+    <row r="31" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>38</v>
       </c>
@@ -5830,7 +5848,7 @@
       <c r="I31" s="29"/>
       <c r="J31" s="29"/>
     </row>
-    <row r="32" spans="1:10" ht="93.5" customHeight="1">
+    <row r="32" spans="1:10" ht="93.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
@@ -5854,7 +5872,7 @@
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
     </row>
-    <row r="33" spans="1:10" ht="114" customHeight="1">
+    <row r="33" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>91</v>
       </c>
@@ -5878,7 +5896,7 @@
       <c r="I33" s="29"/>
       <c r="J33" s="29"/>
     </row>
-    <row r="34" spans="1:10" ht="98.5" customHeight="1">
+    <row r="34" spans="1:10" ht="98.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>41</v>
       </c>
@@ -5902,7 +5920,7 @@
       <c r="I34" s="29"/>
       <c r="J34" s="29"/>
     </row>
-    <row r="35" spans="1:10" ht="118.5" customHeight="1">
+    <row r="35" spans="1:10" ht="118.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>43</v>
       </c>
@@ -5926,7 +5944,7 @@
       <c r="I35" s="29"/>
       <c r="J35" s="29"/>
     </row>
-    <row r="36" spans="1:10" ht="90" customHeight="1">
+    <row r="36" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>44</v>
       </c>
@@ -5950,7 +5968,7 @@
       <c r="I36" s="29"/>
       <c r="J36" s="29"/>
     </row>
-    <row r="37" spans="1:10" ht="91" customHeight="1">
+    <row r="37" spans="1:10" ht="91" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>46</v>
       </c>
@@ -5974,7 +5992,7 @@
       <c r="I37" s="29"/>
       <c r="J37" s="29"/>
     </row>
-    <row r="38" spans="1:10" ht="105.5" customHeight="1">
+    <row r="38" spans="1:10" ht="105.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>47</v>
       </c>
@@ -5998,7 +6016,7 @@
       <c r="I38" s="29"/>
       <c r="J38" s="29"/>
     </row>
-    <row r="39" spans="1:10" ht="130" customHeight="1">
+    <row r="39" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>49</v>
       </c>
@@ -6022,7 +6040,7 @@
       <c r="I39" s="29"/>
       <c r="J39" s="29"/>
     </row>
-    <row r="40" spans="1:10" ht="118.5" customHeight="1">
+    <row r="40" spans="1:10" ht="118.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>50</v>
       </c>
@@ -6046,7 +6064,7 @@
       <c r="I40" s="29"/>
       <c r="J40" s="29"/>
     </row>
-    <row r="41" spans="1:10" ht="91" customHeight="1">
+    <row r="41" spans="1:10" ht="91" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>52</v>
       </c>
@@ -6070,7 +6088,7 @@
       <c r="I41" s="29"/>
       <c r="J41" s="29"/>
     </row>
-    <row r="42" spans="1:10" ht="87.5" customHeight="1">
+    <row r="42" spans="1:10" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>54</v>
       </c>
@@ -6094,7 +6112,7 @@
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
     </row>
-    <row r="43" spans="1:10" ht="96" customHeight="1">
+    <row r="43" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>56</v>
       </c>
@@ -6118,7 +6136,7 @@
       <c r="I43" s="29"/>
       <c r="J43" s="29"/>
     </row>
-    <row r="44" spans="1:10" ht="97.5" customHeight="1">
+    <row r="44" spans="1:10" ht="97.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>57</v>
       </c>
@@ -6142,7 +6160,7 @@
       <c r="I44" s="29"/>
       <c r="J44" s="29"/>
     </row>
-    <row r="45" spans="1:10" ht="94.5" customHeight="1">
+    <row r="45" spans="1:10" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>58</v>
       </c>
@@ -6166,7 +6184,7 @@
       <c r="I45" s="29"/>
       <c r="J45" s="29"/>
     </row>
-    <row r="46" spans="1:10" ht="95" customHeight="1">
+    <row r="46" spans="1:10" ht="95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>60</v>
       </c>
@@ -6190,7 +6208,7 @@
       <c r="I46" s="29"/>
       <c r="J46" s="29"/>
     </row>
-    <row r="47" spans="1:10" ht="115.5" customHeight="1">
+    <row r="47" spans="1:10" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>61</v>
       </c>
@@ -6214,7 +6232,7 @@
       <c r="I47" s="29"/>
       <c r="J47" s="29"/>
     </row>
-    <row r="48" spans="1:10" ht="106.5" customHeight="1">
+    <row r="48" spans="1:10" ht="106.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
         <v>61</v>
       </c>
@@ -6238,7 +6256,7 @@
       <c r="I48" s="29"/>
       <c r="J48" s="29"/>
     </row>
-    <row r="49" spans="1:10" ht="117" customHeight="1">
+    <row r="49" spans="1:10" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>61</v>
       </c>
@@ -6262,7 +6280,7 @@
       <c r="I49" s="29"/>
       <c r="J49" s="29"/>
     </row>
-    <row r="50" spans="1:10" ht="95" customHeight="1">
+    <row r="50" spans="1:10" ht="95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>65</v>
       </c>
@@ -6286,7 +6304,7 @@
       <c r="I50" s="29"/>
       <c r="J50" s="29"/>
     </row>
-    <row r="51" spans="1:10" ht="83.5" customHeight="1">
+    <row r="51" spans="1:10" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
         <v>65</v>
       </c>
@@ -6306,7 +6324,7 @@
       <c r="I51" s="29"/>
       <c r="J51" s="29"/>
     </row>
-    <row r="52" spans="1:10" ht="83" customHeight="1">
+    <row r="52" spans="1:10" ht="83" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>65</v>
       </c>
@@ -6330,7 +6348,7 @@
       <c r="I52" s="29"/>
       <c r="J52" s="29"/>
     </row>
-    <row r="53" spans="1:10" ht="85" customHeight="1">
+    <row r="53" spans="1:10" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>65</v>
       </c>
@@ -6354,7 +6372,7 @@
       <c r="I53" s="29"/>
       <c r="J53" s="29"/>
     </row>
-    <row r="54" spans="1:10" ht="102" customHeight="1">
+    <row r="54" spans="1:10" ht="102" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>65</v>
       </c>
@@ -6378,7 +6396,7 @@
       <c r="I54" s="29"/>
       <c r="J54" s="29"/>
     </row>
-    <row r="55" spans="1:10" ht="89" customHeight="1">
+    <row r="55" spans="1:10" ht="89" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>65</v>
       </c>
@@ -6402,7 +6420,7 @@
       <c r="I55" s="29"/>
       <c r="J55" s="29"/>
     </row>
-    <row r="56" spans="1:10" ht="106.5" customHeight="1">
+    <row r="56" spans="1:10" ht="106.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>72</v>
       </c>
@@ -6426,7 +6444,7 @@
       <c r="I56" s="29"/>
       <c r="J56" s="29"/>
     </row>
-    <row r="57" spans="1:10" ht="93" customHeight="1">
+    <row r="57" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
         <v>73</v>
       </c>
@@ -6450,7 +6468,7 @@
       <c r="I57" s="29"/>
       <c r="J57" s="29"/>
     </row>
-    <row r="58" spans="1:10" ht="82" customHeight="1">
+    <row r="58" spans="1:10" ht="82" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>76</v>
       </c>
@@ -6474,7 +6492,7 @@
       <c r="I58" s="29"/>
       <c r="J58" s="29"/>
     </row>
-    <row r="59" spans="1:10" ht="111.5" customHeight="1">
+    <row r="59" spans="1:10" ht="111.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>76</v>
       </c>
@@ -6498,7 +6516,7 @@
       <c r="I59" s="29"/>
       <c r="J59" s="29"/>
     </row>
-    <row r="60" spans="1:10" ht="109" customHeight="1">
+    <row r="60" spans="1:10" ht="109" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>78</v>
       </c>
@@ -6522,7 +6540,7 @@
       <c r="I60" s="29"/>
       <c r="J60" s="29"/>
     </row>
-    <row r="61" spans="1:10" ht="95.5" customHeight="1">
+    <row r="61" spans="1:10" ht="95.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
         <v>78</v>
       </c>
@@ -6546,7 +6564,7 @@
       <c r="I61" s="29"/>
       <c r="J61" s="29"/>
     </row>
-    <row r="62" spans="1:10" ht="100" customHeight="1">
+    <row r="62" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>78</v>
       </c>
@@ -6570,7 +6588,7 @@
       <c r="I62" s="29"/>
       <c r="J62" s="29"/>
     </row>
-    <row r="63" spans="1:10" ht="120" customHeight="1">
+    <row r="63" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>82</v>
       </c>
@@ -6594,7 +6612,7 @@
       <c r="I63" s="29"/>
       <c r="J63" s="29"/>
     </row>
-    <row r="64" spans="1:10" ht="106.5" customHeight="1">
+    <row r="64" spans="1:10" ht="106.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>82</v>
       </c>
@@ -6618,7 +6636,7 @@
       <c r="I64" s="29"/>
       <c r="J64" s="29"/>
     </row>
-    <row r="65" spans="1:10" ht="115" customHeight="1">
+    <row r="65" spans="1:10" ht="115" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>82</v>
       </c>
@@ -6642,7 +6660,7 @@
       <c r="I65" s="29"/>
       <c r="J65" s="29"/>
     </row>
-    <row r="66" spans="1:10" ht="102.5" customHeight="1">
+    <row r="66" spans="1:10" ht="102.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="8" t="s">
         <v>86</v>
       </c>
@@ -6666,7 +6684,7 @@
       <c r="I66" s="29"/>
       <c r="J66" s="29"/>
     </row>
-    <row r="67" spans="1:10" ht="135" customHeight="1">
+    <row r="67" spans="1:10" ht="135" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>88</v>
       </c>
@@ -6690,7 +6708,7 @@
       <c r="I67" s="29"/>
       <c r="J67" s="29"/>
     </row>
-    <row r="68" spans="1:10" ht="122" customHeight="1">
+    <row r="68" spans="1:10" ht="122" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>88</v>
       </c>
@@ -6714,7 +6732,7 @@
       <c r="I68" s="29"/>
       <c r="J68" s="29"/>
     </row>
-    <row r="69" spans="1:10" ht="105.5" customHeight="1">
+    <row r="69" spans="1:10" ht="105.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>92</v>
       </c>
@@ -6730,7 +6748,7 @@
       <c r="I69" s="29"/>
       <c r="J69" s="29"/>
     </row>
-    <row r="70" spans="1:10" ht="113.5" customHeight="1">
+    <row r="70" spans="1:10" ht="113.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>92</v>
       </c>
@@ -6754,7 +6772,7 @@
       <c r="I70" s="29"/>
       <c r="J70" s="29"/>
     </row>
-    <row r="71" spans="1:10" ht="121.5" customHeight="1">
+    <row r="71" spans="1:10" ht="121.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>95</v>
       </c>
@@ -6770,7 +6788,7 @@
       <c r="I71" s="29"/>
       <c r="J71" s="29"/>
     </row>
-    <row r="72" spans="1:10" ht="125" customHeight="1">
+    <row r="72" spans="1:10" ht="125" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>95</v>
       </c>
@@ -6794,7 +6812,7 @@
       <c r="I72" s="29"/>
       <c r="J72" s="29"/>
     </row>
-    <row r="73" spans="1:10" ht="89" customHeight="1">
+    <row r="73" spans="1:10" ht="89" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>95</v>
       </c>
@@ -6818,7 +6836,7 @@
       <c r="I73" s="29"/>
       <c r="J73" s="29"/>
     </row>
-    <row r="74" spans="1:10" ht="102" customHeight="1">
+    <row r="74" spans="1:10" ht="102" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>99</v>
       </c>
@@ -6842,7 +6860,7 @@
       <c r="I74" s="29"/>
       <c r="J74" s="29"/>
     </row>
-    <row r="75" spans="1:10" ht="94" customHeight="1">
+    <row r="75" spans="1:10" ht="94" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>99</v>
       </c>
@@ -6866,7 +6884,7 @@
       <c r="I75" s="29"/>
       <c r="J75" s="29"/>
     </row>
-    <row r="76" spans="1:10" ht="76" customHeight="1">
+    <row r="76" spans="1:10" ht="76" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>102</v>
       </c>
@@ -6890,7 +6908,7 @@
       <c r="I76" s="29"/>
       <c r="J76" s="29"/>
     </row>
-    <row r="77" spans="1:10" ht="82.5" customHeight="1">
+    <row r="77" spans="1:10" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>104</v>
       </c>
@@ -6914,7 +6932,7 @@
       <c r="I77" s="29"/>
       <c r="J77" s="29"/>
     </row>
-    <row r="78" spans="1:10" ht="105.5" customHeight="1">
+    <row r="78" spans="1:10" ht="105.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>106</v>
       </c>
@@ -6938,7 +6956,7 @@
       <c r="I78" s="29"/>
       <c r="J78" s="29"/>
     </row>
-    <row r="79" spans="1:10" ht="73" customHeight="1">
+    <row r="79" spans="1:10" ht="73" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>108</v>
       </c>
@@ -6962,7 +6980,7 @@
       <c r="I79" s="29"/>
       <c r="J79" s="29"/>
     </row>
-    <row r="80" spans="1:10" ht="79.5" customHeight="1">
+    <row r="80" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>108</v>
       </c>
@@ -6986,7 +7004,7 @@
       <c r="I80" s="29"/>
       <c r="J80" s="29"/>
     </row>
-    <row r="81" spans="1:10" ht="91.5" customHeight="1">
+    <row r="81" spans="1:10" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>108</v>
       </c>
@@ -7010,7 +7028,7 @@
       <c r="I81" s="29"/>
       <c r="J81" s="29"/>
     </row>
-    <row r="82" spans="1:10" ht="76.5" customHeight="1">
+    <row r="82" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>108</v>
       </c>
@@ -7034,7 +7052,7 @@
       <c r="I82" s="29"/>
       <c r="J82" s="29"/>
     </row>
-    <row r="83" spans="1:10" ht="85.5" customHeight="1">
+    <row r="83" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>113</v>
       </c>
@@ -7058,7 +7076,7 @@
       <c r="I83" s="29"/>
       <c r="J83" s="29"/>
     </row>
-    <row r="84" spans="1:10" ht="88" customHeight="1">
+    <row r="84" spans="1:10" ht="88" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>113</v>
       </c>
@@ -7082,7 +7100,7 @@
       <c r="I84" s="29"/>
       <c r="J84" s="29"/>
     </row>
-    <row r="85" spans="1:10" ht="87" customHeight="1">
+    <row r="85" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>113</v>
       </c>
@@ -7106,7 +7124,7 @@
       <c r="I85" s="29"/>
       <c r="J85" s="29"/>
     </row>
-    <row r="86" spans="1:10" ht="90.5" customHeight="1">
+    <row r="86" spans="1:10" ht="90.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>117</v>
       </c>
@@ -7130,7 +7148,7 @@
       <c r="I86" s="29"/>
       <c r="J86" s="29"/>
     </row>
-    <row r="87" spans="1:10" ht="102.5" customHeight="1">
+    <row r="87" spans="1:10" ht="102.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>117</v>
       </c>
@@ -7154,7 +7172,7 @@
       <c r="I87" s="29"/>
       <c r="J87" s="29"/>
     </row>
-    <row r="88" spans="1:10" ht="113" customHeight="1">
+    <row r="88" spans="1:10" ht="113" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>120</v>
       </c>
@@ -7178,7 +7196,7 @@
       <c r="I88" s="29"/>
       <c r="J88" s="29"/>
     </row>
-    <row r="89" spans="1:10" ht="110.5" customHeight="1">
+    <row r="89" spans="1:10" ht="110.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>121</v>
       </c>
@@ -7202,7 +7220,7 @@
       <c r="I89" s="29"/>
       <c r="J89" s="29"/>
     </row>
-    <row r="90" spans="1:10" ht="120.5" customHeight="1">
+    <row r="90" spans="1:10" ht="120.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="8" t="s">
         <v>121</v>
       </c>
@@ -7226,7 +7244,7 @@
       <c r="I90" s="29"/>
       <c r="J90" s="29"/>
     </row>
-    <row r="91" spans="1:10" ht="113" customHeight="1">
+    <row r="91" spans="1:10" ht="113" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="8" t="s">
         <v>121</v>
       </c>
@@ -7250,7 +7268,7 @@
       <c r="I91" s="29"/>
       <c r="J91" s="29"/>
     </row>
-    <row r="92" spans="1:10" ht="110" customHeight="1">
+    <row r="92" spans="1:10" ht="110" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>126</v>
       </c>
@@ -7274,7 +7292,7 @@
       <c r="I92" s="29"/>
       <c r="J92" s="29"/>
     </row>
-    <row r="93" spans="1:10" ht="89.5" customHeight="1">
+    <row r="93" spans="1:10" ht="89.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
         <v>128</v>
       </c>
@@ -7298,7 +7316,7 @@
       <c r="I93" s="29"/>
       <c r="J93" s="29"/>
     </row>
-    <row r="94" spans="1:10" ht="78" customHeight="1">
+    <row r="94" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>128</v>
       </c>
@@ -7322,7 +7340,7 @@
       <c r="I94" s="29"/>
       <c r="J94" s="29"/>
     </row>
-    <row r="95" spans="1:10" ht="90" customHeight="1">
+    <row r="95" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
         <v>128</v>
       </c>
@@ -7346,7 +7364,7 @@
       <c r="I95" s="29"/>
       <c r="J95" s="29"/>
     </row>
-    <row r="96" spans="1:10" ht="86.5" customHeight="1">
+    <row r="96" spans="1:10" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
         <v>128</v>
       </c>
@@ -7370,7 +7388,7 @@
       <c r="I96" s="29"/>
       <c r="J96" s="29"/>
     </row>
-    <row r="97" spans="1:10" ht="112" customHeight="1">
+    <row r="97" spans="1:10" ht="112" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
         <v>133</v>
       </c>
@@ -7394,7 +7412,7 @@
       <c r="I97" s="29"/>
       <c r="J97" s="29"/>
     </row>
-    <row r="98" spans="1:10" ht="91.5" customHeight="1">
+    <row r="98" spans="1:10" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
         <v>133</v>
       </c>
@@ -7418,7 +7436,7 @@
       <c r="I98" s="29"/>
       <c r="J98" s="29"/>
     </row>
-    <row r="99" spans="1:10" ht="96" customHeight="1">
+    <row r="99" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
         <v>136</v>
       </c>
@@ -7442,7 +7460,7 @@
       <c r="I99" s="29"/>
       <c r="J99" s="29"/>
     </row>
-    <row r="100" spans="1:10" ht="86" customHeight="1">
+    <row r="100" spans="1:10" ht="86" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
         <v>138</v>
       </c>
@@ -7466,7 +7484,7 @@
       <c r="I100" s="29"/>
       <c r="J100" s="29"/>
     </row>
-    <row r="101" spans="1:10" ht="107.5" customHeight="1">
+    <row r="101" spans="1:10" ht="107.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
         <v>138</v>
       </c>
@@ -7490,7 +7508,7 @@
       <c r="I101" s="29"/>
       <c r="J101" s="29"/>
     </row>
-    <row r="102" spans="1:10" ht="91" customHeight="1">
+    <row r="102" spans="1:10" ht="91" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>141</v>
       </c>
@@ -7514,7 +7532,7 @@
       <c r="I102" s="29"/>
       <c r="J102" s="29"/>
     </row>
-    <row r="103" spans="1:10" ht="104.5" customHeight="1">
+    <row r="103" spans="1:10" ht="104.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
         <v>141</v>
       </c>
@@ -7538,7 +7556,7 @@
       <c r="I103" s="29"/>
       <c r="J103" s="29"/>
     </row>
-    <row r="104" spans="1:10" ht="108.5" customHeight="1">
+    <row r="104" spans="1:10" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
         <v>144</v>
       </c>
@@ -7562,7 +7580,7 @@
       <c r="I104" s="29"/>
       <c r="J104" s="29"/>
     </row>
-    <row r="105" spans="1:10" ht="108" customHeight="1">
+    <row r="105" spans="1:10" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
         <v>144</v>
       </c>
@@ -7586,7 +7604,7 @@
       <c r="I105" s="29"/>
       <c r="J105" s="29"/>
     </row>
-    <row r="106" spans="1:10" ht="96.5" customHeight="1">
+    <row r="106" spans="1:10" ht="96.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>147</v>
       </c>
@@ -7610,7 +7628,7 @@
       <c r="I106" s="29"/>
       <c r="J106" s="29"/>
     </row>
-    <row r="107" spans="1:10" ht="127" customHeight="1">
+    <row r="107" spans="1:10" ht="127" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
         <v>147</v>
       </c>
@@ -7634,7 +7652,7 @@
       <c r="I107" s="29"/>
       <c r="J107" s="29"/>
     </row>
-    <row r="108" spans="1:10" ht="108.5" customHeight="1">
+    <row r="108" spans="1:10" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
         <v>147</v>
       </c>
@@ -7658,7 +7676,7 @@
       <c r="I108" s="29"/>
       <c r="J108" s="29"/>
     </row>
-    <row r="109" spans="1:10" ht="115" customHeight="1">
+    <row r="109" spans="1:10" ht="115" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
         <v>151</v>
       </c>
@@ -7682,7 +7700,7 @@
       <c r="I109" s="29"/>
       <c r="J109" s="29"/>
     </row>
-    <row r="110" spans="1:10" ht="116.5" customHeight="1">
+    <row r="110" spans="1:10" ht="116.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
         <v>151</v>
       </c>
@@ -7706,7 +7724,7 @@
       <c r="I110" s="29"/>
       <c r="J110" s="29"/>
     </row>
-    <row r="111" spans="1:10" ht="107" customHeight="1">
+    <row r="111" spans="1:10" ht="107" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
         <v>154</v>
       </c>
@@ -7730,7 +7748,7 @@
       <c r="I111" s="29"/>
       <c r="J111" s="29"/>
     </row>
-    <row r="112" spans="1:10" ht="98.5" customHeight="1">
+    <row r="112" spans="1:10" ht="98.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
         <v>156</v>
       </c>
@@ -7754,7 +7772,7 @@
       <c r="I112" s="29"/>
       <c r="J112" s="29"/>
     </row>
-    <row r="113" spans="1:10" ht="81.5" customHeight="1">
+    <row r="113" spans="1:10" ht="81.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
         <v>156</v>
       </c>
@@ -7778,7 +7796,7 @@
       <c r="I113" s="29"/>
       <c r="J113" s="29"/>
     </row>
-    <row r="114" spans="1:10" ht="94" customHeight="1">
+    <row r="114" spans="1:10" ht="94" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
         <v>156</v>
       </c>
@@ -7802,7 +7820,7 @@
       <c r="I114" s="29"/>
       <c r="J114" s="29"/>
     </row>
-    <row r="115" spans="1:10" ht="102.5" customHeight="1">
+    <row r="115" spans="1:10" ht="102.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
         <v>156</v>
       </c>
@@ -7826,7 +7844,7 @@
       <c r="I115" s="29"/>
       <c r="J115" s="29"/>
     </row>
-    <row r="116" spans="1:10" ht="88.5" customHeight="1">
+    <row r="116" spans="1:10" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>156</v>
       </c>
@@ -7850,7 +7868,7 @@
       <c r="I116" s="29"/>
       <c r="J116" s="29"/>
     </row>
-    <row r="117" spans="1:10" ht="109" customHeight="1">
+    <row r="117" spans="1:10" ht="109" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
         <v>156</v>
       </c>
@@ -7874,7 +7892,7 @@
       <c r="I117" s="29"/>
       <c r="J117" s="29"/>
     </row>
-    <row r="118" spans="1:10" ht="118.5" customHeight="1">
+    <row r="118" spans="1:10" ht="118.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
         <v>163</v>
       </c>
@@ -7898,7 +7916,7 @@
       <c r="I118" s="29"/>
       <c r="J118" s="29"/>
     </row>
-    <row r="119" spans="1:10" ht="122.5" customHeight="1">
+    <row r="119" spans="1:10" ht="122.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
         <v>163</v>
       </c>
@@ -7922,7 +7940,7 @@
       <c r="I119" s="29"/>
       <c r="J119" s="29"/>
     </row>
-    <row r="120" spans="1:10" ht="97" customHeight="1">
+    <row r="120" spans="1:10" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
         <v>163</v>
       </c>
@@ -7946,7 +7964,7 @@
       <c r="I120" s="29"/>
       <c r="J120" s="29"/>
     </row>
-    <row r="121" spans="1:10" ht="84" customHeight="1">
+    <row r="121" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
         <v>163</v>
       </c>
@@ -7970,7 +7988,7 @@
       <c r="I121" s="29"/>
       <c r="J121" s="29"/>
     </row>
-    <row r="122" spans="1:10" ht="92" customHeight="1">
+    <row r="122" spans="1:10" ht="92" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>168</v>
       </c>
@@ -7994,7 +8012,7 @@
       <c r="I122" s="29"/>
       <c r="J122" s="29"/>
     </row>
-    <row r="123" spans="1:10" ht="74.5" customHeight="1">
+    <row r="123" spans="1:10" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
         <v>170</v>
       </c>
@@ -8018,7 +8036,7 @@
       <c r="I123" s="29"/>
       <c r="J123" s="29"/>
     </row>
-    <row r="124" spans="1:10" ht="86" customHeight="1">
+    <row r="124" spans="1:10" ht="86" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
         <v>172</v>
       </c>
@@ -8042,7 +8060,7 @@
       <c r="I124" s="29"/>
       <c r="J124" s="29"/>
     </row>
-    <row r="125" spans="1:10" ht="82.5" customHeight="1">
+    <row r="125" spans="1:10" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="7" t="s">
         <v>172</v>
       </c>
@@ -8066,7 +8084,7 @@
       <c r="I125" s="29"/>
       <c r="J125" s="29"/>
     </row>
-    <row r="126" spans="1:10" ht="77.5" customHeight="1">
+    <row r="126" spans="1:10" ht="77.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
         <v>175</v>
       </c>
@@ -8090,7 +8108,7 @@
       <c r="I126" s="29"/>
       <c r="J126" s="29"/>
     </row>
-    <row r="127" spans="1:10" ht="84" customHeight="1">
+    <row r="127" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="7" t="s">
         <v>175</v>
       </c>
@@ -8114,7 +8132,7 @@
       <c r="I127" s="29"/>
       <c r="J127" s="29"/>
     </row>
-    <row r="128" spans="1:10" ht="88" customHeight="1">
+    <row r="128" spans="1:10" ht="88" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
         <v>178</v>
       </c>
@@ -8138,7 +8156,7 @@
       <c r="I128" s="29"/>
       <c r="J128" s="29"/>
     </row>
-    <row r="129" spans="1:10" ht="92" customHeight="1">
+    <row r="129" spans="1:10" ht="92" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
         <v>178</v>
       </c>
@@ -8162,7 +8180,7 @@
       <c r="I129" s="29"/>
       <c r="J129" s="29"/>
     </row>
-    <row r="130" spans="1:10" ht="97.5" customHeight="1">
+    <row r="130" spans="1:10" ht="97.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
         <v>178</v>
       </c>
@@ -8186,7 +8204,7 @@
       <c r="I130" s="29"/>
       <c r="J130" s="29"/>
     </row>
-    <row r="131" spans="1:10" ht="86.5" customHeight="1">
+    <row r="131" spans="1:10" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
         <v>178</v>
       </c>
@@ -8210,7 +8228,7 @@
       <c r="I131" s="29"/>
       <c r="J131" s="29"/>
     </row>
-    <row r="132" spans="1:10" ht="97" customHeight="1">
+    <row r="132" spans="1:10" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="7" t="s">
         <v>178</v>
       </c>
@@ -8234,7 +8252,7 @@
       <c r="I132" s="29"/>
       <c r="J132" s="29"/>
     </row>
-    <row r="133" spans="1:10" ht="86.5" customHeight="1">
+    <row r="133" spans="1:10" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="7" t="s">
         <v>178</v>
       </c>
@@ -8258,7 +8276,7 @@
       <c r="I133" s="29"/>
       <c r="J133" s="29"/>
     </row>
-    <row r="134" spans="1:10" ht="114.5" customHeight="1">
+    <row r="134" spans="1:10" ht="114.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
         <v>185</v>
       </c>
@@ -8278,7 +8296,7 @@
       <c r="I134" s="29"/>
       <c r="J134" s="29"/>
     </row>
-    <row r="135" spans="1:10" ht="111.5" customHeight="1">
+    <row r="135" spans="1:10" ht="111.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="7" t="s">
         <v>187</v>
       </c>
@@ -8302,7 +8320,7 @@
       <c r="I135" s="29"/>
       <c r="J135" s="29"/>
     </row>
-    <row r="136" spans="1:10" ht="91.5" customHeight="1">
+    <row r="136" spans="1:10" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
         <v>187</v>
       </c>
@@ -8322,7 +8340,7 @@
       <c r="I136" s="29"/>
       <c r="J136" s="29"/>
     </row>
-    <row r="137" spans="1:10" ht="90.5" customHeight="1">
+    <row r="137" spans="1:10" ht="90.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="7" t="s">
         <v>187</v>
       </c>
@@ -8346,7 +8364,7 @@
       <c r="I137" s="29"/>
       <c r="J137" s="29"/>
     </row>
-    <row r="138" spans="1:10" ht="101" customHeight="1">
+    <row r="138" spans="1:10" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="11" t="s">
         <v>187</v>
       </c>
@@ -8370,7 +8388,7 @@
       <c r="I138" s="29"/>
       <c r="J138" s="29"/>
     </row>
-    <row r="139" spans="1:10" ht="95" customHeight="1">
+    <row r="139" spans="1:10" ht="95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="11" t="s">
         <v>187</v>
       </c>
@@ -8394,7 +8412,7 @@
       <c r="I139" s="29"/>
       <c r="J139" s="29"/>
     </row>
-    <row r="140" spans="1:10" ht="99.5" customHeight="1">
+    <row r="140" spans="1:10" ht="99.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
         <v>187</v>
       </c>
@@ -8418,7 +8436,7 @@
       <c r="I140" s="29"/>
       <c r="J140" s="29"/>
     </row>
-    <row r="141" spans="1:10" ht="85" customHeight="1">
+    <row r="141" spans="1:10" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
         <v>194</v>
       </c>
@@ -8442,7 +8460,7 @@
       <c r="I141" s="29"/>
       <c r="J141" s="29"/>
     </row>
-    <row r="142" spans="1:10" ht="75" customHeight="1">
+    <row r="142" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
         <v>196</v>
       </c>
@@ -8466,7 +8484,7 @@
       <c r="I142" s="29"/>
       <c r="J142" s="29"/>
     </row>
-    <row r="143" spans="1:10" ht="104.5" customHeight="1">
+    <row r="143" spans="1:10" ht="104.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="7" t="s">
         <v>196</v>
       </c>
@@ -8490,7 +8508,7 @@
       <c r="I143" s="29"/>
       <c r="J143" s="29"/>
     </row>
-    <row r="144" spans="1:10" ht="86.5" customHeight="1">
+    <row r="144" spans="1:10" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="7" t="s">
         <v>199</v>
       </c>
@@ -8504,8 +8522,8 @@
         <v>620</v>
       </c>
       <c r="E144" s="24"/>
-      <c r="F144" s="7" t="n">
-        <v>200.0</v>
+      <c r="F144" s="7">
+        <v>200</v>
       </c>
       <c r="G144" s="7" t="s">
         <v>755</v>
@@ -8514,7 +8532,7 @@
       <c r="I144" s="29"/>
       <c r="J144" s="29"/>
     </row>
-    <row r="145" spans="1:10" ht="105" customHeight="1">
+    <row r="145" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="7" t="s">
         <v>201</v>
       </c>
@@ -8538,7 +8556,7 @@
       <c r="I145" s="29"/>
       <c r="J145" s="29"/>
     </row>
-    <row r="146" spans="1:10" ht="104.5" customHeight="1">
+    <row r="146" spans="1:10" ht="104.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="7" t="s">
         <v>201</v>
       </c>
@@ -8562,7 +8580,7 @@
       <c r="I146" s="29"/>
       <c r="J146" s="29"/>
     </row>
-    <row r="147" spans="1:10" ht="85.5" customHeight="1">
+    <row r="147" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="7" t="s">
         <v>204</v>
       </c>
@@ -8586,7 +8604,7 @@
       <c r="I147" s="29"/>
       <c r="J147" s="29"/>
     </row>
-    <row r="148" spans="1:10" ht="82.5" customHeight="1">
+    <row r="148" spans="1:10" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="7" t="s">
         <v>206</v>
       </c>
@@ -8610,7 +8628,7 @@
       <c r="I148" s="29"/>
       <c r="J148" s="29"/>
     </row>
-    <row r="149" spans="1:10" ht="78.5" customHeight="1">
+    <row r="149" spans="1:10" ht="78.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="7" t="s">
         <v>206</v>
       </c>
@@ -8634,7 +8652,7 @@
       <c r="I149" s="29"/>
       <c r="J149" s="29"/>
     </row>
-    <row r="150" spans="1:10" ht="83" customHeight="1">
+    <row r="150" spans="1:10" ht="83" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="7" t="s">
         <v>206</v>
       </c>
@@ -8658,7 +8676,7 @@
       <c r="I150" s="29"/>
       <c r="J150" s="29"/>
     </row>
-    <row r="151" spans="1:10" ht="86" customHeight="1">
+    <row r="151" spans="1:10" ht="86" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="7" t="s">
         <v>206</v>
       </c>
@@ -8682,7 +8700,7 @@
       <c r="I151" s="29"/>
       <c r="J151" s="29"/>
     </row>
-    <row r="152" spans="1:10" ht="100.5" customHeight="1">
+    <row r="152" spans="1:10" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="7" t="s">
         <v>206</v>
       </c>
@@ -8706,7 +8724,7 @@
       <c r="I152" s="29"/>
       <c r="J152" s="29"/>
     </row>
-    <row r="153" spans="1:10" ht="83.5" customHeight="1">
+    <row r="153" spans="1:10" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="7" t="s">
         <v>206</v>
       </c>
@@ -8730,7 +8748,7 @@
       <c r="I153" s="29"/>
       <c r="J153" s="29"/>
     </row>
-    <row r="154" spans="1:10" ht="79.5" customHeight="1">
+    <row r="154" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="7" t="s">
         <v>206</v>
       </c>
@@ -8754,7 +8772,7 @@
       <c r="I154" s="29"/>
       <c r="J154" s="29"/>
     </row>
-    <row r="155" spans="1:10" ht="96" customHeight="1">
+    <row r="155" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="7" t="s">
         <v>207</v>
       </c>
@@ -8778,7 +8796,7 @@
       <c r="I155" s="29"/>
       <c r="J155" s="29"/>
     </row>
-    <row r="156" spans="1:10" ht="80.5" customHeight="1">
+    <row r="156" spans="1:10" ht="80.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="7" t="s">
         <v>216</v>
       </c>
@@ -8802,7 +8820,7 @@
       <c r="I156" s="29"/>
       <c r="J156" s="29"/>
     </row>
-    <row r="157" spans="1:10" ht="72.5" customHeight="1">
+    <row r="157" spans="1:10" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="7" t="s">
         <v>216</v>
       </c>
@@ -8826,7 +8844,7 @@
       <c r="I157" s="29"/>
       <c r="J157" s="29"/>
     </row>
-    <row r="158" spans="1:10" ht="84" customHeight="1">
+    <row r="158" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="7" t="s">
         <v>219</v>
       </c>
@@ -8850,7 +8868,7 @@
       <c r="I158" s="29"/>
       <c r="J158" s="29"/>
     </row>
-    <row r="159" spans="1:10" ht="76" customHeight="1">
+    <row r="159" spans="1:10" ht="76" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="7" t="s">
         <v>219</v>
       </c>
@@ -8874,7 +8892,7 @@
       <c r="I159" s="29"/>
       <c r="J159" s="29"/>
     </row>
-    <row r="160" spans="1:10" ht="86" customHeight="1">
+    <row r="160" spans="1:10" ht="86" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="7" t="s">
         <v>219</v>
       </c>
@@ -8898,7 +8916,7 @@
       <c r="I160" s="29"/>
       <c r="J160" s="29"/>
     </row>
-    <row r="161" spans="1:10" ht="81.5" customHeight="1">
+    <row r="161" spans="1:10" ht="81.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="7" t="s">
         <v>219</v>
       </c>
@@ -8922,7 +8940,7 @@
       <c r="I161" s="29"/>
       <c r="J161" s="29"/>
     </row>
-    <row r="162" spans="1:10" ht="97.5" customHeight="1">
+    <row r="162" spans="1:10" ht="97.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="7" t="s">
         <v>219</v>
       </c>
@@ -8946,7 +8964,7 @@
       <c r="I162" s="29"/>
       <c r="J162" s="29"/>
     </row>
-    <row r="163" spans="1:10" ht="81" customHeight="1">
+    <row r="163" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="7" t="s">
         <v>225</v>
       </c>
@@ -8970,7 +8988,7 @@
       <c r="I163" s="29"/>
       <c r="J163" s="29"/>
     </row>
-    <row r="164" spans="1:10" ht="92.5" customHeight="1">
+    <row r="164" spans="1:10" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="7" t="s">
         <v>227</v>
       </c>
@@ -8994,7 +9012,7 @@
       <c r="I164" s="29"/>
       <c r="J164" s="29"/>
     </row>
-    <row r="165" spans="1:10" ht="77" customHeight="1">
+    <row r="165" spans="1:10" ht="77" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="7" t="s">
         <v>227</v>
       </c>
@@ -9018,7 +9036,7 @@
       <c r="I165" s="29"/>
       <c r="J165" s="29"/>
     </row>
-    <row r="166" spans="1:10" ht="86" customHeight="1">
+    <row r="166" spans="1:10" ht="86" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="7" t="s">
         <v>227</v>
       </c>
@@ -9042,7 +9060,7 @@
       <c r="I166" s="29"/>
       <c r="J166" s="29"/>
     </row>
-    <row r="167" spans="1:10" ht="88" customHeight="1">
+    <row r="167" spans="1:10" ht="88" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="7" t="s">
         <v>227</v>
       </c>
@@ -9066,7 +9084,7 @@
       <c r="I167" s="29"/>
       <c r="J167" s="29"/>
     </row>
-    <row r="168" spans="1:10" ht="82.5" customHeight="1">
+    <row r="168" spans="1:10" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="7" t="s">
         <v>227</v>
       </c>
@@ -9090,7 +9108,7 @@
       <c r="I168" s="29"/>
       <c r="J168" s="29"/>
     </row>
-    <row r="169" spans="1:10" ht="79.5" customHeight="1">
+    <row r="169" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="7" t="s">
         <v>227</v>
       </c>
@@ -9114,7 +9132,7 @@
       <c r="I169" s="29"/>
       <c r="J169" s="29"/>
     </row>
-    <row r="170" spans="1:10" ht="84" customHeight="1">
+    <row r="170" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="7" t="s">
         <v>227</v>
       </c>
@@ -9138,7 +9156,7 @@
       <c r="I170" s="29"/>
       <c r="J170" s="29"/>
     </row>
-    <row r="171" spans="1:10" ht="72.5" customHeight="1">
+    <row r="171" spans="1:10" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="7" t="s">
         <v>235</v>
       </c>
@@ -9162,7 +9180,7 @@
       <c r="I171" s="29"/>
       <c r="J171" s="29"/>
     </row>
-    <row r="172" spans="1:10" ht="64.5" customHeight="1">
+    <row r="172" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="7" t="s">
         <v>237</v>
       </c>
@@ -9186,7 +9204,7 @@
       <c r="I172" s="29"/>
       <c r="J172" s="29"/>
     </row>
-    <row r="173" spans="1:10" ht="67" customHeight="1">
+    <row r="173" spans="1:10" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="7" t="s">
         <v>239</v>
       </c>
@@ -9210,7 +9228,7 @@
       <c r="I173" s="29"/>
       <c r="J173" s="29"/>
     </row>
-    <row r="174" spans="1:10" ht="70" customHeight="1">
+    <row r="174" spans="1:10" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="7" t="s">
         <v>239</v>
       </c>
@@ -9234,7 +9252,7 @@
       <c r="I174" s="29"/>
       <c r="J174" s="29"/>
     </row>
-    <row r="175" spans="1:10" ht="77" customHeight="1">
+    <row r="175" spans="1:10" ht="77" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="7" t="s">
         <v>242</v>
       </c>
@@ -9258,7 +9276,7 @@
       <c r="I175" s="29"/>
       <c r="J175" s="29"/>
     </row>
-    <row r="176" spans="1:10" ht="87.5" customHeight="1">
+    <row r="176" spans="1:10" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="7" t="s">
         <v>242</v>
       </c>
@@ -9282,7 +9300,7 @@
       <c r="I176" s="29"/>
       <c r="J176" s="29"/>
     </row>
-    <row r="177" spans="1:10" ht="91.5" customHeight="1">
+    <row r="177" spans="1:10" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="11" t="s">
         <v>245</v>
       </c>
@@ -9306,7 +9324,7 @@
       <c r="I177" s="29"/>
       <c r="J177" s="29"/>
     </row>
-    <row r="178" spans="1:10" ht="110.5" customHeight="1">
+    <row r="178" spans="1:10" ht="110.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="7" t="s">
         <v>245</v>
       </c>
@@ -9330,7 +9348,7 @@
       <c r="I178" s="29"/>
       <c r="J178" s="29"/>
     </row>
-    <row r="179" spans="1:10" ht="92" customHeight="1">
+    <row r="179" spans="1:10" ht="92" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="7" t="s">
         <v>245</v>
       </c>
@@ -9354,7 +9372,7 @@
       <c r="I179" s="29"/>
       <c r="J179" s="29"/>
     </row>
-    <row r="180" spans="1:10" ht="91" customHeight="1">
+    <row r="180" spans="1:10" ht="91" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="7" t="s">
         <v>249</v>
       </c>
@@ -9378,7 +9396,7 @@
       <c r="I180" s="29"/>
       <c r="J180" s="29"/>
     </row>
-    <row r="181" spans="1:10" ht="83" customHeight="1">
+    <row r="181" spans="1:10" ht="83" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="7" t="s">
         <v>249</v>
       </c>
@@ -9402,7 +9420,7 @@
       <c r="I181" s="29"/>
       <c r="J181" s="29"/>
     </row>
-    <row r="182" spans="1:10" ht="106.5" customHeight="1">
+    <row r="182" spans="1:10" ht="106.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="7" t="s">
         <v>249</v>
       </c>
@@ -9426,7 +9444,7 @@
       <c r="I182" s="29"/>
       <c r="J182" s="29"/>
     </row>
-    <row r="183" spans="1:10" ht="96" customHeight="1">
+    <row r="183" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="7" t="s">
         <v>253</v>
       </c>
@@ -9450,7 +9468,7 @@
       <c r="I183" s="29"/>
       <c r="J183" s="29"/>
     </row>
-    <row r="184" spans="1:10" ht="97" customHeight="1">
+    <row r="184" spans="1:10" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="7" t="s">
         <v>255</v>
       </c>
@@ -9474,7 +9492,7 @@
       <c r="I184" s="29"/>
       <c r="J184" s="29"/>
     </row>
-    <row r="185" spans="1:10" ht="78" customHeight="1">
+    <row r="185" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="7" t="s">
         <v>255</v>
       </c>
@@ -9498,7 +9516,7 @@
       <c r="I185" s="29"/>
       <c r="J185" s="29"/>
     </row>
-    <row r="186" spans="1:10" ht="89.5" customHeight="1">
+    <row r="186" spans="1:10" ht="89.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="7" t="s">
         <v>258</v>
       </c>
@@ -9522,7 +9540,7 @@
       <c r="I186" s="29"/>
       <c r="J186" s="29"/>
     </row>
-    <row r="187" spans="1:10" ht="79.5" customHeight="1">
+    <row r="187" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="7" t="s">
         <v>258</v>
       </c>
@@ -9546,7 +9564,7 @@
       <c r="I187" s="29"/>
       <c r="J187" s="29"/>
     </row>
-    <row r="188" spans="1:10" ht="83" customHeight="1">
+    <row r="188" spans="1:10" ht="83" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="7" t="s">
         <v>258</v>
       </c>
@@ -9570,7 +9588,7 @@
       <c r="I188" s="29"/>
       <c r="J188" s="29"/>
     </row>
-    <row r="189" spans="1:10" ht="84.5" customHeight="1">
+    <row r="189" spans="1:10" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="7" t="s">
         <v>262</v>
       </c>
@@ -9594,7 +9612,7 @@
       <c r="I189" s="29"/>
       <c r="J189" s="29"/>
     </row>
-    <row r="190" spans="1:10" ht="82.5" customHeight="1">
+    <row r="190" spans="1:10" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="19" t="s">
         <v>262</v>
       </c>
@@ -9618,7 +9636,7 @@
       <c r="I190" s="29"/>
       <c r="J190" s="29"/>
     </row>
-    <row r="191" spans="1:10" ht="85" customHeight="1">
+    <row r="191" spans="1:10" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="4" t="s">
         <v>262</v>
       </c>
@@ -9642,7 +9660,7 @@
       <c r="I191" s="29"/>
       <c r="J191" s="29"/>
     </row>
-    <row r="192" spans="1:10" ht="92.5" customHeight="1">
+    <row r="192" spans="1:10" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>267</v>
       </c>
@@ -9660,7 +9678,7 @@
       <c r="I192" s="29"/>
       <c r="J192" s="29"/>
     </row>
-    <row r="193" spans="1:10" ht="88" customHeight="1">
+    <row r="193" spans="1:10" ht="88" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>267</v>
       </c>
@@ -9678,7 +9696,7 @@
       <c r="I193" s="29"/>
       <c r="J193" s="29"/>
     </row>
-    <row r="194" spans="1:10" ht="89" customHeight="1">
+    <row r="194" spans="1:10" ht="89" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>267</v>
       </c>
@@ -9696,7 +9714,7 @@
       <c r="I194" s="29"/>
       <c r="J194" s="29"/>
     </row>
-    <row r="195" spans="1:10" ht="107" customHeight="1">
+    <row r="195" spans="1:10" ht="107" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>270</v>
       </c>
@@ -9714,7 +9732,7 @@
       <c r="I195" s="29"/>
       <c r="J195" s="29"/>
     </row>
-    <row r="196" spans="1:10" ht="107" customHeight="1">
+    <row r="196" spans="1:10" ht="107" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>278</v>
       </c>
@@ -9732,7 +9750,7 @@
       <c r="I196" s="29"/>
       <c r="J196" s="29"/>
     </row>
-    <row r="197" spans="1:10" ht="127" customHeight="1">
+    <row r="197" spans="1:10" ht="127" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
         <v>282</v>
       </c>
@@ -9750,7 +9768,7 @@
       <c r="I197" s="29"/>
       <c r="J197" s="29"/>
     </row>
-    <row r="198" spans="1:10" ht="101" customHeight="1">
+    <row r="198" spans="1:10" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>285</v>
       </c>
@@ -9768,7 +9786,7 @@
       <c r="I198" s="29"/>
       <c r="J198" s="29"/>
     </row>
-    <row r="199" spans="1:10" ht="87">
+    <row r="199" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="A199" s="4" t="s">
         <v>285</v>
       </c>
@@ -9786,7 +9804,7 @@
       <c r="I199" s="29"/>
       <c r="J199" s="29"/>
     </row>
-    <row r="200" spans="1:10" ht="409.5">
+    <row r="200" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A200" s="4" t="s">
         <v>292</v>
       </c>
@@ -9804,7 +9822,7 @@
       <c r="I200" s="29"/>
       <c r="J200" s="29"/>
     </row>
-    <row r="201" spans="1:10" ht="409.5">
+    <row r="201" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A201" s="4" t="s">
         <v>294</v>
       </c>
@@ -9822,7 +9840,7 @@
       <c r="I201" s="29"/>
       <c r="J201" s="29"/>
     </row>
-    <row r="202" spans="1:10" ht="275.5">
+    <row r="202" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A202" s="4" t="s">
         <v>296</v>
       </c>
@@ -9840,7 +9858,7 @@
       <c r="I202" s="29"/>
       <c r="J202" s="29"/>
     </row>
-    <row r="203" spans="1:10" ht="409.5">
+    <row r="203" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A203" s="4" t="s">
         <v>301</v>
       </c>
@@ -9858,7 +9876,7 @@
       <c r="I203" s="29"/>
       <c r="J203" s="29"/>
     </row>
-    <row r="204" spans="1:10" ht="409.5">
+    <row r="204" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A204" s="4" t="s">
         <v>305</v>
       </c>
@@ -9876,7 +9894,7 @@
       <c r="I204" s="29"/>
       <c r="J204" s="29"/>
     </row>
-    <row r="205" spans="1:10" ht="159.5">
+    <row r="205" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A205" s="4" t="s">
         <v>478</v>
       </c>
@@ -9898,7 +9916,7 @@
       <c r="I205" s="29"/>
       <c r="J205" s="29"/>
     </row>
-    <row r="206" spans="1:10" ht="188.5">
+    <row r="206" spans="1:10" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A206" s="4" t="s">
         <v>318</v>
       </c>
@@ -9916,7 +9934,7 @@
       <c r="I206" s="29"/>
       <c r="J206" s="29"/>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A207" s="4" t="s">
         <v>318</v>
       </c>
@@ -9932,7 +9950,7 @@
       <c r="I207" s="29"/>
       <c r="J207" s="29"/>
     </row>
-    <row r="208" spans="1:10" ht="116">
+    <row r="208" spans="1:10" ht="116" x14ac:dyDescent="0.35">
       <c r="A208" s="7" t="s">
         <v>324</v>
       </c>
@@ -9950,7 +9968,7 @@
       <c r="I208" s="29"/>
       <c r="J208" s="29"/>
     </row>
-    <row r="209" spans="1:10" ht="116">
+    <row r="209" spans="1:10" ht="116" x14ac:dyDescent="0.35">
       <c r="A209" s="7" t="s">
         <v>327</v>
       </c>
@@ -9968,7 +9986,7 @@
       <c r="I209" s="29"/>
       <c r="J209" s="29"/>
     </row>
-    <row r="210" spans="1:10" ht="409.5">
+    <row r="210" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A210" s="7" t="s">
         <v>331</v>
       </c>
@@ -9986,7 +10004,7 @@
       <c r="I210" s="29"/>
       <c r="J210" s="29"/>
     </row>
-    <row r="211" spans="1:10" ht="246.5">
+    <row r="211" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A211" s="7" t="s">
         <v>335</v>
       </c>
@@ -10004,7 +10022,7 @@
       <c r="I211" s="29"/>
       <c r="J211" s="29"/>
     </row>
-    <row r="212" spans="1:10" ht="290">
+    <row r="212" spans="1:10" ht="290" x14ac:dyDescent="0.35">
       <c r="A212" s="7" t="s">
         <v>339</v>
       </c>
@@ -10022,7 +10040,7 @@
       <c r="I212" s="29"/>
       <c r="J212" s="29"/>
     </row>
-    <row r="213" spans="1:10" ht="319">
+    <row r="213" spans="1:10" ht="319" x14ac:dyDescent="0.35">
       <c r="A213" s="7" t="s">
         <v>343</v>
       </c>
@@ -10040,7 +10058,7 @@
       <c r="I213" s="29"/>
       <c r="J213" s="29"/>
     </row>
-    <row r="214" spans="1:10" ht="409.5">
+    <row r="214" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A214" s="7" t="s">
         <v>343</v>
       </c>
@@ -10058,7 +10076,7 @@
       <c r="I214" s="29"/>
       <c r="J214" s="29"/>
     </row>
-    <row r="215" spans="1:10" ht="409.5">
+    <row r="215" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A215" s="7" t="s">
         <v>349</v>
       </c>
@@ -10076,7 +10094,7 @@
       <c r="I215" s="29"/>
       <c r="J215" s="29"/>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A216" s="7" t="s">
         <v>353</v>
       </c>
@@ -10092,7 +10110,7 @@
       <c r="I216" s="29"/>
       <c r="J216" s="29"/>
     </row>
-    <row r="217" spans="1:10" ht="409.5">
+    <row r="217" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A217" s="7" t="s">
         <v>353</v>
       </c>
@@ -10110,7 +10128,7 @@
       <c r="I217" s="29"/>
       <c r="J217" s="29"/>
     </row>
-    <row r="218" spans="1:10" ht="87">
+    <row r="218" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="A218" s="7" t="s">
         <v>353</v>
       </c>
@@ -10128,7 +10146,7 @@
       <c r="I218" s="29"/>
       <c r="J218" s="29"/>
     </row>
-    <row r="219" spans="1:10">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A219" s="7" t="s">
         <v>362</v>
       </c>
@@ -10144,7 +10162,7 @@
       <c r="I219" s="29"/>
       <c r="J219" s="29"/>
     </row>
-    <row r="220" spans="1:10" ht="246.5">
+    <row r="220" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A220" s="7" t="s">
         <v>362</v>
       </c>
@@ -10162,7 +10180,7 @@
       <c r="I220" s="29"/>
       <c r="J220" s="29"/>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A221" s="7" t="s">
         <v>362</v>
       </c>
@@ -10178,7 +10196,7 @@
       <c r="I221" s="29"/>
       <c r="J221" s="29"/>
     </row>
-    <row r="222" spans="1:10" ht="246.5">
+    <row r="222" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A222" s="7" t="s">
         <v>370</v>
       </c>
@@ -10196,7 +10214,7 @@
       <c r="I222" s="29"/>
       <c r="J222" s="29"/>
     </row>
-    <row r="223" spans="1:10" ht="72.5">
+    <row r="223" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A223" s="7" t="s">
         <v>370</v>
       </c>
@@ -10214,7 +10232,7 @@
       <c r="I223" s="29"/>
       <c r="J223" s="29"/>
     </row>
-    <row r="224" spans="1:10" ht="116">
+    <row r="224" spans="1:10" ht="116" x14ac:dyDescent="0.35">
       <c r="A224" s="7" t="s">
         <v>376</v>
       </c>
@@ -10236,7 +10254,7 @@
       <c r="I224" s="29"/>
       <c r="J224" s="29"/>
     </row>
-    <row r="225" spans="1:10">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A225" s="7" t="s">
         <v>380</v>
       </c>
@@ -10252,7 +10270,7 @@
       <c r="I225" s="29"/>
       <c r="J225" s="29"/>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A226" s="7" t="s">
         <v>380</v>
       </c>
@@ -10268,7 +10286,7 @@
       <c r="I226" s="29"/>
       <c r="J226" s="29"/>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A227" s="7" t="s">
         <v>380</v>
       </c>
@@ -10284,7 +10302,7 @@
       <c r="I227" s="29"/>
       <c r="J227" s="29"/>
     </row>
-    <row r="228" spans="1:10">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A228" s="7" t="s">
         <v>380</v>
       </c>
@@ -10300,7 +10318,7 @@
       <c r="I228" s="29"/>
       <c r="J228" s="29"/>
     </row>
-    <row r="229" spans="1:10">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A229" s="7" t="s">
         <v>380</v>
       </c>
@@ -10316,7 +10334,7 @@
       <c r="I229" s="29"/>
       <c r="J229" s="29"/>
     </row>
-    <row r="230" spans="1:10" ht="116">
+    <row r="230" spans="1:10" ht="116" x14ac:dyDescent="0.35">
       <c r="A230" s="7" t="s">
         <v>388</v>
       </c>
@@ -10334,7 +10352,7 @@
       <c r="I230" s="29"/>
       <c r="J230" s="29"/>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A231" s="7" t="s">
         <v>390</v>
       </c>
@@ -10350,7 +10368,7 @@
       <c r="I231" s="29"/>
       <c r="J231" s="29"/>
     </row>
-    <row r="232" spans="1:10" ht="304.5">
+    <row r="232" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A232" s="7" t="s">
         <v>393</v>
       </c>
@@ -10368,7 +10386,7 @@
       <c r="I232" s="29"/>
       <c r="J232" s="29"/>
     </row>
-    <row r="233" spans="1:10">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A233" s="7" t="s">
         <v>396</v>
       </c>
@@ -10384,7 +10402,7 @@
       <c r="I233" s="29"/>
       <c r="J233" s="29"/>
     </row>
-    <row r="234" spans="1:10" ht="409.5">
+    <row r="234" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A234" s="7" t="s">
         <v>398</v>
       </c>
@@ -10402,7 +10420,7 @@
       <c r="I234" s="29"/>
       <c r="J234" s="29"/>
     </row>
-    <row r="235" spans="1:10" ht="116">
+    <row r="235" spans="1:10" ht="116" x14ac:dyDescent="0.35">
       <c r="A235" s="7" t="s">
         <v>401</v>
       </c>
@@ -10420,7 +10438,7 @@
       <c r="I235" s="29"/>
       <c r="J235" s="29"/>
     </row>
-    <row r="236" spans="1:10" ht="377">
+    <row r="236" spans="1:10" ht="377" x14ac:dyDescent="0.35">
       <c r="A236" s="7" t="s">
         <v>401</v>
       </c>
@@ -10438,7 +10456,7 @@
       <c r="I236" s="29"/>
       <c r="J236" s="29"/>
     </row>
-    <row r="237" spans="1:10" ht="87">
+    <row r="237" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="A237" s="7" t="s">
         <v>401</v>
       </c>
@@ -10456,7 +10474,7 @@
       <c r="I237" s="29"/>
       <c r="J237" s="29"/>
     </row>
-    <row r="238" spans="1:10" ht="319">
+    <row r="238" spans="1:10" ht="319" x14ac:dyDescent="0.35">
       <c r="A238" s="7" t="s">
         <v>401</v>
       </c>
@@ -10474,7 +10492,7 @@
       <c r="I238" s="29"/>
       <c r="J238" s="29"/>
     </row>
-    <row r="239" spans="1:10" ht="87">
+    <row r="239" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="A239" s="7" t="s">
         <v>401</v>
       </c>
@@ -10492,7 +10510,7 @@
       <c r="I239" s="29"/>
       <c r="J239" s="29"/>
     </row>
-    <row r="240" spans="1:10" ht="72.5">
+    <row r="240" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A240" s="7" t="s">
         <v>412</v>
       </c>
@@ -10510,7 +10528,7 @@
       <c r="I240" s="29"/>
       <c r="J240" s="29"/>
     </row>
-    <row r="241" spans="1:10" ht="409.5">
+    <row r="241" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A241" s="7" t="s">
         <v>416</v>
       </c>
@@ -10528,7 +10546,7 @@
       <c r="I241" s="29"/>
       <c r="J241" s="29"/>
     </row>
-    <row r="242" spans="1:10" ht="87">
+    <row r="242" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="A242" s="7" t="s">
         <v>416</v>
       </c>
@@ -10546,7 +10564,7 @@
       <c r="I242" s="29"/>
       <c r="J242" s="29"/>
     </row>
-    <row r="243" spans="1:10" ht="101.5">
+    <row r="243" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A243" s="7" t="s">
         <v>416</v>
       </c>
@@ -10564,7 +10582,7 @@
       <c r="I243" s="29"/>
       <c r="J243" s="29"/>
     </row>
-    <row r="244" spans="1:10" ht="72.5">
+    <row r="244" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A244" s="7" t="s">
         <v>425</v>
       </c>
@@ -10582,7 +10600,7 @@
       <c r="I244" s="29"/>
       <c r="J244" s="29"/>
     </row>
-    <row r="245" spans="1:10" ht="409.5">
+    <row r="245" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A245" s="7" t="s">
         <v>425</v>
       </c>
@@ -10600,7 +10618,7 @@
       <c r="I245" s="29"/>
       <c r="J245" s="29"/>
     </row>
-    <row r="246" spans="1:10" ht="203">
+    <row r="246" spans="1:10" ht="203" x14ac:dyDescent="0.35">
       <c r="A246" s="7" t="s">
         <v>425</v>
       </c>
@@ -10618,7 +10636,7 @@
       <c r="I246" s="29"/>
       <c r="J246" s="29"/>
     </row>
-    <row r="247" spans="1:10" ht="43.5">
+    <row r="247" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A247" s="7" t="s">
         <v>433</v>
       </c>
@@ -10636,7 +10654,7 @@
       <c r="I247" s="29"/>
       <c r="J247" s="29"/>
     </row>
-    <row r="248" spans="1:10" ht="116">
+    <row r="248" spans="1:10" ht="116" x14ac:dyDescent="0.35">
       <c r="A248" s="7" t="s">
         <v>436</v>
       </c>
@@ -10654,7 +10672,7 @@
       <c r="I248" s="29"/>
       <c r="J248" s="29"/>
     </row>
-    <row r="249" spans="1:10" ht="409.5">
+    <row r="249" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A249" s="7" t="s">
         <v>442</v>
       </c>
@@ -10672,7 +10690,7 @@
       <c r="I249" s="29"/>
       <c r="J249" s="29"/>
     </row>
-    <row r="250" spans="1:10" ht="43.5">
+    <row r="250" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A250" s="7" t="s">
         <v>442</v>
       </c>
@@ -10690,7 +10708,7 @@
       <c r="I250" s="29"/>
       <c r="J250" s="29"/>
     </row>
-    <row r="251" spans="1:10" ht="409.5">
+    <row r="251" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A251" s="7" t="s">
         <v>448</v>
       </c>
@@ -10708,7 +10726,7 @@
       <c r="I251" s="29"/>
       <c r="J251" s="29"/>
     </row>
-    <row r="252" spans="1:10" ht="159.5">
+    <row r="252" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A252" s="7" t="s">
         <v>454</v>
       </c>
@@ -10726,7 +10744,7 @@
       <c r="I252" s="29"/>
       <c r="J252" s="29"/>
     </row>
-    <row r="253" spans="1:10">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A253" s="7" t="s">
         <v>497</v>
       </c>
@@ -10750,7 +10768,7 @@
       <c r="I253" s="29"/>
       <c r="J253" s="29"/>
     </row>
-    <row r="254" spans="1:10" ht="409.5">
+    <row r="254" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A254" s="7" t="s">
         <v>497</v>
       </c>
@@ -10774,7 +10792,7 @@
       <c r="I254" s="29"/>
       <c r="J254" s="29"/>
     </row>
-    <row r="255" spans="1:10" ht="409.5">
+    <row r="255" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A255" s="7" t="s">
         <v>497</v>
       </c>
@@ -10798,7 +10816,7 @@
       <c r="I255" s="29"/>
       <c r="J255" s="29"/>
     </row>
-    <row r="256" spans="1:10" ht="409.5">
+    <row r="256" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A256" s="7" t="s">
         <v>497</v>
       </c>
@@ -10818,7 +10836,7 @@
       <c r="I256" s="29"/>
       <c r="J256" s="29"/>
     </row>
-    <row r="257" spans="1:10" ht="409.5">
+    <row r="257" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A257" s="7" t="s">
         <v>497</v>
       </c>
@@ -10838,7 +10856,7 @@
       <c r="I257" s="29"/>
       <c r="J257" s="29"/>
     </row>
-    <row r="258" spans="1:10" ht="409.5">
+    <row r="258" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A258" s="7" t="s">
         <v>497</v>
       </c>
@@ -10862,7 +10880,7 @@
       <c r="I258" s="29"/>
       <c r="J258" s="29"/>
     </row>
-    <row r="259" spans="1:10">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A259" s="7" t="s">
         <v>497</v>
       </c>
@@ -10886,7 +10904,7 @@
       <c r="I259" s="29"/>
       <c r="J259" s="29"/>
     </row>
-    <row r="260" spans="1:10">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A260" s="7" t="s">
         <v>497</v>
       </c>
@@ -10910,7 +10928,7 @@
       <c r="I260" s="29"/>
       <c r="J260" s="29"/>
     </row>
-    <row r="261" spans="1:10" ht="409.5">
+    <row r="261" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A261" s="7" t="s">
         <v>497</v>
       </c>
@@ -10934,7 +10952,7 @@
       <c r="I261" s="29"/>
       <c r="J261" s="29"/>
     </row>
-    <row r="262" spans="1:10">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A262" s="7" t="s">
         <v>497</v>
       </c>
@@ -10950,7 +10968,7 @@
       <c r="I262" s="29"/>
       <c r="J262" s="29"/>
     </row>
-    <row r="263" spans="1:10">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A263" s="7"/>
       <c r="B263" s="7"/>
       <c r="C263" s="5"/>
@@ -10962,7 +10980,7 @@
       <c r="I263" s="29"/>
       <c r="J263" s="29"/>
     </row>
-    <row r="264" spans="1:10" ht="409.5">
+    <row r="264" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A264" s="7"/>
       <c r="B264" s="7"/>
       <c r="C264" s="5" t="s">
@@ -10982,7 +11000,7 @@
       <c r="I264" s="29"/>
       <c r="J264" s="29"/>
     </row>
-    <row r="265" spans="1:10">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A265" s="7"/>
       <c r="B265" s="7"/>
       <c r="C265" s="5"/>
@@ -10994,7 +11012,7 @@
       <c r="I265" s="29"/>
       <c r="J265" s="29"/>
     </row>
-    <row r="266" spans="1:10">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A266" s="7"/>
       <c r="B266" s="7"/>
       <c r="C266" s="5"/>
@@ -11006,7 +11024,7 @@
       <c r="I266" s="29"/>
       <c r="J266" s="29"/>
     </row>
-    <row r="267" spans="1:10">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A267" s="7"/>
       <c r="B267" s="7"/>
       <c r="C267" s="5"/>
@@ -11018,7 +11036,7 @@
       <c r="I267" s="29"/>
       <c r="J267" s="29"/>
     </row>
-    <row r="268" spans="1:10">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A268" s="7"/>
       <c r="B268" s="7"/>
       <c r="C268" s="5"/>
@@ -11030,7 +11048,7 @@
       <c r="I268" s="29"/>
       <c r="J268" s="29"/>
     </row>
-    <row r="269" spans="1:10">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A269" s="7"/>
       <c r="B269" s="7"/>
       <c r="C269" s="5"/>
@@ -11042,7 +11060,7 @@
       <c r="I269" s="29"/>
       <c r="J269" s="29"/>
     </row>
-    <row r="270" spans="1:10" ht="58">
+    <row r="270" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A270" s="7" t="s">
         <v>482</v>
       </c>
@@ -11066,7 +11084,7 @@
       <c r="I270" s="29"/>
       <c r="J270" s="29"/>
     </row>
-    <row r="271" spans="1:10">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A271" s="7" t="s">
         <v>482</v>
       </c>
@@ -11090,7 +11108,7 @@
       <c r="I271" s="29"/>
       <c r="J271" s="29"/>
     </row>
-    <row r="272" spans="1:10">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A272" s="7" t="s">
         <v>482</v>
       </c>
@@ -11114,7 +11132,7 @@
       <c r="I272" s="29"/>
       <c r="J272" s="29"/>
     </row>
-    <row r="273" spans="1:10" ht="58">
+    <row r="273" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A273" s="7" t="s">
         <v>482</v>
       </c>
@@ -11138,7 +11156,7 @@
       <c r="I273" s="29"/>
       <c r="J273" s="29"/>
     </row>
-    <row r="274" spans="1:10" ht="72.5">
+    <row r="274" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A274" s="7" t="s">
         <v>482</v>
       </c>
@@ -11162,7 +11180,7 @@
       <c r="I274" s="29"/>
       <c r="J274" s="29"/>
     </row>
-    <row r="275" spans="1:10" ht="43.5">
+    <row r="275" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A275" s="7" t="s">
         <v>482</v>
       </c>
@@ -11186,7 +11204,7 @@
       <c r="I275" s="29"/>
       <c r="J275" s="29"/>
     </row>
-    <row r="276" spans="1:10" ht="29">
+    <row r="276" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A276" s="7" t="s">
         <v>482</v>
       </c>
@@ -11210,7 +11228,7 @@
       <c r="I276" s="29"/>
       <c r="J276" s="29"/>
     </row>
-    <row r="277" spans="1:10" ht="29">
+    <row r="277" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A277" s="7" t="s">
         <v>482</v>
       </c>
@@ -11234,7 +11252,7 @@
       <c r="I277" s="29"/>
       <c r="J277" s="29"/>
     </row>
-    <row r="278" spans="1:10" ht="58">
+    <row r="278" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A278" s="7" t="s">
         <v>482</v>
       </c>
@@ -11258,7 +11276,7 @@
       <c r="I278" s="29"/>
       <c r="J278" s="29"/>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A279" s="7" t="s">
         <v>482</v>
       </c>
@@ -11282,7 +11300,7 @@
       <c r="I279" s="29"/>
       <c r="J279" s="29"/>
     </row>
-    <row r="280" spans="1:10" ht="319">
+    <row r="280" spans="1:10" ht="319" x14ac:dyDescent="0.35">
       <c r="A280" s="7" t="s">
         <v>482</v>
       </c>
@@ -11306,7 +11324,7 @@
       <c r="I280" s="29"/>
       <c r="J280" s="29"/>
     </row>
-    <row r="281" spans="1:10" ht="348">
+    <row r="281" spans="1:10" ht="348" x14ac:dyDescent="0.35">
       <c r="A281" s="7" t="s">
         <v>482</v>
       </c>
@@ -11330,7 +11348,7 @@
       <c r="I281" s="29"/>
       <c r="J281" s="29"/>
     </row>
-    <row r="282" spans="1:10" ht="72.5">
+    <row r="282" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A282" s="7" t="s">
         <v>482</v>
       </c>
@@ -11354,7 +11372,7 @@
       <c r="I282" s="29"/>
       <c r="J282" s="29"/>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A283" s="7" t="s">
         <v>482</v>
       </c>
@@ -11378,7 +11396,7 @@
       <c r="I283" s="29"/>
       <c r="J283" s="29"/>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A284" s="7" t="s">
         <v>482</v>
       </c>
@@ -11402,7 +11420,7 @@
       <c r="I284" s="29"/>
       <c r="J284" s="29"/>
     </row>
-    <row r="285" spans="1:10">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A285" s="7" t="s">
         <v>482</v>
       </c>
@@ -11426,7 +11444,7 @@
       <c r="I285" s="29"/>
       <c r="J285" s="29"/>
     </row>
-    <row r="286" spans="1:10" ht="130.5">
+    <row r="286" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A286" s="7" t="s">
         <v>480</v>
       </c>
@@ -11450,7 +11468,7 @@
       <c r="I286" s="29"/>
       <c r="J286" s="29"/>
     </row>
-    <row r="287" spans="1:10" ht="130.5">
+    <row r="287" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A287" s="7" t="s">
         <v>480</v>
       </c>
@@ -11474,7 +11492,7 @@
       <c r="I287" s="29"/>
       <c r="J287" s="29"/>
     </row>
-    <row r="288" spans="1:10" ht="130.5">
+    <row r="288" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A288" s="7" t="s">
         <v>480</v>
       </c>
@@ -11498,7 +11516,7 @@
       <c r="I288" s="29"/>
       <c r="J288" s="29"/>
     </row>
-    <row r="289" spans="1:10" ht="130.5">
+    <row r="289" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A289" s="7" t="s">
         <v>480</v>
       </c>
@@ -11522,7 +11540,7 @@
       <c r="I289" s="29"/>
       <c r="J289" s="29"/>
     </row>
-    <row r="290" spans="1:10">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A290" s="5" t="s">
         <v>493</v>
       </c>
@@ -11546,7 +11564,7 @@
       <c r="I290" s="29"/>
       <c r="J290" s="29"/>
     </row>
-    <row r="291" spans="1:10">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A291" s="5" t="s">
         <v>493</v>
       </c>
@@ -11570,7 +11588,7 @@
       <c r="I291" s="29"/>
       <c r="J291" s="29"/>
     </row>
-    <row r="292" spans="1:10">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A292" s="5" t="s">
         <v>493</v>
       </c>
@@ -11594,7 +11612,7 @@
       <c r="I292" s="29"/>
       <c r="J292" s="29"/>
     </row>
-    <row r="293" spans="1:10">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A293" s="5" t="s">
         <v>493</v>
       </c>
@@ -11618,7 +11636,7 @@
       <c r="I293" s="29"/>
       <c r="J293" s="29"/>
     </row>
-    <row r="294" spans="1:10">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A294" s="7" t="s">
         <v>487</v>
       </c>
@@ -11642,7 +11660,7 @@
       <c r="I294" s="29"/>
       <c r="J294" s="29"/>
     </row>
-    <row r="295" spans="1:10" ht="203">
+    <row r="295" spans="1:10" ht="203" x14ac:dyDescent="0.35">
       <c r="A295" s="7" t="s">
         <v>487</v>
       </c>
@@ -11666,7 +11684,7 @@
       <c r="I295" s="29"/>
       <c r="J295" s="29"/>
     </row>
-    <row r="296" spans="1:10" ht="203">
+    <row r="296" spans="1:10" ht="203" x14ac:dyDescent="0.35">
       <c r="A296" s="7" t="s">
         <v>487</v>
       </c>
@@ -11690,7 +11708,7 @@
       <c r="I296" s="29"/>
       <c r="J296" s="29"/>
     </row>
-    <row r="297" spans="1:10">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A297" s="7" t="s">
         <v>487</v>
       </c>
@@ -11714,7 +11732,7 @@
       <c r="I297" s="29"/>
       <c r="J297" s="29"/>
     </row>
-    <row r="298" spans="1:10">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A298" s="7" t="s">
         <v>487</v>
       </c>
@@ -11738,7 +11756,7 @@
       <c r="I298" s="29"/>
       <c r="J298" s="29"/>
     </row>
-    <row r="299" spans="1:10">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A299" s="7" t="s">
         <v>489</v>
       </c>
@@ -11762,7 +11780,7 @@
       <c r="I299" s="29"/>
       <c r="J299" s="29"/>
     </row>
-    <row r="300" spans="1:10">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A300" s="7" t="s">
         <v>489</v>
       </c>
@@ -11786,7 +11804,7 @@
       <c r="I300" s="29"/>
       <c r="J300" s="29"/>
     </row>
-    <row r="301" spans="1:10">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A301" s="7" t="s">
         <v>489</v>
       </c>
@@ -11810,7 +11828,7 @@
       <c r="I301" s="29"/>
       <c r="J301" s="29"/>
     </row>
-    <row r="302" spans="1:10">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A302" s="7" t="s">
         <v>489</v>
       </c>
@@ -11834,7 +11852,7 @@
       <c r="I302" s="29"/>
       <c r="J302" s="29"/>
     </row>
-    <row r="303" spans="1:10">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A303" s="7" t="s">
         <v>489</v>
       </c>
@@ -11858,7 +11876,7 @@
       <c r="I303" s="29"/>
       <c r="J303" s="29"/>
     </row>
-    <row r="304" spans="1:10">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A304" s="7" t="s">
         <v>489</v>
       </c>
@@ -11882,7 +11900,7 @@
       <c r="I304" s="29"/>
       <c r="J304" s="29"/>
     </row>
-    <row r="305" spans="1:10">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A305" s="7" t="s">
         <v>489</v>
       </c>
@@ -11906,7 +11924,7 @@
       <c r="I305" s="29"/>
       <c r="J305" s="29"/>
     </row>
-    <row r="306" spans="1:10">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A306" s="7" t="s">
         <v>489</v>
       </c>
@@ -11930,7 +11948,7 @@
       <c r="I306" s="29"/>
       <c r="J306" s="29"/>
     </row>
-    <row r="307" spans="1:10">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A307" s="7" t="s">
         <v>489</v>
       </c>
@@ -11954,7 +11972,7 @@
       <c r="I307" s="29"/>
       <c r="J307" s="29"/>
     </row>
-    <row r="308" spans="1:10">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A308" s="7" t="s">
         <v>489</v>
       </c>
@@ -11978,7 +11996,7 @@
       <c r="I308" s="29"/>
       <c r="J308" s="29"/>
     </row>
-    <row r="309" spans="1:10" ht="391.5">
+    <row r="309" spans="1:10" ht="391.5" x14ac:dyDescent="0.35">
       <c r="A309" s="7" t="s">
         <v>489</v>
       </c>
@@ -12002,7 +12020,7 @@
       <c r="I309" s="29"/>
       <c r="J309" s="29"/>
     </row>
-    <row r="310" spans="1:10">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A310" s="7" t="s">
         <v>489</v>
       </c>
@@ -12026,7 +12044,7 @@
       <c r="I310" s="29"/>
       <c r="J310" s="29"/>
     </row>
-    <row r="311" spans="1:10">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A311" s="7" t="s">
         <v>489</v>
       </c>
@@ -12050,7 +12068,7 @@
       <c r="I311" s="29"/>
       <c r="J311" s="29"/>
     </row>
-    <row r="312" spans="1:10" ht="406">
+    <row r="312" spans="1:10" ht="406" x14ac:dyDescent="0.35">
       <c r="A312" s="7" t="s">
         <v>489</v>
       </c>
@@ -12074,7 +12092,7 @@
       <c r="I312" s="29"/>
       <c r="J312" s="29"/>
     </row>
-    <row r="313" spans="1:10">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A313" s="7" t="s">
         <v>489</v>
       </c>
@@ -12098,7 +12116,7 @@
       <c r="I313" s="29"/>
       <c r="J313" s="29"/>
     </row>
-    <row r="314" spans="1:10">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A314" s="7" t="s">
         <v>489</v>
       </c>
@@ -12122,7 +12140,7 @@
       <c r="I314" s="29"/>
       <c r="J314" s="29"/>
     </row>
-    <row r="315" spans="1:10">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A315" s="7" t="s">
         <v>489</v>
       </c>
@@ -12146,7 +12164,7 @@
       <c r="I315" s="29"/>
       <c r="J315" s="29"/>
     </row>
-    <row r="316" spans="1:10">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A316" s="7" t="s">
         <v>489</v>
       </c>
@@ -12170,7 +12188,7 @@
       <c r="I316" s="29"/>
       <c r="J316" s="29"/>
     </row>
-    <row r="317" spans="1:10">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A317" s="7" t="s">
         <v>489</v>
       </c>
@@ -12194,7 +12212,7 @@
       <c r="I317" s="29"/>
       <c r="J317" s="29"/>
     </row>
-    <row r="318" spans="1:10">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A318" s="7" t="s">
         <v>489</v>
       </c>
@@ -12218,7 +12236,7 @@
       <c r="I318" s="29"/>
       <c r="J318" s="29"/>
     </row>
-    <row r="319" spans="1:10">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A319" s="7" t="s">
         <v>489</v>
       </c>
@@ -12242,7 +12260,7 @@
       <c r="I319" s="29"/>
       <c r="J319" s="29"/>
     </row>
-    <row r="320" spans="1:10">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A320" s="7" t="s">
         <v>489</v>
       </c>
@@ -12266,7 +12284,7 @@
       <c r="I320" s="29"/>
       <c r="J320" s="29"/>
     </row>
-    <row r="321" spans="1:10">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A321" s="7" t="s">
         <v>489</v>
       </c>
@@ -12290,7 +12308,7 @@
       <c r="I321" s="29"/>
       <c r="J321" s="29"/>
     </row>
-    <row r="322" spans="1:10">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A322" s="7" t="s">
         <v>489</v>
       </c>
@@ -12314,7 +12332,7 @@
       <c r="I322" s="29"/>
       <c r="J322" s="29"/>
     </row>
-    <row r="323" spans="1:10">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A323" s="7" t="s">
         <v>489</v>
       </c>
@@ -12338,7 +12356,7 @@
       <c r="I323" s="29"/>
       <c r="J323" s="29"/>
     </row>
-    <row r="324" spans="1:10">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A324" s="7" t="s">
         <v>489</v>
       </c>
@@ -12362,7 +12380,7 @@
       <c r="I324" s="29"/>
       <c r="J324" s="29"/>
     </row>
-    <row r="325" spans="1:10">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A325" s="7" t="s">
         <v>489</v>
       </c>
@@ -12386,7 +12404,7 @@
       <c r="I325" s="29"/>
       <c r="J325" s="29"/>
     </row>
-    <row r="326" spans="1:10">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A326" s="7" t="s">
         <v>489</v>
       </c>
@@ -12410,7 +12428,7 @@
       <c r="I326" s="29"/>
       <c r="J326" s="29"/>
     </row>
-    <row r="327" spans="1:10">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A327" s="7" t="s">
         <v>489</v>
       </c>
@@ -12434,7 +12452,7 @@
       <c r="I327" s="29"/>
       <c r="J327" s="29"/>
     </row>
-    <row r="328" spans="1:10">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A328" s="7" t="s">
         <v>489</v>
       </c>
@@ -12458,7 +12476,7 @@
       <c r="I328" s="29"/>
       <c r="J328" s="29"/>
     </row>
-    <row r="329" spans="1:10">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A329" s="7" t="s">
         <v>489</v>
       </c>
@@ -12482,7 +12500,7 @@
       <c r="I329" s="29"/>
       <c r="J329" s="29"/>
     </row>
-    <row r="330" spans="1:10">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A330" s="7" t="s">
         <v>492</v>
       </c>
@@ -12504,7 +12522,7 @@
       <c r="I330" s="29"/>
       <c r="J330" s="29"/>
     </row>
-    <row r="331" spans="1:10">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A331" s="7" t="s">
         <v>492</v>
       </c>
@@ -12526,7 +12544,7 @@
       <c r="I331" s="29"/>
       <c r="J331" s="29"/>
     </row>
-    <row r="332" spans="1:10">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A332" s="7"/>
       <c r="B332" s="7"/>
       <c r="C332" s="5" t="s">
@@ -12546,7 +12564,7 @@
       <c r="I332" s="29"/>
       <c r="J332" s="29"/>
     </row>
-    <row r="333" spans="1:10">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A333" s="7"/>
       <c r="B333" s="7"/>
       <c r="C333" s="5" t="s">
@@ -12566,7 +12584,7 @@
       <c r="I333" s="29"/>
       <c r="J333" s="29"/>
     </row>
-    <row r="334" spans="1:10">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A334" s="7"/>
       <c r="B334" s="7"/>
       <c r="C334" s="5" t="s">
@@ -12586,7 +12604,7 @@
       <c r="I334" s="29"/>
       <c r="J334" s="29"/>
     </row>
-    <row r="335" spans="1:10">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A335" s="7"/>
       <c r="B335" s="7"/>
       <c r="C335" s="5" t="s">
@@ -12606,7 +12624,7 @@
       <c r="I335" s="29"/>
       <c r="J335" s="29"/>
     </row>
-    <row r="336" spans="1:10">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A336" s="7"/>
       <c r="B336" s="7"/>
       <c r="C336" s="5" t="s">
@@ -12626,7 +12644,7 @@
       <c r="I336" s="29"/>
       <c r="J336" s="29"/>
     </row>
-    <row r="337" spans="1:10">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A337" s="7"/>
       <c r="B337" s="7"/>
       <c r="C337" s="5" t="s">
@@ -12646,7 +12664,7 @@
       <c r="I337" s="29"/>
       <c r="J337" s="29"/>
     </row>
-    <row r="338" spans="1:10">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A338" s="7"/>
       <c r="B338" s="7"/>
       <c r="C338" s="5" t="s">
@@ -12666,7 +12684,7 @@
       <c r="I338" s="29"/>
       <c r="J338" s="29"/>
     </row>
-    <row r="339" spans="1:10">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A339" s="7"/>
       <c r="B339" s="7"/>
       <c r="C339" s="5" t="s">
@@ -12686,7 +12704,7 @@
       <c r="I339" s="29"/>
       <c r="J339" s="29"/>
     </row>
-    <row r="340" spans="1:10">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A340" s="7"/>
       <c r="B340" s="7"/>
       <c r="C340" s="5" t="s">
@@ -12706,7 +12724,7 @@
       <c r="I340" s="29"/>
       <c r="J340" s="29"/>
     </row>
-    <row r="341" spans="1:10">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A341" s="7"/>
       <c r="B341" s="7"/>
       <c r="C341" s="5" t="s">
@@ -12726,7 +12744,7 @@
       <c r="I341" s="29"/>
       <c r="J341" s="29"/>
     </row>
-    <row r="342" spans="1:10">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A342" s="7" t="s">
         <v>492</v>
       </c>
@@ -12748,7 +12766,7 @@
       <c r="I342" s="29"/>
       <c r="J342" s="29"/>
     </row>
-    <row r="343" spans="1:10" ht="409.5">
+    <row r="343" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A343" s="7" t="s">
         <v>492</v>
       </c>
@@ -12770,7 +12788,7 @@
       <c r="I343" s="29"/>
       <c r="J343" s="29"/>
     </row>
-    <row r="344" spans="1:10">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A344" s="7" t="s">
         <v>492</v>
       </c>
@@ -12792,7 +12810,7 @@
       <c r="I344" s="29"/>
       <c r="J344" s="29"/>
     </row>
-    <row r="345" spans="1:10" ht="409.5">
+    <row r="345" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A345" s="7" t="s">
         <v>492</v>
       </c>
@@ -12814,7 +12832,7 @@
       <c r="I345" s="29"/>
       <c r="J345" s="29"/>
     </row>
-    <row r="346" spans="1:10">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A346" s="7" t="s">
         <v>492</v>
       </c>
@@ -12836,7 +12854,7 @@
       <c r="I346" s="29"/>
       <c r="J346" s="29"/>
     </row>
-    <row r="347" spans="1:10" ht="290">
+    <row r="347" spans="1:10" ht="290" x14ac:dyDescent="0.35">
       <c r="A347" s="7" t="s">
         <v>492</v>
       </c>
@@ -12858,7 +12876,7 @@
       <c r="I347" s="29"/>
       <c r="J347" s="29"/>
     </row>
-    <row r="348" spans="1:10">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A348" s="7" t="s">
         <v>492</v>
       </c>
@@ -12880,7 +12898,7 @@
       <c r="I348" s="29"/>
       <c r="J348" s="29"/>
     </row>
-    <row r="349" spans="1:10">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A349" s="7" t="s">
         <v>492</v>
       </c>
@@ -12902,7 +12920,7 @@
       <c r="I349" s="29"/>
       <c r="J349" s="29"/>
     </row>
-    <row r="350" spans="1:10">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A350" s="7" t="s">
         <v>492</v>
       </c>
@@ -12924,7 +12942,7 @@
       <c r="I350" s="29"/>
       <c r="J350" s="29"/>
     </row>
-    <row r="351" spans="1:10">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A351" s="7" t="s">
         <v>492</v>
       </c>
@@ -12946,7 +12964,7 @@
       <c r="I351" s="29"/>
       <c r="J351" s="29"/>
     </row>
-    <row r="352" spans="1:10">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A352" s="7" t="s">
         <v>492</v>
       </c>
@@ -12968,7 +12986,7 @@
       <c r="I352" s="29"/>
       <c r="J352" s="29"/>
     </row>
-    <row r="353" spans="1:10">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A353" s="7" t="s">
         <v>492</v>
       </c>
@@ -12990,7 +13008,7 @@
       <c r="I353" s="29"/>
       <c r="J353" s="29"/>
     </row>
-    <row r="354" spans="1:10">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A354" s="7" t="s">
         <v>492</v>
       </c>
@@ -13012,7 +13030,7 @@
       <c r="I354" s="29"/>
       <c r="J354" s="29"/>
     </row>
-    <row r="355" spans="1:10">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A355" s="7" t="s">
         <v>492</v>
       </c>
@@ -13034,7 +13052,7 @@
       <c r="I355" s="29"/>
       <c r="J355" s="29"/>
     </row>
-    <row r="356" spans="1:10">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A356" s="7" t="s">
         <v>492</v>
       </c>
@@ -13056,7 +13074,7 @@
       <c r="I356" s="29"/>
       <c r="J356" s="29"/>
     </row>
-    <row r="357" spans="1:10">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A357" s="7" t="s">
         <v>492</v>
       </c>
@@ -13078,7 +13096,7 @@
       <c r="I357" s="29"/>
       <c r="J357" s="29"/>
     </row>
-    <row r="358" spans="1:10">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A358" s="7" t="s">
         <v>492</v>
       </c>
@@ -13100,7 +13118,7 @@
       <c r="I358" s="29"/>
       <c r="J358" s="29"/>
     </row>
-    <row r="359" spans="1:10">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A359" s="7" t="s">
         <v>492</v>
       </c>
@@ -13122,7 +13140,7 @@
       <c r="I359" s="29"/>
       <c r="J359" s="29"/>
     </row>
-    <row r="360" spans="1:10">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A360" s="7" t="s">
         <v>492</v>
       </c>
@@ -13144,7 +13162,7 @@
       <c r="I360" s="29"/>
       <c r="J360" s="29"/>
     </row>
-    <row r="361" spans="1:10" ht="409.5">
+    <row r="361" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A361" s="7" t="s">
         <v>496</v>
       </c>
@@ -13168,7 +13186,7 @@
       <c r="I361" s="29"/>
       <c r="J361" s="29"/>
     </row>
-    <row r="362" spans="1:10" ht="409.5">
+    <row r="362" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A362" s="7" t="s">
         <v>496</v>
       </c>
@@ -13190,7 +13208,7 @@
       <c r="I362" s="29"/>
       <c r="J362" s="29"/>
     </row>
-    <row r="363" spans="1:10" ht="409.5">
+    <row r="363" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A363" s="7" t="s">
         <v>496</v>
       </c>
@@ -13214,7 +13232,7 @@
       <c r="I363" s="29"/>
       <c r="J363" s="29"/>
     </row>
-    <row r="364" spans="1:10" ht="409.5">
+    <row r="364" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A364" s="7" t="s">
         <v>496</v>
       </c>
@@ -13238,7 +13256,7 @@
       <c r="I364" s="29"/>
       <c r="J364" s="29"/>
     </row>
-    <row r="365" spans="1:10" ht="409.5">
+    <row r="365" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A365" s="7" t="s">
         <v>496</v>
       </c>
@@ -13262,7 +13280,7 @@
       <c r="I365" s="29"/>
       <c r="J365" s="29"/>
     </row>
-    <row r="366" spans="1:10" ht="409.5">
+    <row r="366" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A366" s="7" t="s">
         <v>496</v>
       </c>
@@ -13286,7 +13304,7 @@
       <c r="I366" s="29"/>
       <c r="J366" s="29"/>
     </row>
-    <row r="367" spans="1:10" ht="409.5">
+    <row r="367" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A367" s="7" t="s">
         <v>496</v>
       </c>
@@ -13310,7 +13328,7 @@
       <c r="I367" s="29"/>
       <c r="J367" s="29"/>
     </row>
-    <row r="368" spans="1:10">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A368" s="7" t="s">
         <v>486</v>
       </c>
@@ -13334,7 +13352,7 @@
       <c r="I368" s="29"/>
       <c r="J368" s="29"/>
     </row>
-    <row r="369" spans="1:10" ht="217.5">
+    <row r="369" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A369" s="7" t="s">
         <v>486</v>
       </c>
@@ -13358,7 +13376,7 @@
       <c r="I369" s="29"/>
       <c r="J369" s="29"/>
     </row>
-    <row r="370" spans="1:10" ht="217.5">
+    <row r="370" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A370" s="7" t="s">
         <v>486</v>
       </c>
@@ -13382,7 +13400,7 @@
       <c r="I370" s="29"/>
       <c r="J370" s="29"/>
     </row>
-    <row r="371" spans="1:10">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A371" s="7" t="s">
         <v>484</v>
       </c>
@@ -13406,7 +13424,7 @@
       <c r="I371" s="29"/>
       <c r="J371" s="29"/>
     </row>
-    <row r="372" spans="1:10" ht="409.5">
+    <row r="372" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A372" s="7" t="s">
         <v>484</v>
       </c>
@@ -13430,7 +13448,7 @@
       <c r="I372" s="29"/>
       <c r="J372" s="29"/>
     </row>
-    <row r="373" spans="1:10" ht="409.5">
+    <row r="373" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A373" s="7" t="s">
         <v>484</v>
       </c>
@@ -13454,7 +13472,7 @@
       <c r="I373" s="29"/>
       <c r="J373" s="29"/>
     </row>
-    <row r="374" spans="1:10">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A374" s="7" t="s">
         <v>484</v>
       </c>
@@ -13478,7 +13496,7 @@
       <c r="I374" s="29"/>
       <c r="J374" s="29"/>
     </row>
-    <row r="375" spans="1:10" ht="409.5">
+    <row r="375" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A375" s="7" t="s">
         <v>484</v>
       </c>
@@ -13502,7 +13520,7 @@
       <c r="I375" s="29"/>
       <c r="J375" s="29"/>
     </row>
-    <row r="376" spans="1:10" ht="409.5">
+    <row r="376" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A376" s="23" t="s">
         <v>484</v>
       </c>
@@ -13526,7 +13544,7 @@
       <c r="I376" s="29"/>
       <c r="J376" s="29"/>
     </row>
-    <row r="377" spans="1:10" ht="174">
+    <row r="377" spans="1:10" ht="174" x14ac:dyDescent="0.35">
       <c r="A377" s="7" t="s">
         <v>479</v>
       </c>
@@ -13550,7 +13568,7 @@
       <c r="I377" s="29"/>
       <c r="J377" s="29"/>
     </row>
-    <row r="378" spans="1:10" ht="409.5">
+    <row r="378" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A378" s="7" t="s">
         <v>479</v>
       </c>
@@ -13574,7 +13592,7 @@
       <c r="I378" s="29"/>
       <c r="J378" s="29"/>
     </row>
-    <row r="379" spans="1:10" ht="409.5">
+    <row r="379" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A379" s="7" t="s">
         <v>479</v>
       </c>
@@ -13598,7 +13616,7 @@
       <c r="I379" s="29"/>
       <c r="J379" s="29"/>
     </row>
-    <row r="380" spans="1:10" ht="409.5">
+    <row r="380" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A380" s="7" t="s">
         <v>479</v>
       </c>
@@ -13622,7 +13640,7 @@
       <c r="I380" s="29"/>
       <c r="J380" s="29"/>
     </row>
-    <row r="381" spans="1:10">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A381" s="7" t="s">
         <v>500</v>
       </c>
@@ -13636,8 +13654,8 @@
         <v>640</v>
       </c>
       <c r="E381" s="24"/>
-      <c r="F381" s="7">
-        <v>200</v>
+      <c r="F381" s="7" t="n">
+        <v>200.0</v>
       </c>
       <c r="G381" s="7" t="s">
         <v>755</v>
@@ -13646,7 +13664,7 @@
       <c r="I381" s="29"/>
       <c r="J381" s="29"/>
     </row>
-    <row r="382" spans="1:10">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A382" s="7" t="s">
         <v>500</v>
       </c>
@@ -13660,8 +13678,8 @@
         <v>640</v>
       </c>
       <c r="E382" s="24"/>
-      <c r="F382" s="7">
-        <v>200</v>
+      <c r="F382" s="7" t="n">
+        <v>200.0</v>
       </c>
       <c r="G382" s="7" t="s">
         <v>755</v>
@@ -13670,7 +13688,7 @@
       <c r="I382" s="29"/>
       <c r="J382" s="29"/>
     </row>
-    <row r="383" spans="1:10" ht="116">
+    <row r="383" spans="1:10" ht="116" x14ac:dyDescent="0.35">
       <c r="A383" s="23" t="s">
         <v>500</v>
       </c>
@@ -13684,8 +13702,8 @@
         <v>598</v>
       </c>
       <c r="E383" s="24"/>
-      <c r="F383" s="7">
-        <v>200</v>
+      <c r="F383" s="7" t="n">
+        <v>200.0</v>
       </c>
       <c r="G383" s="7" t="s">
         <v>755</v>
@@ -13694,7 +13712,7 @@
       <c r="I383" s="29"/>
       <c r="J383" s="29"/>
     </row>
-    <row r="384" spans="1:10" ht="188.5">
+    <row r="384" spans="1:10" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A384" s="7" t="s">
         <v>500</v>
       </c>
@@ -13708,8 +13726,8 @@
         <v>741</v>
       </c>
       <c r="E384" s="24"/>
-      <c r="F384" s="7">
-        <v>200</v>
+      <c r="F384" s="7" t="n">
+        <v>200.0</v>
       </c>
       <c r="G384" s="7" t="s">
         <v>757</v>
@@ -13718,7 +13736,7 @@
       <c r="I384" s="29"/>
       <c r="J384" s="29"/>
     </row>
-    <row r="385" spans="1:10">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A385" s="7" t="s">
         <v>500</v>
       </c>
@@ -13732,8 +13750,8 @@
         <v>640</v>
       </c>
       <c r="E385" s="24"/>
-      <c r="F385" s="7">
-        <v>200</v>
+      <c r="F385" s="7" t="n">
+        <v>200.0</v>
       </c>
       <c r="G385" s="7" t="s">
         <v>755</v>
@@ -13742,7 +13760,7 @@
       <c r="I385" s="29"/>
       <c r="J385" s="29"/>
     </row>
-    <row r="386" spans="1:10">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A386" s="7" t="s">
         <v>500</v>
       </c>
@@ -13756,8 +13774,8 @@
         <v>742</v>
       </c>
       <c r="E386" s="24"/>
-      <c r="F386" s="7">
-        <v>200</v>
+      <c r="F386" s="7" t="n">
+        <v>200.0</v>
       </c>
       <c r="G386" s="7" t="s">
         <v>757</v>
@@ -13766,7 +13784,7 @@
       <c r="I386" s="29"/>
       <c r="J386" s="29"/>
     </row>
-    <row r="387" spans="1:10">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A387" s="7" t="s">
         <v>500</v>
       </c>
@@ -13780,8 +13798,8 @@
         <v>743</v>
       </c>
       <c r="E387" s="24"/>
-      <c r="F387" s="7">
-        <v>200</v>
+      <c r="F387" s="7" t="n">
+        <v>200.0</v>
       </c>
       <c r="G387" s="7" t="s">
         <v>757</v>
@@ -13790,7 +13808,7 @@
       <c r="I387" s="29"/>
       <c r="J387" s="29"/>
     </row>
-    <row r="388" spans="1:10">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A388" s="7" t="s">
         <v>500</v>
       </c>
@@ -13804,8 +13822,8 @@
         <v>744</v>
       </c>
       <c r="E388" s="24"/>
-      <c r="F388" s="7">
-        <v>200</v>
+      <c r="F388" s="7" t="n">
+        <v>200.0</v>
       </c>
       <c r="G388" s="7" t="s">
         <v>757</v>
@@ -13814,7 +13832,7 @@
       <c r="I388" s="29"/>
       <c r="J388" s="29"/>
     </row>
-    <row r="389" spans="1:10">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A389" s="7" t="s">
         <v>500</v>
       </c>
@@ -13828,8 +13846,8 @@
         <v>682</v>
       </c>
       <c r="E389" s="24"/>
-      <c r="F389" s="7">
-        <v>200</v>
+      <c r="F389" s="7" t="n">
+        <v>200.0</v>
       </c>
       <c r="G389" s="7" t="s">
         <v>755</v>
@@ -13838,7 +13856,7 @@
       <c r="I389" s="29"/>
       <c r="J389" s="29"/>
     </row>
-    <row r="390" spans="1:10">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A390" s="7" t="s">
         <v>500</v>
       </c>
@@ -13852,8 +13870,8 @@
         <v>640</v>
       </c>
       <c r="E390" s="24"/>
-      <c r="F390" s="7">
-        <v>200</v>
+      <c r="F390" s="7" t="n">
+        <v>200.0</v>
       </c>
       <c r="G390" s="7" t="s">
         <v>755</v>
@@ -13862,7 +13880,7 @@
       <c r="I390" s="29"/>
       <c r="J390" s="29"/>
     </row>
-    <row r="391" spans="1:10">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A391" s="7" t="s">
         <v>500</v>
       </c>
@@ -13876,8 +13894,8 @@
         <v>745</v>
       </c>
       <c r="E391" s="24"/>
-      <c r="F391" s="7">
-        <v>200</v>
+      <c r="F391" s="7" t="n">
+        <v>200.0</v>
       </c>
       <c r="G391" s="7" t="s">
         <v>757</v>
@@ -13886,7 +13904,7 @@
       <c r="I391" s="29"/>
       <c r="J391" s="29"/>
     </row>
-    <row r="392" spans="1:10">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A392" s="7" t="s">
         <v>500</v>
       </c>
@@ -13900,8 +13918,8 @@
         <v>640</v>
       </c>
       <c r="E392" s="24"/>
-      <c r="F392" s="7">
-        <v>200</v>
+      <c r="F392" s="7" t="n">
+        <v>200.0</v>
       </c>
       <c r="G392" s="7" t="s">
         <v>755</v>
@@ -13910,7 +13928,7 @@
       <c r="I392" s="29"/>
       <c r="J392" s="29"/>
     </row>
-    <row r="393" spans="1:10">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A393" s="7" t="s">
         <v>500</v>
       </c>
@@ -13924,8 +13942,8 @@
         <v>640</v>
       </c>
       <c r="E393" s="24"/>
-      <c r="F393" s="7">
-        <v>200</v>
+      <c r="F393" s="7" t="n">
+        <v>200.0</v>
       </c>
       <c r="G393" s="7" t="s">
         <v>755</v>
@@ -13934,7 +13952,7 @@
       <c r="I393" s="29"/>
       <c r="J393" s="29"/>
     </row>
-    <row r="394" spans="1:10">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A394" s="7" t="s">
         <v>500</v>
       </c>
@@ -13948,8 +13966,8 @@
         <v>746</v>
       </c>
       <c r="E394" s="24"/>
-      <c r="F394" s="7">
-        <v>200</v>
+      <c r="F394" s="7" t="n">
+        <v>200.0</v>
       </c>
       <c r="G394" s="7" t="s">
         <v>757</v>
@@ -13958,7 +13976,7 @@
       <c r="I394" s="29"/>
       <c r="J394" s="29"/>
     </row>
-    <row r="395" spans="1:10">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A395" s="7" t="s">
         <v>500</v>
       </c>
@@ -13972,8 +13990,8 @@
         <v>640</v>
       </c>
       <c r="E395" s="24"/>
-      <c r="F395" s="7">
-        <v>200</v>
+      <c r="F395" s="7" t="n">
+        <v>200.0</v>
       </c>
       <c r="G395" s="7" t="s">
         <v>755</v>
@@ -13982,7 +14000,7 @@
       <c r="I395" s="29"/>
       <c r="J395" s="29"/>
     </row>
-    <row r="396" spans="1:10">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A396" s="23" t="s">
         <v>500</v>
       </c>
@@ -13996,8 +14014,8 @@
         <v>640</v>
       </c>
       <c r="E396" s="24"/>
-      <c r="F396" s="7">
-        <v>200</v>
+      <c r="F396" s="7" t="n">
+        <v>200.0</v>
       </c>
       <c r="G396" s="7" t="s">
         <v>755</v>
@@ -14006,7 +14024,7 @@
       <c r="I396" s="29"/>
       <c r="J396" s="29"/>
     </row>
-    <row r="397" spans="1:10">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A397" s="7" t="s">
         <v>262</v>
       </c>
@@ -14030,7 +14048,7 @@
       <c r="I397" s="29"/>
       <c r="J397" s="29"/>
     </row>
-    <row r="398" spans="1:10" ht="409.5">
+    <row r="398" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A398" s="7" t="s">
         <v>262</v>
       </c>
@@ -14054,7 +14072,7 @@
       <c r="I398" s="29"/>
       <c r="J398" s="29"/>
     </row>
-    <row r="399" spans="1:10" ht="58">
+    <row r="399" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A399" s="7" t="s">
         <v>267</v>
       </c>
@@ -14072,7 +14090,7 @@
       <c r="I399" s="29"/>
       <c r="J399" s="29"/>
     </row>
-    <row r="400" spans="1:10">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A400" s="7" t="s">
         <v>262</v>
       </c>
@@ -14088,7 +14106,7 @@
       <c r="I400" s="29"/>
       <c r="J400" s="29"/>
     </row>
-    <row r="401" spans="1:10">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A401" s="11" t="s">
         <v>487</v>
       </c>
@@ -14108,7 +14126,7 @@
       <c r="I401" s="29"/>
       <c r="J401" s="29"/>
     </row>
-    <row r="402" spans="1:10">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A402" s="11" t="s">
         <v>487</v>
       </c>
@@ -14128,7 +14146,7 @@
       <c r="I402" s="29"/>
       <c r="J402" s="29"/>
     </row>
-    <row r="403" spans="1:10" ht="203">
+    <row r="403" spans="1:10" ht="203" x14ac:dyDescent="0.35">
       <c r="A403" s="11" t="s">
         <v>487</v>
       </c>
@@ -14148,7 +14166,7 @@
       <c r="I403" s="29"/>
       <c r="J403" s="29"/>
     </row>
-    <row r="404" spans="1:10">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A404" s="11" t="s">
         <v>487</v>
       </c>
@@ -14168,7 +14186,7 @@
       <c r="I404" s="29"/>
       <c r="J404" s="29"/>
     </row>
-    <row r="405" spans="1:10">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A405" s="11" t="s">
         <v>487</v>
       </c>
@@ -14188,7 +14206,7 @@
       <c r="I405" s="29"/>
       <c r="J405" s="29"/>
     </row>
-    <row r="406" spans="1:10" ht="409.5">
+    <row r="406" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A406" s="7" t="s">
         <v>508</v>
       </c>
@@ -14212,7 +14230,7 @@
       <c r="I406" s="29"/>
       <c r="J406" s="29"/>
     </row>
-    <row r="407" spans="1:10" ht="409.5">
+    <row r="407" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A407" s="7" t="s">
         <v>510</v>
       </c>
@@ -14223,11 +14241,11 @@
         <v>667</v>
       </c>
       <c r="D407" s="5" t="s">
-        <v>727</v>
+        <v>769</v>
       </c>
       <c r="E407" s="24"/>
-      <c r="F407" s="7">
-        <v>200</v>
+      <c r="F407" s="7" t="n">
+        <v>200.0</v>
       </c>
       <c r="G407" s="7" t="s">
         <v>757</v>
@@ -14236,7 +14254,7 @@
       <c r="I407" s="29"/>
       <c r="J407" s="29"/>
     </row>
-    <row r="408" spans="1:10" ht="409.5">
+    <row r="408" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A408" s="11" t="s">
         <v>510</v>
       </c>
@@ -14247,11 +14265,11 @@
         <v>692</v>
       </c>
       <c r="D408" s="5" t="s">
-        <v>750</v>
+        <v>770</v>
       </c>
       <c r="E408" s="24"/>
-      <c r="F408" s="7">
-        <v>200</v>
+      <c r="F408" s="7" t="n">
+        <v>200.0</v>
       </c>
       <c r="G408" s="7" t="s">
         <v>757</v>
@@ -14260,7 +14278,7 @@
       <c r="I408" s="29"/>
       <c r="J408" s="29"/>
     </row>
-    <row r="409" spans="1:10" ht="409.5">
+    <row r="409" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A409" s="11" t="s">
         <v>510</v>
       </c>
@@ -14271,11 +14289,11 @@
         <v>693</v>
       </c>
       <c r="D409" s="5" t="s">
-        <v>751</v>
+        <v>771</v>
       </c>
       <c r="E409" s="24"/>
-      <c r="F409" s="7">
-        <v>200</v>
+      <c r="F409" s="7" t="n">
+        <v>200.0</v>
       </c>
       <c r="G409" s="7" t="s">
         <v>757</v>
@@ -14284,7 +14302,7 @@
       <c r="I409" s="29"/>
       <c r="J409" s="29"/>
     </row>
-    <row r="410" spans="1:10" ht="409.5">
+    <row r="410" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A410" s="11" t="s">
         <v>510</v>
       </c>
@@ -14295,11 +14313,11 @@
         <v>694</v>
       </c>
       <c r="D410" s="5" t="s">
-        <v>752</v>
+        <v>772</v>
       </c>
       <c r="E410" s="24"/>
-      <c r="F410" s="7">
-        <v>200</v>
+      <c r="F410" s="7" t="n">
+        <v>200.0</v>
       </c>
       <c r="G410" s="7" t="s">
         <v>757</v>
@@ -14308,7 +14326,7 @@
       <c r="I410" s="29"/>
       <c r="J410" s="29"/>
     </row>
-    <row r="411" spans="1:10" ht="409.5">
+    <row r="411" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A411" s="11" t="s">
         <v>510</v>
       </c>
@@ -14319,11 +14337,11 @@
         <v>694</v>
       </c>
       <c r="D411" s="5" t="s">
-        <v>752</v>
+        <v>772</v>
       </c>
       <c r="E411" s="24"/>
-      <c r="F411" s="7">
-        <v>200</v>
+      <c r="F411" s="7" t="n">
+        <v>200.0</v>
       </c>
       <c r="G411" s="7" t="s">
         <v>757</v>
@@ -14332,7 +14350,7 @@
       <c r="I411" s="29"/>
       <c r="J411" s="29"/>
     </row>
-    <row r="412" spans="1:10">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A412" s="7" t="s">
         <v>512</v>
       </c>
@@ -14348,7 +14366,7 @@
       <c r="I412" s="29"/>
       <c r="J412" s="29"/>
     </row>
-    <row r="413" spans="1:10">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A413" s="7" t="s">
         <v>512</v>
       </c>
@@ -14364,7 +14382,7 @@
       <c r="I413" s="29"/>
       <c r="J413" s="29"/>
     </row>
-    <row r="414" spans="1:10" ht="29">
+    <row r="414" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A414" s="7" t="s">
         <v>512</v>
       </c>
@@ -14380,7 +14398,7 @@
       <c r="I414" s="29"/>
       <c r="J414" s="29"/>
     </row>
-    <row r="415" spans="1:10" ht="29">
+    <row r="415" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A415" s="7" t="s">
         <v>516</v>
       </c>
@@ -14396,7 +14414,7 @@
       <c r="I415" s="29"/>
       <c r="J415" s="29"/>
     </row>
-    <row r="416" spans="1:10">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A416" s="7" t="s">
         <v>262</v>
       </c>
@@ -14420,7 +14438,7 @@
       <c r="I416" s="29"/>
       <c r="J416" s="29"/>
     </row>
-    <row r="417" spans="1:10" ht="116">
+    <row r="417" spans="1:10" ht="116" x14ac:dyDescent="0.35">
       <c r="A417" s="7" t="s">
         <v>59</v>
       </c>
@@ -14440,7 +14458,7 @@
       <c r="I417" s="29"/>
       <c r="J417" s="29"/>
     </row>
-    <row r="418" spans="1:10" ht="101.5">
+    <row r="418" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A418" s="23" t="s">
         <v>519</v>
       </c>
@@ -14464,7 +14482,7 @@
       <c r="I418" s="29"/>
       <c r="J418" s="29"/>
     </row>
-    <row r="419" spans="1:10" ht="261">
+    <row r="419" spans="1:10" ht="261" x14ac:dyDescent="0.35">
       <c r="A419" s="7"/>
       <c r="B419" s="7"/>
       <c r="C419" s="5" t="s">
@@ -14484,9 +14502,13 @@
       <c r="I419" s="29"/>
       <c r="J419" s="29"/>
     </row>
-    <row r="420" spans="1:10">
-      <c r="A420" s="7"/>
-      <c r="B420" s="7"/>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A420" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="B420" s="7" t="s">
+        <v>768</v>
+      </c>
       <c r="C420" s="7"/>
       <c r="D420" s="7"/>
       <c r="E420" s="24"/>
@@ -14496,10 +14518,12 @@
       <c r="I420" s="29"/>
       <c r="J420" s="29"/>
     </row>
-    <row r="421" spans="1:10">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A421" s="7"/>
       <c r="B421" s="7"/>
-      <c r="C421" s="7"/>
+      <c r="C421" s="7">
+        <v>1</v>
+      </c>
       <c r="D421" s="7"/>
       <c r="E421" s="24"/>
       <c r="F421" s="7"/>
@@ -14508,10 +14532,12 @@
       <c r="I421" s="29"/>
       <c r="J421" s="29"/>
     </row>
-    <row r="422" spans="1:10">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A422" s="7"/>
       <c r="B422" s="7"/>
-      <c r="C422" s="7"/>
+      <c r="C422" s="7">
+        <v>2</v>
+      </c>
       <c r="D422" s="7"/>
       <c r="E422" s="24"/>
       <c r="F422" s="7"/>
@@ -14520,10 +14546,12 @@
       <c r="I422" s="29"/>
       <c r="J422" s="29"/>
     </row>
-    <row r="423" spans="1:10">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A423" s="7"/>
       <c r="B423" s="7"/>
-      <c r="C423" s="7"/>
+      <c r="C423" s="7">
+        <v>3</v>
+      </c>
       <c r="D423" s="7"/>
       <c r="E423" s="24"/>
       <c r="F423" s="7"/>
@@ -14532,10 +14560,12 @@
       <c r="I423" s="29"/>
       <c r="J423" s="29"/>
     </row>
-    <row r="424" spans="1:10">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A424" s="7"/>
       <c r="B424" s="7"/>
-      <c r="C424" s="7"/>
+      <c r="C424" s="7">
+        <v>3</v>
+      </c>
       <c r="D424" s="7"/>
       <c r="E424" s="24"/>
       <c r="F424" s="7"/>
@@ -14544,7 +14574,7 @@
       <c r="I424" s="29"/>
       <c r="J424" s="29"/>
     </row>
-    <row r="425" spans="1:10">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A425" s="7"/>
       <c r="B425" s="7"/>
       <c r="C425" s="7"/>
@@ -14556,7 +14586,7 @@
       <c r="I425" s="29"/>
       <c r="J425" s="29"/>
     </row>
-    <row r="426" spans="1:10">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A426" s="7"/>
       <c r="B426" s="7"/>
       <c r="C426" s="7"/>
@@ -14568,7 +14598,7 @@
       <c r="I426" s="29"/>
       <c r="J426" s="29"/>
     </row>
-    <row r="427" spans="1:10">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A427" s="7"/>
       <c r="B427" s="7"/>
       <c r="C427" s="7"/>
@@ -14580,7 +14610,7 @@
       <c r="I427" s="29"/>
       <c r="J427" s="29"/>
     </row>
-    <row r="428" spans="1:10">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A428" s="7"/>
       <c r="B428" s="7"/>
       <c r="C428" s="7"/>
@@ -14592,7 +14622,7 @@
       <c r="I428" s="29"/>
       <c r="J428" s="29"/>
     </row>
-    <row r="429" spans="1:10">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A429" s="7"/>
       <c r="B429" s="7"/>
       <c r="C429" s="7"/>
@@ -14604,7 +14634,7 @@
       <c r="I429" s="29"/>
       <c r="J429" s="29"/>
     </row>
-    <row r="430" spans="1:10">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A430" s="7"/>
       <c r="B430" s="7"/>
       <c r="C430" s="7"/>
@@ -14616,7 +14646,7 @@
       <c r="I430" s="29"/>
       <c r="J430" s="29"/>
     </row>
-    <row r="431" spans="1:10">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A431" s="7"/>
       <c r="B431" s="7"/>
       <c r="C431" s="7"/>
@@ -14628,7 +14658,7 @@
       <c r="I431" s="29"/>
       <c r="J431" s="29"/>
     </row>
-    <row r="432" spans="1:10">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A432" s="7"/>
       <c r="B432" s="7"/>
       <c r="C432" s="7"/>
@@ -14640,7 +14670,7 @@
       <c r="I432" s="29"/>
       <c r="J432" s="29"/>
     </row>
-    <row r="433" spans="1:10">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A433" s="7"/>
       <c r="B433" s="7"/>
       <c r="C433" s="7"/>
@@ -14652,7 +14682,7 @@
       <c r="I433" s="29"/>
       <c r="J433" s="29"/>
     </row>
-    <row r="434" spans="1:10">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A434" s="7"/>
       <c r="B434" s="7"/>
       <c r="C434" s="7"/>
@@ -14664,7 +14694,7 @@
       <c r="I434" s="29"/>
       <c r="J434" s="29"/>
     </row>
-    <row r="435" spans="1:10">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A435" s="7"/>
       <c r="B435" s="7"/>
       <c r="C435" s="7"/>
@@ -14676,7 +14706,7 @@
       <c r="I435" s="29"/>
       <c r="J435" s="29"/>
     </row>
-    <row r="436" spans="1:10">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A436" s="7"/>
       <c r="B436" s="7"/>
       <c r="C436" s="7"/>
@@ -14688,7 +14718,7 @@
       <c r="I436" s="29"/>
       <c r="J436" s="29"/>
     </row>
-    <row r="437" spans="1:10">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A437" s="7"/>
       <c r="B437" s="7"/>
       <c r="C437" s="7"/>
@@ -14700,7 +14730,7 @@
       <c r="I437" s="29"/>
       <c r="J437" s="29"/>
     </row>
-    <row r="438" spans="1:10">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A438" s="7"/>
       <c r="B438" s="7"/>
       <c r="C438" s="7"/>
@@ -14712,7 +14742,7 @@
       <c r="I438" s="29"/>
       <c r="J438" s="29"/>
     </row>
-    <row r="439" spans="1:10">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A439" s="7"/>
       <c r="B439" s="7"/>
       <c r="C439" s="7"/>
@@ -14724,7 +14754,7 @@
       <c r="I439" s="29"/>
       <c r="J439" s="29"/>
     </row>
-    <row r="440" spans="1:10">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A440" s="7"/>
       <c r="B440" s="7"/>
       <c r="C440" s="7"/>
@@ -14736,7 +14766,7 @@
       <c r="I440" s="29"/>
       <c r="J440" s="29"/>
     </row>
-    <row r="441" spans="1:10">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A441" s="7"/>
       <c r="B441" s="7"/>
       <c r="C441" s="7"/>
@@ -14748,7 +14778,7 @@
       <c r="I441" s="29"/>
       <c r="J441" s="29"/>
     </row>
-    <row r="442" spans="1:10">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A442" s="7"/>
       <c r="B442" s="7"/>
       <c r="C442" s="7"/>
@@ -14760,7 +14790,7 @@
       <c r="I442" s="29"/>
       <c r="J442" s="29"/>
     </row>
-    <row r="443" spans="1:10">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A443" s="7"/>
       <c r="B443" s="7"/>
       <c r="C443" s="7"/>
@@ -14772,7 +14802,7 @@
       <c r="I443" s="29"/>
       <c r="J443" s="29"/>
     </row>
-    <row r="444" spans="1:10">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A444" s="7"/>
       <c r="B444" s="7"/>
       <c r="C444" s="7"/>
@@ -14784,7 +14814,7 @@
       <c r="I444" s="29"/>
       <c r="J444" s="29"/>
     </row>
-    <row r="445" spans="1:10">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A445" s="7"/>
       <c r="B445" s="7"/>
       <c r="C445" s="7"/>
@@ -14796,7 +14826,7 @@
       <c r="I445" s="29"/>
       <c r="J445" s="29"/>
     </row>
-    <row r="446" spans="1:10">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A446" s="7"/>
       <c r="B446" s="7"/>
       <c r="C446" s="7"/>
@@ -14808,7 +14838,7 @@
       <c r="I446" s="29"/>
       <c r="J446" s="29"/>
     </row>
-    <row r="447" spans="1:10">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A447" s="7"/>
       <c r="B447" s="7"/>
       <c r="C447" s="7"/>
@@ -14820,7 +14850,7 @@
       <c r="I447" s="29"/>
       <c r="J447" s="29"/>
     </row>
-    <row r="448" spans="1:10">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A448" s="7"/>
       <c r="B448" s="7"/>
       <c r="C448" s="7"/>
@@ -14832,7 +14862,7 @@
       <c r="I448" s="29"/>
       <c r="J448" s="29"/>
     </row>
-    <row r="449" spans="1:10">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A449" s="7"/>
       <c r="B449" s="7"/>
       <c r="C449" s="7"/>
@@ -14844,7 +14874,7 @@
       <c r="I449" s="29"/>
       <c r="J449" s="29"/>
     </row>
-    <row r="450" spans="1:10">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A450" s="7"/>
       <c r="B450" s="7"/>
       <c r="C450" s="7"/>
@@ -14856,7 +14886,7 @@
       <c r="I450" s="29"/>
       <c r="J450" s="29"/>
     </row>
-    <row r="451" spans="1:10">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A451" s="7"/>
       <c r="B451" s="7"/>
       <c r="C451" s="7"/>
@@ -14868,7 +14898,7 @@
       <c r="I451" s="29"/>
       <c r="J451" s="29"/>
     </row>
-    <row r="452" spans="1:10">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A452" s="7"/>
       <c r="B452" s="7"/>
       <c r="C452" s="7"/>
@@ -14880,7 +14910,7 @@
       <c r="I452" s="29"/>
       <c r="J452" s="29"/>
     </row>
-    <row r="453" spans="1:10">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A453" s="7"/>
       <c r="B453" s="7"/>
       <c r="C453" s="7"/>
@@ -14892,7 +14922,7 @@
       <c r="I453" s="29"/>
       <c r="J453" s="29"/>
     </row>
-    <row r="454" spans="1:10">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A454" s="7"/>
       <c r="B454" s="7"/>
       <c r="C454" s="7"/>
@@ -14904,7 +14934,7 @@
       <c r="I454" s="29"/>
       <c r="J454" s="29"/>
     </row>
-    <row r="455" spans="1:10">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A455" s="7"/>
       <c r="B455" s="7"/>
       <c r="C455" s="7"/>
@@ -14916,7 +14946,7 @@
       <c r="I455" s="29"/>
       <c r="J455" s="29"/>
     </row>
-    <row r="456" spans="1:10">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A456" s="7"/>
       <c r="B456" s="7"/>
       <c r="C456" s="7"/>
@@ -14928,7 +14958,7 @@
       <c r="I456" s="29"/>
       <c r="J456" s="29"/>
     </row>
-    <row r="457" spans="1:10">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A457" s="7"/>
       <c r="B457" s="7"/>
       <c r="C457" s="7"/>
@@ -14940,7 +14970,7 @@
       <c r="I457" s="29"/>
       <c r="J457" s="29"/>
     </row>
-    <row r="458" spans="1:10">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A458" s="7"/>
       <c r="B458" s="7"/>
       <c r="C458" s="7"/>
@@ -14952,7 +14982,7 @@
       <c r="I458" s="29"/>
       <c r="J458" s="29"/>
     </row>
-    <row r="459" spans="1:10">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A459" s="7"/>
       <c r="B459" s="7"/>
       <c r="C459" s="7"/>
@@ -14964,7 +14994,7 @@
       <c r="I459" s="29"/>
       <c r="J459" s="29"/>
     </row>
-    <row r="460" spans="1:10">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A460" s="7"/>
       <c r="B460" s="7"/>
       <c r="C460" s="7"/>
@@ -14976,7 +15006,7 @@
       <c r="I460" s="29"/>
       <c r="J460" s="29"/>
     </row>
-    <row r="461" spans="1:10">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A461" s="7"/>
       <c r="B461" s="7"/>
       <c r="C461" s="7"/>
@@ -14988,7 +15018,7 @@
       <c r="I461" s="29"/>
       <c r="J461" s="29"/>
     </row>
-    <row r="462" spans="1:10">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A462" s="7"/>
       <c r="B462" s="7"/>
       <c r="C462" s="7"/>
@@ -15000,7 +15030,7 @@
       <c r="I462" s="29"/>
       <c r="J462" s="29"/>
     </row>
-    <row r="463" spans="1:10">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A463" s="7"/>
       <c r="B463" s="7"/>
       <c r="C463" s="7"/>
@@ -15012,7 +15042,7 @@
       <c r="I463" s="29"/>
       <c r="J463" s="29"/>
     </row>
-    <row r="464" spans="1:10">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A464" s="7"/>
       <c r="B464" s="7"/>
       <c r="C464" s="7"/>
@@ -15024,7 +15054,7 @@
       <c r="I464" s="29"/>
       <c r="J464" s="29"/>
     </row>
-    <row r="465" spans="1:10">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A465" s="7"/>
       <c r="B465" s="7"/>
       <c r="C465" s="7"/>
@@ -15036,7 +15066,7 @@
       <c r="I465" s="29"/>
       <c r="J465" s="29"/>
     </row>
-    <row r="466" spans="1:10">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A466" s="7"/>
       <c r="B466" s="7"/>
       <c r="C466" s="7"/>
@@ -15048,7 +15078,7 @@
       <c r="I466" s="29"/>
       <c r="J466" s="29"/>
     </row>
-    <row r="467" spans="1:10">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A467" s="7"/>
       <c r="B467" s="7"/>
       <c r="C467" s="7"/>
@@ -15060,7 +15090,7 @@
       <c r="I467" s="29"/>
       <c r="J467" s="29"/>
     </row>
-    <row r="468" spans="1:10">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A468" s="7"/>
       <c r="B468" s="7"/>
       <c r="C468" s="7"/>
@@ -15072,7 +15102,7 @@
       <c r="I468" s="29"/>
       <c r="J468" s="29"/>
     </row>
-    <row r="469" spans="1:10">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A469" s="7"/>
       <c r="B469" s="7"/>
       <c r="C469" s="7"/>
@@ -15084,7 +15114,7 @@
       <c r="I469" s="29"/>
       <c r="J469" s="29"/>
     </row>
-    <row r="470" spans="1:10">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A470" s="7"/>
       <c r="B470" s="7"/>
       <c r="C470" s="7"/>
@@ -15096,7 +15126,7 @@
       <c r="I470" s="29"/>
       <c r="J470" s="29"/>
     </row>
-    <row r="471" spans="1:10">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A471" s="7"/>
       <c r="B471" s="7"/>
       <c r="C471" s="7"/>
@@ -15108,7 +15138,7 @@
       <c r="I471" s="29"/>
       <c r="J471" s="29"/>
     </row>
-    <row r="472" spans="1:10">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A472" s="7"/>
       <c r="B472" s="7"/>
       <c r="C472" s="7"/>
@@ -15120,7 +15150,7 @@
       <c r="I472" s="29"/>
       <c r="J472" s="29"/>
     </row>
-    <row r="473" spans="1:10">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A473" s="7"/>
       <c r="B473" s="7"/>
       <c r="C473" s="7"/>
@@ -15132,7 +15162,7 @@
       <c r="I473" s="29"/>
       <c r="J473" s="29"/>
     </row>
-    <row r="474" spans="1:10">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A474" s="7"/>
       <c r="B474" s="7"/>
       <c r="C474" s="7"/>
@@ -15144,7 +15174,7 @@
       <c r="I474" s="29"/>
       <c r="J474" s="29"/>
     </row>
-    <row r="475" spans="1:10">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A475" s="7"/>
       <c r="B475" s="7"/>
       <c r="C475" s="7"/>
@@ -15156,7 +15186,7 @@
       <c r="I475" s="29"/>
       <c r="J475" s="29"/>
     </row>
-    <row r="476" spans="1:10">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A476" s="7"/>
       <c r="B476" s="7"/>
       <c r="C476" s="7"/>
@@ -15168,7 +15198,7 @@
       <c r="I476" s="29"/>
       <c r="J476" s="29"/>
     </row>
-    <row r="477" spans="1:10">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A477" s="7"/>
       <c r="B477" s="7"/>
       <c r="C477" s="7"/>
@@ -15180,7 +15210,7 @@
       <c r="I477" s="29"/>
       <c r="J477" s="29"/>
     </row>
-    <row r="478" spans="1:10">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A478" s="7"/>
       <c r="B478" s="7"/>
       <c r="C478" s="7"/>
@@ -15192,7 +15222,7 @@
       <c r="I478" s="29"/>
       <c r="J478" s="29"/>
     </row>
-    <row r="479" spans="1:10">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A479" s="7"/>
       <c r="B479" s="7"/>
       <c r="C479" s="7"/>
@@ -15204,7 +15234,7 @@
       <c r="I479" s="29"/>
       <c r="J479" s="29"/>
     </row>
-    <row r="480" spans="1:10">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A480" s="7"/>
       <c r="B480" s="7"/>
       <c r="C480" s="7"/>
@@ -15216,7 +15246,7 @@
       <c r="I480" s="29"/>
       <c r="J480" s="29"/>
     </row>
-    <row r="481" spans="1:10">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A481" s="7"/>
       <c r="B481" s="7"/>
       <c r="C481" s="7"/>
@@ -15228,7 +15258,7 @@
       <c r="I481" s="29"/>
       <c r="J481" s="29"/>
     </row>
-    <row r="482" spans="1:10">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A482" s="7"/>
       <c r="B482" s="7"/>
       <c r="C482" s="7"/>
@@ -15240,7 +15270,7 @@
       <c r="I482" s="29"/>
       <c r="J482" s="29"/>
     </row>
-    <row r="483" spans="1:10">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A483" s="7"/>
       <c r="B483" s="7"/>
       <c r="C483" s="7"/>
@@ -15252,7 +15282,7 @@
       <c r="I483" s="29"/>
       <c r="J483" s="29"/>
     </row>
-    <row r="484" spans="1:10">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A484" s="7"/>
       <c r="B484" s="7"/>
       <c r="C484" s="7"/>
@@ -15264,7 +15294,7 @@
       <c r="I484" s="29"/>
       <c r="J484" s="29"/>
     </row>
-    <row r="485" spans="1:10">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A485" s="7"/>
       <c r="B485" s="7"/>
       <c r="C485" s="7"/>
@@ -15276,7 +15306,7 @@
       <c r="I485" s="29"/>
       <c r="J485" s="29"/>
     </row>
-    <row r="486" spans="1:10">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A486" s="7"/>
       <c r="B486" s="7"/>
       <c r="C486" s="7"/>
@@ -15288,7 +15318,7 @@
       <c r="I486" s="29"/>
       <c r="J486" s="29"/>
     </row>
-    <row r="487" spans="1:10">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A487" s="7"/>
       <c r="B487" s="7"/>
       <c r="C487" s="7"/>
@@ -15300,7 +15330,7 @@
       <c r="I487" s="29"/>
       <c r="J487" s="29"/>
     </row>
-    <row r="488" spans="1:10">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A488" s="7"/>
       <c r="B488" s="7"/>
       <c r="C488" s="7"/>
@@ -15312,7 +15342,7 @@
       <c r="I488" s="29"/>
       <c r="J488" s="29"/>
     </row>
-    <row r="489" spans="1:10">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A489" s="7"/>
       <c r="B489" s="7"/>
       <c r="C489" s="7"/>
@@ -15324,7 +15354,7 @@
       <c r="I489" s="29"/>
       <c r="J489" s="29"/>
     </row>
-    <row r="490" spans="1:10">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A490" s="7"/>
       <c r="B490" s="7"/>
       <c r="C490" s="7"/>
@@ -15336,7 +15366,7 @@
       <c r="I490" s="29"/>
       <c r="J490" s="29"/>
     </row>
-    <row r="491" spans="1:10">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A491" s="7"/>
       <c r="B491" s="7"/>
       <c r="C491" s="7"/>
@@ -15348,7 +15378,7 @@
       <c r="I491" s="29"/>
       <c r="J491" s="29"/>
     </row>
-    <row r="492" spans="1:10">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A492" s="7"/>
       <c r="B492" s="7"/>
       <c r="C492" s="7"/>
@@ -15360,7 +15390,7 @@
       <c r="I492" s="29"/>
       <c r="J492" s="29"/>
     </row>
-    <row r="493" spans="1:10">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A493" s="7"/>
       <c r="B493" s="7"/>
       <c r="C493" s="7"/>
@@ -15372,7 +15402,7 @@
       <c r="I493" s="29"/>
       <c r="J493" s="29"/>
     </row>
-    <row r="494" spans="1:10">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A494" s="7"/>
       <c r="B494" s="7"/>
       <c r="C494" s="7"/>
@@ -15384,7 +15414,7 @@
       <c r="I494" s="29"/>
       <c r="J494" s="29"/>
     </row>
-    <row r="495" spans="1:10">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A495" s="7"/>
       <c r="B495" s="7"/>
       <c r="C495" s="7"/>
@@ -15396,7 +15426,7 @@
       <c r="I495" s="29"/>
       <c r="J495" s="29"/>
     </row>
-    <row r="496" spans="1:10">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A496" s="7"/>
       <c r="B496" s="7"/>
       <c r="C496" s="7"/>
@@ -15408,7 +15438,7 @@
       <c r="I496" s="29"/>
       <c r="J496" s="29"/>
     </row>
-    <row r="497" spans="1:10">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A497" s="7"/>
       <c r="B497" s="7"/>
       <c r="C497" s="7"/>
@@ -15420,7 +15450,7 @@
       <c r="I497" s="29"/>
       <c r="J497" s="29"/>
     </row>
-    <row r="498" spans="1:10">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A498" s="7"/>
       <c r="B498" s="7"/>
       <c r="C498" s="7"/>
@@ -15432,7 +15462,7 @@
       <c r="I498" s="29"/>
       <c r="J498" s="29"/>
     </row>
-    <row r="499" spans="1:10">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A499" s="7"/>
       <c r="B499" s="7"/>
       <c r="C499" s="7"/>
@@ -15444,7 +15474,7 @@
       <c r="I499" s="29"/>
       <c r="J499" s="29"/>
     </row>
-    <row r="500" spans="1:10">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A500" s="7"/>
       <c r="B500" s="7"/>
       <c r="C500" s="7"/>
@@ -15456,7 +15486,7 @@
       <c r="I500" s="29"/>
       <c r="J500" s="29"/>
     </row>
-    <row r="501" spans="1:10">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A501" s="7"/>
       <c r="B501" s="7"/>
       <c r="C501" s="7"/>
@@ -15468,7 +15498,7 @@
       <c r="I501" s="29"/>
       <c r="J501" s="29"/>
     </row>
-    <row r="502" spans="1:10">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A502" s="7"/>
       <c r="B502" s="7"/>
       <c r="C502" s="7"/>
@@ -15480,7 +15510,7 @@
       <c r="I502" s="29"/>
       <c r="J502" s="29"/>
     </row>
-    <row r="503" spans="1:10">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A503" s="7"/>
       <c r="B503" s="7"/>
       <c r="C503" s="7"/>
@@ -15492,7 +15522,7 @@
       <c r="I503" s="29"/>
       <c r="J503" s="29"/>
     </row>
-    <row r="504" spans="1:10">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A504" s="7"/>
       <c r="B504" s="7"/>
       <c r="C504" s="7"/>
@@ -15504,7 +15534,7 @@
       <c r="I504" s="29"/>
       <c r="J504" s="29"/>
     </row>
-    <row r="505" spans="1:10">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A505" s="7"/>
       <c r="B505" s="7"/>
       <c r="C505" s="7"/>
@@ -15516,7 +15546,7 @@
       <c r="I505" s="29"/>
       <c r="J505" s="29"/>
     </row>
-    <row r="506" spans="1:10">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A506" s="7"/>
       <c r="B506" s="7"/>
       <c r="C506" s="7"/>
@@ -15528,7 +15558,7 @@
       <c r="I506" s="29"/>
       <c r="J506" s="29"/>
     </row>
-    <row r="507" spans="1:10">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A507" s="7"/>
       <c r="B507" s="7"/>
       <c r="C507" s="7"/>
@@ -15540,7 +15570,7 @@
       <c r="I507" s="29"/>
       <c r="J507" s="29"/>
     </row>
-    <row r="508" spans="1:10">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A508" s="7"/>
       <c r="B508" s="7"/>
       <c r="C508" s="7"/>
@@ -15552,7 +15582,7 @@
       <c r="I508" s="29"/>
       <c r="J508" s="29"/>
     </row>
-    <row r="509" spans="1:10">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A509" s="7"/>
       <c r="B509" s="7"/>
       <c r="C509" s="7"/>
@@ -15564,7 +15594,7 @@
       <c r="I509" s="29"/>
       <c r="J509" s="29"/>
     </row>
-    <row r="510" spans="1:10">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A510" s="7"/>
       <c r="B510" s="7"/>
       <c r="C510" s="7"/>
@@ -15576,7 +15606,7 @@
       <c r="I510" s="29"/>
       <c r="J510" s="29"/>
     </row>
-    <row r="511" spans="1:10">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A511" s="7"/>
       <c r="B511" s="7"/>
       <c r="C511" s="7"/>
@@ -15588,7 +15618,7 @@
       <c r="I511" s="29"/>
       <c r="J511" s="29"/>
     </row>
-    <row r="512" spans="1:10">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A512" s="7"/>
       <c r="B512" s="7"/>
       <c r="C512" s="7"/>
@@ -15600,7 +15630,7 @@
       <c r="I512" s="29"/>
       <c r="J512" s="29"/>
     </row>
-    <row r="513" spans="1:10">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A513" s="7"/>
       <c r="B513" s="7"/>
       <c r="C513" s="7"/>
@@ -15612,7 +15642,7 @@
       <c r="I513" s="29"/>
       <c r="J513" s="29"/>
     </row>
-    <row r="514" spans="1:10">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A514" s="7"/>
       <c r="B514" s="7"/>
       <c r="C514" s="7"/>
@@ -15624,7 +15654,7 @@
       <c r="I514" s="29"/>
       <c r="J514" s="29"/>
     </row>
-    <row r="515" spans="1:10">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A515" s="7"/>
       <c r="B515" s="7"/>
       <c r="C515" s="7"/>
@@ -15636,7 +15666,7 @@
       <c r="I515" s="29"/>
       <c r="J515" s="29"/>
     </row>
-    <row r="516" spans="1:10">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A516" s="7"/>
       <c r="B516" s="7"/>
       <c r="C516" s="7"/>
@@ -15648,7 +15678,7 @@
       <c r="I516" s="29"/>
       <c r="J516" s="29"/>
     </row>
-    <row r="517" spans="1:10">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A517" s="7"/>
       <c r="B517" s="7"/>
       <c r="C517" s="7"/>
@@ -15660,7 +15690,7 @@
       <c r="I517" s="29"/>
       <c r="J517" s="29"/>
     </row>
-    <row r="518" spans="1:10">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A518" s="7"/>
       <c r="B518" s="7"/>
       <c r="C518" s="7"/>
@@ -15672,7 +15702,7 @@
       <c r="I518" s="29"/>
       <c r="J518" s="29"/>
     </row>
-    <row r="519" spans="1:10">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A519" s="7"/>
       <c r="B519" s="7"/>
       <c r="C519" s="7"/>
@@ -15684,7 +15714,7 @@
       <c r="I519" s="29"/>
       <c r="J519" s="29"/>
     </row>
-    <row r="520" spans="1:10">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A520" s="7"/>
       <c r="B520" s="7"/>
       <c r="C520" s="7"/>
@@ -15696,7 +15726,7 @@
       <c r="I520" s="29"/>
       <c r="J520" s="29"/>
     </row>
-    <row r="521" spans="1:10">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A521" s="7"/>
       <c r="B521" s="7"/>
       <c r="C521" s="7"/>
@@ -15708,7 +15738,7 @@
       <c r="I521" s="29"/>
       <c r="J521" s="29"/>
     </row>
-    <row r="522" spans="1:10">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A522" s="7"/>
       <c r="B522" s="7"/>
       <c r="C522" s="7"/>
@@ -15720,7 +15750,7 @@
       <c r="I522" s="29"/>
       <c r="J522" s="29"/>
     </row>
-    <row r="523" spans="1:10">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A523" s="7"/>
       <c r="B523" s="7"/>
       <c r="C523" s="7"/>
@@ -15732,7 +15762,7 @@
       <c r="I523" s="29"/>
       <c r="J523" s="29"/>
     </row>
-    <row r="524" spans="1:10">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A524" s="7"/>
       <c r="B524" s="7"/>
       <c r="C524" s="7"/>
@@ -15744,7 +15774,7 @@
       <c r="I524" s="29"/>
       <c r="J524" s="29"/>
     </row>
-    <row r="525" spans="1:10">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A525" s="7"/>
       <c r="B525" s="7"/>
       <c r="C525" s="7"/>
@@ -15756,7 +15786,7 @@
       <c r="I525" s="29"/>
       <c r="J525" s="29"/>
     </row>
-    <row r="526" spans="1:10">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A526" s="7"/>
       <c r="B526" s="7"/>
       <c r="C526" s="7"/>
@@ -15768,7 +15798,7 @@
       <c r="I526" s="29"/>
       <c r="J526" s="29"/>
     </row>
-    <row r="527" spans="1:10">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A527" s="7"/>
       <c r="B527" s="7"/>
       <c r="C527" s="7"/>
@@ -15780,7 +15810,7 @@
       <c r="I527" s="29"/>
       <c r="J527" s="29"/>
     </row>
-    <row r="528" spans="1:10">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A528" s="7"/>
       <c r="B528" s="7"/>
       <c r="C528" s="7"/>
@@ -15792,7 +15822,7 @@
       <c r="I528" s="29"/>
       <c r="J528" s="29"/>
     </row>
-    <row r="529" spans="1:10">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A529" s="7"/>
       <c r="B529" s="7"/>
       <c r="C529" s="7"/>
@@ -15804,7 +15834,7 @@
       <c r="I529" s="29"/>
       <c r="J529" s="29"/>
     </row>
-    <row r="530" spans="1:10">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A530" s="7"/>
       <c r="B530" s="7"/>
       <c r="C530" s="7"/>
@@ -15816,7 +15846,7 @@
       <c r="I530" s="29"/>
       <c r="J530" s="29"/>
     </row>
-    <row r="531" spans="1:10">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A531" s="7"/>
       <c r="B531" s="7"/>
       <c r="C531" s="7"/>
@@ -15828,7 +15858,7 @@
       <c r="I531" s="29"/>
       <c r="J531" s="29"/>
     </row>
-    <row r="532" spans="1:10">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A532" s="7"/>
       <c r="B532" s="7"/>
       <c r="C532" s="7"/>
@@ -15840,7 +15870,7 @@
       <c r="I532" s="29"/>
       <c r="J532" s="29"/>
     </row>
-    <row r="533" spans="1:10">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A533" s="7"/>
       <c r="B533" s="7"/>
       <c r="C533" s="7"/>
@@ -15852,7 +15882,7 @@
       <c r="I533" s="29"/>
       <c r="J533" s="29"/>
     </row>
-    <row r="534" spans="1:10">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A534" s="7"/>
       <c r="B534" s="7"/>
       <c r="C534" s="7"/>
@@ -15864,7 +15894,7 @@
       <c r="I534" s="29"/>
       <c r="J534" s="29"/>
     </row>
-    <row r="535" spans="1:10">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A535" s="7"/>
       <c r="B535" s="7"/>
       <c r="C535" s="7"/>
@@ -15876,7 +15906,7 @@
       <c r="I535" s="29"/>
       <c r="J535" s="29"/>
     </row>
-    <row r="536" spans="1:10">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A536" s="7"/>
       <c r="B536" s="7"/>
       <c r="C536" s="7"/>
@@ -15888,7 +15918,7 @@
       <c r="I536" s="29"/>
       <c r="J536" s="29"/>
     </row>
-    <row r="537" spans="1:10">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A537" s="7"/>
       <c r="B537" s="7"/>
       <c r="C537" s="7"/>
@@ -15900,7 +15930,7 @@
       <c r="I537" s="29"/>
       <c r="J537" s="29"/>
     </row>
-    <row r="538" spans="1:10">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A538" s="7"/>
       <c r="B538" s="7"/>
       <c r="C538" s="7"/>
@@ -15912,7 +15942,7 @@
       <c r="I538" s="29"/>
       <c r="J538" s="29"/>
     </row>
-    <row r="539" spans="1:10">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A539" s="7"/>
       <c r="B539" s="7"/>
       <c r="C539" s="7"/>
@@ -15924,7 +15954,7 @@
       <c r="I539" s="29"/>
       <c r="J539" s="29"/>
     </row>
-    <row r="540" spans="1:10">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A540" s="7"/>
       <c r="B540" s="7"/>
       <c r="C540" s="7"/>
@@ -15936,7 +15966,7 @@
       <c r="I540" s="29"/>
       <c r="J540" s="29"/>
     </row>
-    <row r="541" spans="1:10">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A541" s="7"/>
       <c r="B541" s="7"/>
       <c r="C541" s="7"/>
@@ -15948,7 +15978,7 @@
       <c r="I541" s="29"/>
       <c r="J541" s="29"/>
     </row>
-    <row r="542" spans="1:10">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A542" s="7"/>
       <c r="B542" s="7"/>
       <c r="C542" s="7"/>
@@ -15960,7 +15990,7 @@
       <c r="I542" s="29"/>
       <c r="J542" s="29"/>
     </row>
-    <row r="543" spans="1:10">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A543" s="7"/>
       <c r="B543" s="7"/>
       <c r="C543" s="7"/>
@@ -15972,7 +16002,7 @@
       <c r="I543" s="29"/>
       <c r="J543" s="29"/>
     </row>
-    <row r="544" spans="1:10">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A544" s="7"/>
       <c r="B544" s="7"/>
       <c r="C544" s="7"/>
@@ -15984,7 +16014,7 @@
       <c r="I544" s="29"/>
       <c r="J544" s="29"/>
     </row>
-    <row r="545" spans="1:10">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A545" s="7"/>
       <c r="B545" s="7"/>
       <c r="C545" s="7"/>
@@ -15996,7 +16026,7 @@
       <c r="I545" s="29"/>
       <c r="J545" s="29"/>
     </row>
-    <row r="546" spans="1:10">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A546" s="7"/>
       <c r="B546" s="7"/>
       <c r="C546" s="7"/>
@@ -16008,7 +16038,7 @@
       <c r="I546" s="29"/>
       <c r="J546" s="29"/>
     </row>
-    <row r="547" spans="1:10">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A547" s="7"/>
       <c r="B547" s="7"/>
       <c r="C547" s="7"/>
@@ -16020,7 +16050,7 @@
       <c r="I547" s="29"/>
       <c r="J547" s="29"/>
     </row>
-    <row r="548" spans="1:10">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A548" s="7"/>
       <c r="B548" s="7"/>
       <c r="C548" s="7"/>
@@ -16032,7 +16062,7 @@
       <c r="I548" s="29"/>
       <c r="J548" s="29"/>
     </row>
-    <row r="549" spans="1:10">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A549" s="7"/>
       <c r="B549" s="7"/>
       <c r="C549" s="7"/>
@@ -16044,7 +16074,7 @@
       <c r="I549" s="29"/>
       <c r="J549" s="29"/>
     </row>
-    <row r="550" spans="1:10">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A550" s="7"/>
       <c r="B550" s="7"/>
       <c r="C550" s="7"/>
@@ -16056,7 +16086,7 @@
       <c r="I550" s="29"/>
       <c r="J550" s="29"/>
     </row>
-    <row r="551" spans="1:10">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A551" s="7"/>
       <c r="B551" s="7"/>
       <c r="C551" s="7"/>
@@ -16068,7 +16098,7 @@
       <c r="I551" s="29"/>
       <c r="J551" s="29"/>
     </row>
-    <row r="552" spans="1:10">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A552" s="7"/>
       <c r="B552" s="7"/>
       <c r="C552" s="7"/>
@@ -16080,7 +16110,7 @@
       <c r="I552" s="29"/>
       <c r="J552" s="29"/>
     </row>
-    <row r="553" spans="1:10">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A553" s="7"/>
       <c r="B553" s="7"/>
       <c r="C553" s="7"/>
@@ -16092,7 +16122,7 @@
       <c r="I553" s="29"/>
       <c r="J553" s="29"/>
     </row>
-    <row r="554" spans="1:10">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A554" s="7"/>
       <c r="B554" s="7"/>
       <c r="C554" s="7"/>
@@ -16104,7 +16134,7 @@
       <c r="I554" s="29"/>
       <c r="J554" s="29"/>
     </row>
-    <row r="555" spans="1:10">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A555" s="7"/>
       <c r="B555" s="7"/>
       <c r="C555" s="7"/>
@@ -16116,7 +16146,7 @@
       <c r="I555" s="29"/>
       <c r="J555" s="29"/>
     </row>
-    <row r="556" spans="1:10">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A556" s="7"/>
       <c r="B556" s="7"/>
       <c r="C556" s="7"/>
@@ -16128,7 +16158,7 @@
       <c r="I556" s="29"/>
       <c r="J556" s="29"/>
     </row>
-    <row r="557" spans="1:10">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A557" s="7"/>
       <c r="B557" s="7"/>
       <c r="C557" s="7"/>
@@ -16140,7 +16170,7 @@
       <c r="I557" s="29"/>
       <c r="J557" s="29"/>
     </row>
-    <row r="558" spans="1:10">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A558" s="7"/>
       <c r="B558" s="7"/>
       <c r="C558" s="7"/>
@@ -16152,7 +16182,7 @@
       <c r="I558" s="29"/>
       <c r="J558" s="29"/>
     </row>
-    <row r="559" spans="1:10">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A559" s="7"/>
       <c r="B559" s="7"/>
       <c r="C559" s="7"/>
@@ -16164,7 +16194,7 @@
       <c r="I559" s="29"/>
       <c r="J559" s="29"/>
     </row>
-    <row r="560" spans="1:10">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A560" s="7"/>
       <c r="B560" s="7"/>
       <c r="C560" s="7"/>
@@ -16176,7 +16206,7 @@
       <c r="I560" s="29"/>
       <c r="J560" s="29"/>
     </row>
-    <row r="561" spans="1:10">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A561" s="7"/>
       <c r="B561" s="7"/>
       <c r="C561" s="7"/>
@@ -16188,7 +16218,7 @@
       <c r="I561" s="29"/>
       <c r="J561" s="29"/>
     </row>
-    <row r="562" spans="1:10">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A562" s="7"/>
       <c r="B562" s="7"/>
       <c r="C562" s="7"/>
@@ -16200,7 +16230,7 @@
       <c r="I562" s="29"/>
       <c r="J562" s="29"/>
     </row>
-    <row r="563" spans="1:10">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A563" s="7"/>
       <c r="B563" s="7"/>
       <c r="C563" s="7"/>
@@ -16212,7 +16242,7 @@
       <c r="I563" s="29"/>
       <c r="J563" s="29"/>
     </row>
-    <row r="564" spans="1:10">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A564" s="7"/>
       <c r="B564" s="7"/>
       <c r="C564" s="7"/>
@@ -16224,7 +16254,7 @@
       <c r="I564" s="29"/>
       <c r="J564" s="29"/>
     </row>
-    <row r="565" spans="1:10">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A565" s="7"/>
       <c r="B565" s="7"/>
       <c r="C565" s="7"/>
@@ -16236,7 +16266,7 @@
       <c r="I565" s="29"/>
       <c r="J565" s="29"/>
     </row>
-    <row r="566" spans="1:10">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A566" s="7"/>
       <c r="B566" s="7"/>
       <c r="C566" s="7"/>
@@ -16248,7 +16278,7 @@
       <c r="I566" s="29"/>
       <c r="J566" s="29"/>
     </row>
-    <row r="567" spans="1:10">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A567" s="7"/>
       <c r="B567" s="7"/>
       <c r="C567" s="7"/>
@@ -16260,7 +16290,7 @@
       <c r="I567" s="29"/>
       <c r="J567" s="29"/>
     </row>
-    <row r="568" spans="1:10">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A568" s="7"/>
       <c r="B568" s="7"/>
       <c r="C568" s="7"/>
@@ -16272,7 +16302,7 @@
       <c r="I568" s="29"/>
       <c r="J568" s="29"/>
     </row>
-    <row r="569" spans="1:10">
+    <row r="569" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A569" s="7"/>
       <c r="B569" s="7"/>
       <c r="C569" s="7"/>
@@ -16284,7 +16314,7 @@
       <c r="I569" s="29"/>
       <c r="J569" s="29"/>
     </row>
-    <row r="570" spans="1:10">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A570" s="7"/>
       <c r="B570" s="7"/>
       <c r="C570" s="7"/>
@@ -16296,7 +16326,7 @@
       <c r="I570" s="29"/>
       <c r="J570" s="29"/>
     </row>
-    <row r="571" spans="1:10">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A571" s="7"/>
       <c r="B571" s="7"/>
       <c r="C571" s="7"/>
@@ -16308,7 +16338,7 @@
       <c r="I571" s="29"/>
       <c r="J571" s="29"/>
     </row>
-    <row r="572" spans="1:10">
+    <row r="572" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A572" s="7"/>
       <c r="B572" s="7"/>
       <c r="C572" s="7"/>
@@ -16320,7 +16350,7 @@
       <c r="I572" s="29"/>
       <c r="J572" s="29"/>
     </row>
-    <row r="573" spans="1:10">
+    <row r="573" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A573" s="7"/>
       <c r="B573" s="7"/>
       <c r="C573" s="7"/>
@@ -16332,7 +16362,7 @@
       <c r="I573" s="29"/>
       <c r="J573" s="29"/>
     </row>
-    <row r="574" spans="1:10">
+    <row r="574" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A574" s="7"/>
       <c r="B574" s="7"/>
       <c r="C574" s="7"/>
@@ -16344,7 +16374,7 @@
       <c r="I574" s="29"/>
       <c r="J574" s="29"/>
     </row>
-    <row r="575" spans="1:10">
+    <row r="575" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A575" s="7"/>
       <c r="B575" s="7"/>
       <c r="C575" s="7"/>
@@ -16356,7 +16386,7 @@
       <c r="I575" s="29"/>
       <c r="J575" s="29"/>
     </row>
-    <row r="576" spans="1:10">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A576" s="7"/>
       <c r="B576" s="7"/>
       <c r="C576" s="7"/>
@@ -16368,7 +16398,7 @@
       <c r="I576" s="29"/>
       <c r="J576" s="29"/>
     </row>
-    <row r="577" spans="1:10">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A577" s="7"/>
       <c r="B577" s="7"/>
       <c r="C577" s="7"/>
@@ -16380,7 +16410,7 @@
       <c r="I577" s="29"/>
       <c r="J577" s="29"/>
     </row>
-    <row r="578" spans="1:10">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A578" s="7"/>
       <c r="B578" s="7"/>
       <c r="C578" s="7"/>
@@ -16392,7 +16422,7 @@
       <c r="I578" s="29"/>
       <c r="J578" s="29"/>
     </row>
-    <row r="579" spans="1:10">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A579" s="7"/>
       <c r="B579" s="7"/>
       <c r="C579" s="7"/>
@@ -16404,7 +16434,7 @@
       <c r="I579" s="29"/>
       <c r="J579" s="29"/>
     </row>
-    <row r="580" spans="1:10">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A580" s="7"/>
       <c r="B580" s="7"/>
       <c r="C580" s="7"/>
@@ -16416,7 +16446,7 @@
       <c r="I580" s="29"/>
       <c r="J580" s="29"/>
     </row>
-    <row r="581" spans="1:10">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A581" s="7"/>
       <c r="B581" s="7"/>
       <c r="C581" s="7"/>
@@ -16428,7 +16458,7 @@
       <c r="I581" s="29"/>
       <c r="J581" s="29"/>
     </row>
-    <row r="582" spans="1:10">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A582" s="7"/>
       <c r="B582" s="7"/>
       <c r="C582" s="7"/>
@@ -16440,7 +16470,7 @@
       <c r="I582" s="29"/>
       <c r="J582" s="29"/>
     </row>
-    <row r="583" spans="1:10">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A583" s="7"/>
       <c r="B583" s="7"/>
       <c r="C583" s="7"/>
@@ -16452,7 +16482,7 @@
       <c r="I583" s="29"/>
       <c r="J583" s="29"/>
     </row>
-    <row r="584" spans="1:10">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A584" s="7"/>
       <c r="B584" s="7"/>
       <c r="C584" s="7"/>
@@ -16464,7 +16494,7 @@
       <c r="I584" s="29"/>
       <c r="J584" s="29"/>
     </row>
-    <row r="585" spans="1:10">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A585" s="7"/>
       <c r="B585" s="7"/>
       <c r="C585" s="7"/>
@@ -16476,7 +16506,7 @@
       <c r="I585" s="29"/>
       <c r="J585" s="29"/>
     </row>
-    <row r="586" spans="1:10">
+    <row r="586" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A586" s="7"/>
       <c r="B586" s="7"/>
       <c r="C586" s="7"/>
@@ -16488,7 +16518,7 @@
       <c r="I586" s="29"/>
       <c r="J586" s="29"/>
     </row>
-    <row r="587" spans="1:10">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A587" s="7"/>
       <c r="B587" s="7"/>
       <c r="C587" s="7"/>
@@ -16500,7 +16530,7 @@
       <c r="I587" s="29"/>
       <c r="J587" s="29"/>
     </row>
-    <row r="588" spans="1:10">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A588" s="7"/>
       <c r="B588" s="7"/>
       <c r="C588" s="7"/>
@@ -16512,7 +16542,7 @@
       <c r="I588" s="29"/>
       <c r="J588" s="29"/>
     </row>
-    <row r="589" spans="1:10">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A589" s="7"/>
       <c r="B589" s="7"/>
       <c r="C589" s="7"/>
@@ -16524,7 +16554,7 @@
       <c r="I589" s="29"/>
       <c r="J589" s="29"/>
     </row>
-    <row r="590" spans="1:10">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A590" s="7"/>
       <c r="B590" s="7"/>
       <c r="C590" s="7"/>
@@ -16536,7 +16566,7 @@
       <c r="I590" s="29"/>
       <c r="J590" s="29"/>
     </row>
-    <row r="591" spans="1:10">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A591" s="7"/>
       <c r="B591" s="7"/>
       <c r="C591" s="7"/>
@@ -16548,7 +16578,7 @@
       <c r="I591" s="29"/>
       <c r="J591" s="29"/>
     </row>
-    <row r="592" spans="1:10">
+    <row r="592" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B592" s="7"/>
       <c r="C592" s="7"/>
       <c r="D592" s="7"/>
@@ -16559,7 +16589,7 @@
       <c r="I592" s="29"/>
       <c r="J592" s="29"/>
     </row>
-    <row r="593" spans="2:10">
+    <row r="593" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B593" s="7"/>
       <c r="C593" s="7"/>
       <c r="D593" s="7"/>
@@ -16570,7 +16600,7 @@
       <c r="I593" s="29"/>
       <c r="J593" s="29"/>
     </row>
-    <row r="594" spans="2:10">
+    <row r="594" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B594" s="7"/>
       <c r="C594" s="7"/>
       <c r="D594" s="7"/>
@@ -16581,7 +16611,7 @@
       <c r="I594" s="29"/>
       <c r="J594" s="29"/>
     </row>
-    <row r="595" spans="2:10">
+    <row r="595" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B595" s="7"/>
       <c r="C595" s="7"/>
       <c r="D595" s="7"/>
@@ -16592,7 +16622,7 @@
       <c r="I595" s="29"/>
       <c r="J595" s="29"/>
     </row>
-    <row r="596" spans="2:10">
+    <row r="596" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B596" s="7"/>
       <c r="C596" s="7"/>
       <c r="D596" s="7"/>
@@ -16603,7 +16633,7 @@
       <c r="I596" s="29"/>
       <c r="J596" s="29"/>
     </row>
-    <row r="597" spans="2:10">
+    <row r="597" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B597" s="7"/>
       <c r="C597" s="7"/>
       <c r="D597" s="7"/>
@@ -16614,7 +16644,7 @@
       <c r="I597" s="29"/>
       <c r="J597" s="29"/>
     </row>
-    <row r="598" spans="2:10">
+    <row r="598" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B598" s="7"/>
       <c r="C598" s="7"/>
       <c r="D598" s="7"/>
@@ -16625,7 +16655,7 @@
       <c r="I598" s="29"/>
       <c r="J598" s="29"/>
     </row>
-    <row r="599" spans="2:10">
+    <row r="599" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B599" s="7"/>
       <c r="C599" s="7"/>
       <c r="D599" s="7"/>
@@ -16636,7 +16666,7 @@
       <c r="I599" s="29"/>
       <c r="J599" s="29"/>
     </row>
-    <row r="600" spans="2:10">
+    <row r="600" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B600" s="7"/>
       <c r="C600" s="7"/>
       <c r="D600" s="7"/>
@@ -16647,7 +16677,7 @@
       <c r="I600" s="29"/>
       <c r="J600" s="29"/>
     </row>
-    <row r="601" spans="2:10">
+    <row r="601" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B601" s="7"/>
       <c r="C601" s="7"/>
       <c r="D601" s="7"/>
@@ -16658,7 +16688,7 @@
       <c r="I601" s="29"/>
       <c r="J601" s="29"/>
     </row>
-    <row r="602" spans="2:10">
+    <row r="602" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B602" s="7"/>
       <c r="C602" s="7"/>
       <c r="D602" s="7"/>
@@ -16669,7 +16699,7 @@
       <c r="I602" s="29"/>
       <c r="J602" s="29"/>
     </row>
-    <row r="603" spans="2:10">
+    <row r="603" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B603" s="7"/>
       <c r="C603" s="7"/>
       <c r="D603" s="7"/>
@@ -16680,7 +16710,7 @@
       <c r="I603" s="29"/>
       <c r="J603" s="29"/>
     </row>
-    <row r="604" spans="2:10">
+    <row r="604" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B604" s="7"/>
       <c r="C604" s="7"/>
       <c r="D604" s="7"/>
@@ -16691,7 +16721,7 @@
       <c r="I604" s="29"/>
       <c r="J604" s="29"/>
     </row>
-    <row r="605" spans="2:10">
+    <row r="605" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B605" s="7"/>
       <c r="C605" s="7"/>
       <c r="D605" s="7"/>
@@ -16702,7 +16732,7 @@
       <c r="I605" s="29"/>
       <c r="J605" s="29"/>
     </row>
-    <row r="606" spans="2:10">
+    <row r="606" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B606" s="7"/>
       <c r="C606" s="7"/>
       <c r="D606" s="7"/>
@@ -16713,7 +16743,7 @@
       <c r="I606" s="29"/>
       <c r="J606" s="29"/>
     </row>
-    <row r="607" spans="2:10">
+    <row r="607" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B607" s="7"/>
       <c r="C607" s="7"/>
       <c r="D607" s="7"/>
@@ -16724,7 +16754,7 @@
       <c r="I607" s="29"/>
       <c r="J607" s="29"/>
     </row>
-    <row r="608" spans="2:10">
+    <row r="608" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B608" s="7"/>
       <c r="C608" s="7"/>
       <c r="D608" s="7"/>
@@ -16735,7 +16765,7 @@
       <c r="I608" s="29"/>
       <c r="J608" s="29"/>
     </row>
-    <row r="609" spans="2:10">
+    <row r="609" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B609" s="7"/>
       <c r="C609" s="7"/>
       <c r="D609" s="7"/>
@@ -16746,7 +16776,7 @@
       <c r="I609" s="29"/>
       <c r="J609" s="29"/>
     </row>
-    <row r="610" spans="2:10">
+    <row r="610" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B610" s="7"/>
       <c r="C610" s="7"/>
       <c r="D610" s="7"/>
@@ -16757,7 +16787,7 @@
       <c r="I610" s="29"/>
       <c r="J610" s="29"/>
     </row>
-    <row r="611" spans="2:10">
+    <row r="611" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B611" s="7"/>
       <c r="C611" s="7"/>
       <c r="D611" s="7"/>
@@ -16768,7 +16798,7 @@
       <c r="I611" s="29"/>
       <c r="J611" s="29"/>
     </row>
-    <row r="612" spans="2:10">
+    <row r="612" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B612" s="7"/>
       <c r="C612" s="7"/>
       <c r="D612" s="7"/>
@@ -16779,7 +16809,7 @@
       <c r="I612" s="29"/>
       <c r="J612" s="29"/>
     </row>
-    <row r="613" spans="2:10">
+    <row r="613" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B613" s="7"/>
       <c r="C613" s="7"/>
       <c r="D613" s="7"/>
@@ -16790,7 +16820,7 @@
       <c r="I613" s="29"/>
       <c r="J613" s="29"/>
     </row>
-    <row r="614" spans="2:10">
+    <row r="614" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B614" s="7"/>
       <c r="C614" s="7"/>
       <c r="D614" s="7"/>
@@ -16801,7 +16831,7 @@
       <c r="I614" s="29"/>
       <c r="J614" s="29"/>
     </row>
-    <row r="615" spans="2:10">
+    <row r="615" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B615" s="7"/>
       <c r="C615" s="7"/>
       <c r="D615" s="7"/>
@@ -16812,7 +16842,7 @@
       <c r="I615" s="29"/>
       <c r="J615" s="29"/>
     </row>
-    <row r="616" spans="2:10">
+    <row r="616" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B616" s="7"/>
       <c r="C616" s="7"/>
       <c r="D616" s="7"/>
@@ -16823,7 +16853,7 @@
       <c r="I616" s="29"/>
       <c r="J616" s="29"/>
     </row>
-    <row r="617" spans="2:10">
+    <row r="617" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B617" s="7"/>
       <c r="C617" s="7"/>
       <c r="D617" s="7"/>
@@ -16834,7 +16864,7 @@
       <c r="I617" s="29"/>
       <c r="J617" s="29"/>
     </row>
-    <row r="618" spans="2:10">
+    <row r="618" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B618" s="7"/>
       <c r="C618" s="7"/>
       <c r="D618" s="7"/>
@@ -16845,7 +16875,7 @@
       <c r="I618" s="29"/>
       <c r="J618" s="29"/>
     </row>
-    <row r="619" spans="2:10">
+    <row r="619" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B619" s="7"/>
       <c r="C619" s="7"/>
       <c r="D619" s="7"/>
@@ -16856,7 +16886,7 @@
       <c r="I619" s="29"/>
       <c r="J619" s="29"/>
     </row>
-    <row r="620" spans="2:10">
+    <row r="620" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B620" s="7"/>
       <c r="C620" s="7"/>
       <c r="D620" s="7"/>
@@ -16867,7 +16897,7 @@
       <c r="I620" s="29"/>
       <c r="J620" s="29"/>
     </row>
-    <row r="621" spans="2:10">
+    <row r="621" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B621" s="7"/>
       <c r="C621" s="7"/>
       <c r="D621" s="7"/>
@@ -16878,7 +16908,7 @@
       <c r="I621" s="29"/>
       <c r="J621" s="29"/>
     </row>
-    <row r="622" spans="2:10">
+    <row r="622" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B622" s="7"/>
       <c r="C622" s="7"/>
       <c r="D622" s="7"/>
@@ -16889,7 +16919,7 @@
       <c r="I622" s="29"/>
       <c r="J622" s="29"/>
     </row>
-    <row r="623" spans="2:10">
+    <row r="623" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B623" s="7"/>
       <c r="C623" s="7"/>
       <c r="D623" s="7"/>
@@ -16900,7 +16930,7 @@
       <c r="I623" s="29"/>
       <c r="J623" s="29"/>
     </row>
-    <row r="624" spans="2:10">
+    <row r="624" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B624" s="7"/>
       <c r="C624" s="7"/>
       <c r="D624" s="7"/>
@@ -16911,7 +16941,7 @@
       <c r="I624" s="29"/>
       <c r="J624" s="29"/>
     </row>
-    <row r="625" spans="2:10">
+    <row r="625" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B625" s="7"/>
       <c r="C625" s="7"/>
       <c r="D625" s="7"/>
@@ -16922,7 +16952,7 @@
       <c r="I625" s="29"/>
       <c r="J625" s="29"/>
     </row>
-    <row r="626" spans="2:10">
+    <row r="626" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B626" s="7"/>
       <c r="C626" s="7"/>
       <c r="D626" s="7"/>
@@ -16933,7 +16963,7 @@
       <c r="I626" s="29"/>
       <c r="J626" s="29"/>
     </row>
-    <row r="627" spans="2:10">
+    <row r="627" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B627" s="7"/>
       <c r="C627" s="7"/>
       <c r="D627" s="7"/>
@@ -16944,7 +16974,7 @@
       <c r="I627" s="29"/>
       <c r="J627" s="29"/>
     </row>
-    <row r="628" spans="2:10">
+    <row r="628" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B628" s="7"/>
       <c r="C628" s="7"/>
       <c r="D628" s="7"/>
@@ -16955,7 +16985,7 @@
       <c r="I628" s="29"/>
       <c r="J628" s="29"/>
     </row>
-    <row r="629" spans="2:10">
+    <row r="629" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B629" s="7"/>
       <c r="C629" s="7"/>
       <c r="D629" s="7"/>
@@ -16966,7 +16996,7 @@
       <c r="I629" s="29"/>
       <c r="J629" s="29"/>
     </row>
-    <row r="630" spans="2:10">
+    <row r="630" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B630" s="7"/>
       <c r="C630" s="7"/>
       <c r="D630" s="7"/>
@@ -16977,7 +17007,7 @@
       <c r="I630" s="29"/>
       <c r="J630" s="29"/>
     </row>
-    <row r="631" spans="2:10">
+    <row r="631" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B631" s="7"/>
       <c r="C631" s="7"/>
       <c r="D631" s="7"/>
@@ -16988,7 +17018,7 @@
       <c r="I631" s="29"/>
       <c r="J631" s="29"/>
     </row>
-    <row r="632" spans="2:10">
+    <row r="632" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B632" s="7"/>
       <c r="C632" s="7"/>
       <c r="D632" s="7"/>
@@ -16999,7 +17029,7 @@
       <c r="I632" s="29"/>
       <c r="J632" s="29"/>
     </row>
-    <row r="633" spans="2:10">
+    <row r="633" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B633" s="7"/>
       <c r="C633" s="7"/>
       <c r="D633" s="7"/>
@@ -17010,7 +17040,7 @@
       <c r="I633" s="29"/>
       <c r="J633" s="29"/>
     </row>
-    <row r="634" spans="2:10">
+    <row r="634" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B634" s="7"/>
       <c r="C634" s="7"/>
       <c r="D634" s="7"/>
@@ -17021,7 +17051,7 @@
       <c r="I634" s="29"/>
       <c r="J634" s="29"/>
     </row>
-    <row r="635" spans="2:10">
+    <row r="635" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B635" s="7"/>
       <c r="C635" s="7"/>
       <c r="D635" s="7"/>
@@ -17032,7 +17062,7 @@
       <c r="I635" s="29"/>
       <c r="J635" s="29"/>
     </row>
-    <row r="636" spans="2:10">
+    <row r="636" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B636" s="7"/>
       <c r="C636" s="7"/>
       <c r="D636" s="7"/>
@@ -17043,7 +17073,7 @@
       <c r="I636" s="29"/>
       <c r="J636" s="29"/>
     </row>
-    <row r="637" spans="2:10">
+    <row r="637" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B637" s="7"/>
       <c r="C637" s="7"/>
       <c r="D637" s="7"/>
@@ -17054,7 +17084,7 @@
       <c r="I637" s="29"/>
       <c r="J637" s="29"/>
     </row>
-    <row r="638" spans="2:10">
+    <row r="638" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B638" s="7"/>
       <c r="C638" s="7"/>
       <c r="D638" s="7"/>
@@ -17065,7 +17095,7 @@
       <c r="I638" s="29"/>
       <c r="J638" s="29"/>
     </row>
-    <row r="639" spans="2:10">
+    <row r="639" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B639" s="7"/>
       <c r="C639" s="7"/>
       <c r="D639" s="7"/>
@@ -17076,7 +17106,7 @@
       <c r="I639" s="29"/>
       <c r="J639" s="29"/>
     </row>
-    <row r="640" spans="2:10">
+    <row r="640" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B640" s="7"/>
       <c r="C640" s="7"/>
       <c r="D640" s="7"/>
@@ -17087,7 +17117,7 @@
       <c r="I640" s="29"/>
       <c r="J640" s="29"/>
     </row>
-    <row r="641" spans="2:10">
+    <row r="641" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B641" s="7"/>
       <c r="C641" s="7"/>
       <c r="D641" s="7"/>
@@ -17098,7 +17128,7 @@
       <c r="I641" s="29"/>
       <c r="J641" s="29"/>
     </row>
-    <row r="642" spans="2:10">
+    <row r="642" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B642" s="7"/>
       <c r="C642" s="7"/>
       <c r="D642" s="7"/>
@@ -17109,7 +17139,7 @@
       <c r="I642" s="29"/>
       <c r="J642" s="29"/>
     </row>
-    <row r="643" spans="2:10">
+    <row r="643" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B643" s="7"/>
       <c r="C643" s="7"/>
       <c r="D643" s="7"/>
@@ -17120,7 +17150,7 @@
       <c r="I643" s="29"/>
       <c r="J643" s="29"/>
     </row>
-    <row r="644" spans="2:10">
+    <row r="644" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B644" s="7"/>
       <c r="C644" s="7"/>
       <c r="D644" s="7"/>
@@ -17131,7 +17161,7 @@
       <c r="I644" s="29"/>
       <c r="J644" s="29"/>
     </row>
-    <row r="645" spans="2:10">
+    <row r="645" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B645" s="7"/>
       <c r="C645" s="7"/>
       <c r="D645" s="7"/>
@@ -17142,7 +17172,7 @@
       <c r="I645" s="29"/>
       <c r="J645" s="29"/>
     </row>
-    <row r="646" spans="2:10">
+    <row r="646" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B646" s="7"/>
       <c r="C646" s="7"/>
       <c r="D646" s="7"/>
@@ -17153,7 +17183,7 @@
       <c r="I646" s="29"/>
       <c r="J646" s="29"/>
     </row>
-    <row r="647" spans="2:10">
+    <row r="647" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B647" s="7"/>
       <c r="C647" s="7"/>
       <c r="D647" s="7"/>
@@ -17164,7 +17194,7 @@
       <c r="I647" s="29"/>
       <c r="J647" s="29"/>
     </row>
-    <row r="648" spans="2:10">
+    <row r="648" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B648" s="7"/>
       <c r="C648" s="7"/>
       <c r="D648" s="7"/>
@@ -17175,7 +17205,7 @@
       <c r="I648" s="29"/>
       <c r="J648" s="29"/>
     </row>
-    <row r="649" spans="2:10">
+    <row r="649" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B649" s="7"/>
       <c r="C649" s="7"/>
       <c r="D649" s="7"/>
@@ -17186,7 +17216,7 @@
       <c r="I649" s="29"/>
       <c r="J649" s="29"/>
     </row>
-    <row r="650" spans="2:10">
+    <row r="650" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B650" s="7"/>
       <c r="C650" s="7"/>
       <c r="D650" s="7"/>
@@ -17197,7 +17227,7 @@
       <c r="I650" s="29"/>
       <c r="J650" s="29"/>
     </row>
-    <row r="651" spans="2:10">
+    <row r="651" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B651" s="7"/>
       <c r="C651" s="7"/>
       <c r="D651" s="7"/>
@@ -17208,7 +17238,7 @@
       <c r="I651" s="29"/>
       <c r="J651" s="29"/>
     </row>
-    <row r="652" spans="2:10">
+    <row r="652" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B652" s="7"/>
       <c r="C652" s="7"/>
       <c r="D652" s="7"/>
@@ -17219,7 +17249,7 @@
       <c r="I652" s="29"/>
       <c r="J652" s="29"/>
     </row>
-    <row r="653" spans="2:10">
+    <row r="653" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B653" s="7"/>
       <c r="C653" s="7"/>
       <c r="D653" s="7"/>
@@ -17230,7 +17260,7 @@
       <c r="I653" s="29"/>
       <c r="J653" s="29"/>
     </row>
-    <row r="654" spans="2:10">
+    <row r="654" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B654" s="7"/>
       <c r="C654" s="7"/>
       <c r="D654" s="7"/>
@@ -17241,7 +17271,7 @@
       <c r="I654" s="29"/>
       <c r="J654" s="29"/>
     </row>
-    <row r="655" spans="2:10">
+    <row r="655" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B655" s="7"/>
       <c r="C655" s="7"/>
       <c r="D655" s="7"/>
@@ -17252,7 +17282,7 @@
       <c r="I655" s="29"/>
       <c r="J655" s="29"/>
     </row>
-    <row r="656" spans="2:10">
+    <row r="656" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B656" s="7"/>
       <c r="C656" s="7"/>
       <c r="D656" s="7"/>
@@ -17263,7 +17293,7 @@
       <c r="I656" s="29"/>
       <c r="J656" s="29"/>
     </row>
-    <row r="657" spans="2:10">
+    <row r="657" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B657" s="7"/>
       <c r="C657" s="7"/>
       <c r="D657" s="7"/>
@@ -17274,7 +17304,7 @@
       <c r="I657" s="29"/>
       <c r="J657" s="29"/>
     </row>
-    <row r="658" spans="2:10">
+    <row r="658" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B658" s="7"/>
       <c r="C658" s="7"/>
       <c r="D658" s="7"/>
@@ -17285,7 +17315,7 @@
       <c r="I658" s="29"/>
       <c r="J658" s="29"/>
     </row>
-    <row r="659" spans="2:10">
+    <row r="659" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B659" s="7"/>
       <c r="C659" s="7"/>
       <c r="D659" s="7"/>
@@ -17296,7 +17326,7 @@
       <c r="I659" s="29"/>
       <c r="J659" s="29"/>
     </row>
-    <row r="660" spans="2:10">
+    <row r="660" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B660" s="7"/>
       <c r="C660" s="7"/>
       <c r="D660" s="7"/>
@@ -17307,7 +17337,7 @@
       <c r="I660" s="29"/>
       <c r="J660" s="29"/>
     </row>
-    <row r="661" spans="2:10">
+    <row r="661" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B661" s="7"/>
       <c r="C661" s="7"/>
       <c r="D661" s="7"/>
@@ -17318,7 +17348,7 @@
       <c r="I661" s="29"/>
       <c r="J661" s="29"/>
     </row>
-    <row r="662" spans="2:10">
+    <row r="662" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B662" s="7"/>
       <c r="C662" s="7"/>
       <c r="D662" s="7"/>
@@ -17329,7 +17359,7 @@
       <c r="I662" s="29"/>
       <c r="J662" s="29"/>
     </row>
-    <row r="663" spans="2:10">
+    <row r="663" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B663" s="7"/>
       <c r="C663" s="7"/>
       <c r="D663" s="7"/>
@@ -17340,7 +17370,7 @@
       <c r="I663" s="29"/>
       <c r="J663" s="29"/>
     </row>
-    <row r="664" spans="2:10">
+    <row r="664" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B664" s="7"/>
       <c r="C664" s="7"/>
       <c r="D664" s="7"/>
@@ -17351,7 +17381,7 @@
       <c r="I664" s="29"/>
       <c r="J664" s="29"/>
     </row>
-    <row r="665" spans="2:10">
+    <row r="665" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B665" s="7"/>
       <c r="C665" s="7"/>
       <c r="D665" s="7"/>
@@ -17362,7 +17392,7 @@
       <c r="I665" s="29"/>
       <c r="J665" s="29"/>
     </row>
-    <row r="666" spans="2:10">
+    <row r="666" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B666" s="7"/>
       <c r="C666" s="7"/>
       <c r="D666" s="7"/>
@@ -17373,7 +17403,7 @@
       <c r="I666" s="29"/>
       <c r="J666" s="29"/>
     </row>
-    <row r="667" spans="2:10">
+    <row r="667" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B667" s="7"/>
       <c r="C667" s="7"/>
       <c r="D667" s="7"/>
@@ -17384,7 +17414,7 @@
       <c r="I667" s="29"/>
       <c r="J667" s="29"/>
     </row>
-    <row r="668" spans="2:10">
+    <row r="668" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B668" s="7"/>
       <c r="C668" s="7"/>
       <c r="D668" s="7"/>
@@ -17395,7 +17425,7 @@
       <c r="I668" s="29"/>
       <c r="J668" s="29"/>
     </row>
-    <row r="669" spans="2:10">
+    <row r="669" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B669" s="7"/>
       <c r="C669" s="7"/>
       <c r="D669" s="7"/>
@@ -17406,7 +17436,7 @@
       <c r="I669" s="29"/>
       <c r="J669" s="29"/>
     </row>
-    <row r="670" spans="2:10">
+    <row r="670" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B670" s="7"/>
       <c r="C670" s="7"/>
       <c r="D670" s="7"/>
@@ -17417,7 +17447,7 @@
       <c r="I670" s="29"/>
       <c r="J670" s="29"/>
     </row>
-    <row r="671" spans="2:10">
+    <row r="671" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B671" s="7"/>
       <c r="C671" s="7"/>
       <c r="D671" s="7"/>
@@ -17428,7 +17458,7 @@
       <c r="I671" s="29"/>
       <c r="J671" s="29"/>
     </row>
-    <row r="672" spans="2:10">
+    <row r="672" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B672" s="7"/>
       <c r="C672" s="7"/>
       <c r="D672" s="7"/>
@@ -17439,7 +17469,7 @@
       <c r="I672" s="29"/>
       <c r="J672" s="29"/>
     </row>
-    <row r="673" spans="2:10">
+    <row r="673" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B673" s="7"/>
       <c r="C673" s="7"/>
       <c r="D673" s="7"/>
@@ -17450,7 +17480,7 @@
       <c r="I673" s="29"/>
       <c r="J673" s="29"/>
     </row>
-    <row r="674" spans="2:10">
+    <row r="674" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B674" s="7"/>
       <c r="C674" s="7"/>
       <c r="D674" s="7"/>
@@ -17461,7 +17491,7 @@
       <c r="I674" s="29"/>
       <c r="J674" s="29"/>
     </row>
-    <row r="675" spans="2:10">
+    <row r="675" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B675" s="7"/>
       <c r="C675" s="7"/>
       <c r="D675" s="7"/>
@@ -17472,7 +17502,7 @@
       <c r="I675" s="29"/>
       <c r="J675" s="29"/>
     </row>
-    <row r="676" spans="2:10">
+    <row r="676" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B676" s="7"/>
       <c r="C676" s="7"/>
       <c r="D676" s="7"/>
@@ -17483,7 +17513,7 @@
       <c r="I676" s="29"/>
       <c r="J676" s="29"/>
     </row>
-    <row r="677" spans="2:10">
+    <row r="677" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B677" s="7"/>
       <c r="C677" s="7"/>
       <c r="D677" s="7"/>
@@ -17494,7 +17524,7 @@
       <c r="I677" s="29"/>
       <c r="J677" s="29"/>
     </row>
-    <row r="678" spans="2:10">
+    <row r="678" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B678" s="7"/>
       <c r="C678" s="7"/>
       <c r="D678" s="7"/>
@@ -17505,7 +17535,7 @@
       <c r="I678" s="29"/>
       <c r="J678" s="29"/>
     </row>
-    <row r="679" spans="2:10">
+    <row r="679" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B679" s="7"/>
       <c r="C679" s="7"/>
       <c r="D679" s="7"/>
@@ -17516,7 +17546,7 @@
       <c r="I679" s="29"/>
       <c r="J679" s="29"/>
     </row>
-    <row r="680" spans="2:10">
+    <row r="680" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B680" s="7"/>
       <c r="C680" s="7"/>
       <c r="D680" s="7"/>
@@ -17527,7 +17557,7 @@
       <c r="I680" s="29"/>
       <c r="J680" s="29"/>
     </row>
-    <row r="681" spans="2:10">
+    <row r="681" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B681" s="7"/>
       <c r="C681" s="7"/>
       <c r="D681" s="7"/>
@@ -17538,7 +17568,7 @@
       <c r="I681" s="29"/>
       <c r="J681" s="29"/>
     </row>
-    <row r="682" spans="2:10">
+    <row r="682" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B682" s="7"/>
       <c r="C682" s="7"/>
       <c r="D682" s="7"/>
@@ -17549,7 +17579,7 @@
       <c r="I682" s="29"/>
       <c r="J682" s="29"/>
     </row>
-    <row r="683" spans="2:10">
+    <row r="683" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B683" s="7"/>
       <c r="C683" s="7"/>
       <c r="D683" s="7"/>
@@ -17560,7 +17590,7 @@
       <c r="I683" s="29"/>
       <c r="J683" s="29"/>
     </row>
-    <row r="684" spans="2:10">
+    <row r="684" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B684" s="7"/>
       <c r="C684" s="7"/>
       <c r="D684" s="7"/>
@@ -17571,7 +17601,7 @@
       <c r="I684" s="29"/>
       <c r="J684" s="29"/>
     </row>
-    <row r="685" spans="2:10">
+    <row r="685" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B685" s="7"/>
       <c r="C685" s="7"/>
       <c r="D685" s="7"/>
@@ -17582,7 +17612,7 @@
       <c r="I685" s="29"/>
       <c r="J685" s="29"/>
     </row>
-    <row r="686" spans="2:10">
+    <row r="686" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B686" s="7"/>
       <c r="C686" s="7"/>
       <c r="D686" s="7"/>
@@ -17593,7 +17623,7 @@
       <c r="I686" s="29"/>
       <c r="J686" s="29"/>
     </row>
-    <row r="687" spans="2:10">
+    <row r="687" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B687" s="7"/>
       <c r="C687" s="7"/>
       <c r="D687" s="7"/>
@@ -17604,7 +17634,7 @@
       <c r="I687" s="29"/>
       <c r="J687" s="29"/>
     </row>
-    <row r="688" spans="2:10">
+    <row r="688" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B688" s="7"/>
       <c r="C688" s="7"/>
       <c r="D688" s="7"/>
@@ -17615,7 +17645,7 @@
       <c r="I688" s="29"/>
       <c r="J688" s="29"/>
     </row>
-    <row r="689" spans="2:10">
+    <row r="689" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B689" s="7"/>
       <c r="C689" s="7"/>
       <c r="D689" s="7"/>
@@ -17626,7 +17656,7 @@
       <c r="I689" s="29"/>
       <c r="J689" s="29"/>
     </row>
-    <row r="690" spans="2:10">
+    <row r="690" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B690" s="7"/>
       <c r="C690" s="7"/>
       <c r="D690" s="7"/>
@@ -17637,7 +17667,7 @@
       <c r="I690" s="29"/>
       <c r="J690" s="29"/>
     </row>
-    <row r="691" spans="2:10">
+    <row r="691" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B691" s="7"/>
       <c r="C691" s="7"/>
       <c r="D691" s="7"/>
@@ -17648,7 +17678,7 @@
       <c r="I691" s="29"/>
       <c r="J691" s="29"/>
     </row>
-    <row r="692" spans="2:10">
+    <row r="692" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B692" s="7"/>
       <c r="C692" s="7"/>
       <c r="D692" s="7"/>
@@ -17659,7 +17689,7 @@
       <c r="I692" s="29"/>
       <c r="J692" s="29"/>
     </row>
-    <row r="693" spans="2:10">
+    <row r="693" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B693" s="7"/>
       <c r="C693" s="7"/>
       <c r="D693" s="7"/>
@@ -17670,7 +17700,7 @@
       <c r="I693" s="29"/>
       <c r="J693" s="29"/>
     </row>
-    <row r="694" spans="2:10">
+    <row r="694" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B694" s="7"/>
       <c r="C694" s="7"/>
       <c r="D694" s="7"/>
@@ -17681,7 +17711,7 @@
       <c r="I694" s="29"/>
       <c r="J694" s="29"/>
     </row>
-    <row r="695" spans="2:10">
+    <row r="695" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B695" s="7"/>
       <c r="C695" s="7"/>
       <c r="D695" s="7"/>
@@ -17692,7 +17722,7 @@
       <c r="I695" s="29"/>
       <c r="J695" s="29"/>
     </row>
-    <row r="696" spans="2:10">
+    <row r="696" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B696" s="7"/>
       <c r="C696" s="7"/>
       <c r="D696" s="7"/>
@@ -17703,7 +17733,7 @@
       <c r="I696" s="29"/>
       <c r="J696" s="29"/>
     </row>
-    <row r="697" spans="2:10">
+    <row r="697" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B697" s="7"/>
       <c r="C697" s="7"/>
       <c r="D697" s="7"/>
@@ -17714,7 +17744,7 @@
       <c r="I697" s="29"/>
       <c r="J697" s="29"/>
     </row>
-    <row r="698" spans="2:10">
+    <row r="698" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B698" s="7"/>
       <c r="C698" s="7"/>
       <c r="D698" s="7"/>
@@ -17725,7 +17755,7 @@
       <c r="I698" s="29"/>
       <c r="J698" s="29"/>
     </row>
-    <row r="699" spans="2:10">
+    <row r="699" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B699" s="7"/>
       <c r="C699" s="7"/>
       <c r="D699" s="7"/>
@@ -17736,7 +17766,7 @@
       <c r="I699" s="29"/>
       <c r="J699" s="29"/>
     </row>
-    <row r="700" spans="2:10">
+    <row r="700" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B700" s="7"/>
       <c r="C700" s="7"/>
       <c r="D700" s="7"/>
@@ -17747,7 +17777,7 @@
       <c r="I700" s="29"/>
       <c r="J700" s="29"/>
     </row>
-    <row r="701" spans="2:10">
+    <row r="701" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B701" s="7"/>
       <c r="C701" s="7"/>
       <c r="D701" s="7"/>
@@ -17758,7 +17788,7 @@
       <c r="I701" s="29"/>
       <c r="J701" s="29"/>
     </row>
-    <row r="702" spans="2:10">
+    <row r="702" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B702" s="7"/>
       <c r="C702" s="7"/>
       <c r="D702" s="7"/>
@@ -17769,7 +17799,7 @@
       <c r="I702" s="29"/>
       <c r="J702" s="29"/>
     </row>
-    <row r="703" spans="2:10">
+    <row r="703" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F703" s="7"/>
       <c r="G703" s="7"/>
       <c r="H703" s="29"/>
@@ -17791,7 +17821,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="43.90625"/>
     <col min="2" max="2" customWidth="true" width="60.26953125"/>
@@ -17800,7 +17830,7 @@
     <col min="5" max="5" customWidth="true" width="60.26953125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="48" customHeight="1">
+    <row r="1" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -17817,7 +17847,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="99.5" customHeight="1">
+    <row r="2" spans="1:5" ht="99.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>267</v>
       </c>
@@ -17834,7 +17864,7 @@
         <v>4988584</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="110" customHeight="1">
+    <row r="3" spans="1:5" ht="110" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>267</v>
       </c>
@@ -17849,7 +17879,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="140" customHeight="1">
+    <row r="4" spans="1:5" ht="140" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>267</v>
       </c>
@@ -17866,7 +17896,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="92.5" customHeight="1">
+    <row r="5" spans="1:5" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>270</v>
       </c>
@@ -17883,7 +17913,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="115" customHeight="1">
+    <row r="6" spans="1:5" ht="115" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>278</v>
       </c>
@@ -17900,7 +17930,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="117.5" customHeight="1">
+    <row r="7" spans="1:5" ht="117.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>282</v>
       </c>
@@ -17917,7 +17947,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="116.5" customHeight="1">
+    <row r="8" spans="1:5" ht="116.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>285</v>
       </c>
@@ -17934,7 +17964,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="90" customHeight="1">
+    <row r="9" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>285</v>
       </c>
@@ -17951,7 +17981,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="101" customHeight="1">
+    <row r="10" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>292</v>
       </c>
@@ -17968,7 +17998,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="108.5" customHeight="1">
+    <row r="11" spans="1:5" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>294</v>
       </c>
@@ -17985,7 +18015,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="98.5" customHeight="1">
+    <row r="12" spans="1:5" ht="98.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>296</v>
       </c>
@@ -18002,7 +18032,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="98.5" customHeight="1">
+    <row r="13" spans="1:5" ht="98.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>301</v>
       </c>
@@ -18019,7 +18049,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="107.5" customHeight="1">
+    <row r="14" spans="1:5" ht="107.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>305</v>
       </c>
@@ -18036,7 +18066,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="122" customHeight="1">
+    <row r="15" spans="1:5" ht="122" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>309</v>
       </c>
@@ -18053,7 +18083,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="115" customHeight="1">
+    <row r="16" spans="1:5" ht="115" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>318</v>
       </c>
@@ -18070,7 +18100,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="106.5" customHeight="1">
+    <row r="17" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>318</v>
       </c>
@@ -18085,7 +18115,7 @@
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="126.5" customHeight="1">
+    <row r="18" spans="1:5" ht="126.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>324</v>
       </c>
@@ -18102,7 +18132,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="98" customHeight="1">
+    <row r="19" spans="1:5" ht="98" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>327</v>
       </c>
@@ -18119,7 +18149,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="93" customHeight="1">
+    <row r="20" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>331</v>
       </c>
@@ -18136,7 +18166,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="99.5" customHeight="1">
+    <row r="21" spans="1:5" ht="99.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>335</v>
       </c>
@@ -18153,7 +18183,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="83" customHeight="1">
+    <row r="22" spans="1:5" ht="83" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>339</v>
       </c>
@@ -18170,7 +18200,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="112.5" customHeight="1">
+    <row r="23" spans="1:5" ht="112.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>343</v>
       </c>
@@ -18187,7 +18217,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="98.5" customHeight="1">
+    <row r="24" spans="1:5" ht="98.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>343</v>
       </c>
@@ -18204,7 +18234,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="128" customHeight="1">
+    <row r="25" spans="1:5" ht="128" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>349</v>
       </c>
@@ -18221,7 +18251,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="110" customHeight="1">
+    <row r="26" spans="1:5" ht="110" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>353</v>
       </c>
@@ -18236,7 +18266,7 @@
       </c>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:5" ht="125.5" customHeight="1">
+    <row r="27" spans="1:5" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>353</v>
       </c>
@@ -18253,7 +18283,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="100" customHeight="1">
+    <row r="28" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>353</v>
       </c>
@@ -18270,7 +18300,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="84" customHeight="1">
+    <row r="29" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>362</v>
       </c>
@@ -18285,7 +18315,7 @@
       </c>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:5" ht="79.5" customHeight="1">
+    <row r="30" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>362</v>
       </c>
@@ -18302,7 +18332,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="113" customHeight="1">
+    <row r="31" spans="1:5" ht="113" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>362</v>
       </c>
@@ -18317,7 +18347,7 @@
       </c>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5" ht="91.5" customHeight="1">
+    <row r="32" spans="1:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>370</v>
       </c>
@@ -18334,7 +18364,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="97.5" customHeight="1">
+    <row r="33" spans="1:5" ht="97.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>370</v>
       </c>
@@ -18351,7 +18381,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="88.5" customHeight="1">
+    <row r="34" spans="1:5" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>376</v>
       </c>
@@ -18368,7 +18398,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="104.5" customHeight="1">
+    <row r="35" spans="1:5" ht="104.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>380</v>
       </c>
@@ -18383,7 +18413,7 @@
       </c>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:5" ht="109.5" customHeight="1">
+    <row r="36" spans="1:5" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>380</v>
       </c>
@@ -18398,7 +18428,7 @@
       </c>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:5" ht="116.5" customHeight="1">
+    <row r="37" spans="1:5" ht="116.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>380</v>
       </c>
@@ -18413,7 +18443,7 @@
       </c>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="1:5" ht="102" customHeight="1">
+    <row r="38" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>380</v>
       </c>
@@ -18428,7 +18458,7 @@
       </c>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:5" ht="100.5" customHeight="1">
+    <row r="39" spans="1:5" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>380</v>
       </c>
@@ -18443,7 +18473,7 @@
       </c>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:5" ht="104.5" customHeight="1">
+    <row r="40" spans="1:5" ht="104.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>388</v>
       </c>
@@ -18458,7 +18488,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="109" customHeight="1">
+    <row r="41" spans="1:5" ht="109" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>390</v>
       </c>
@@ -18473,7 +18503,7 @@
       </c>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5" ht="120" customHeight="1">
+    <row r="42" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>393</v>
       </c>
@@ -18490,7 +18520,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="127.5" customHeight="1">
+    <row r="43" spans="1:5" ht="127.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>396</v>
       </c>
@@ -18505,7 +18535,7 @@
       </c>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:5" ht="97" customHeight="1">
+    <row r="44" spans="1:5" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>398</v>
       </c>
@@ -18522,7 +18552,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="105.5" customHeight="1">
+    <row r="45" spans="1:5" ht="105.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>401</v>
       </c>
@@ -18537,7 +18567,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="115" customHeight="1">
+    <row r="46" spans="1:5" ht="115" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>401</v>
       </c>
@@ -18552,7 +18582,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="108.5" customHeight="1">
+    <row r="47" spans="1:5" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>401</v>
       </c>
@@ -18569,7 +18599,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="112.5" customHeight="1">
+    <row r="48" spans="1:5" ht="112.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>401</v>
       </c>
@@ -18586,7 +18616,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="88.5" customHeight="1">
+    <row r="49" spans="1:5" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>401</v>
       </c>
@@ -18603,7 +18633,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="100" customHeight="1">
+    <row r="50" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>412</v>
       </c>
@@ -18618,7 +18648,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="105.5" customHeight="1">
+    <row r="51" spans="1:5" ht="105.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>416</v>
       </c>
@@ -18635,7 +18665,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="110" customHeight="1">
+    <row r="52" spans="1:5" ht="110" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>416</v>
       </c>
@@ -18652,7 +18682,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="116" customHeight="1">
+    <row r="53" spans="1:5" ht="116" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>416</v>
       </c>
@@ -18669,7 +18699,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="93" customHeight="1">
+    <row r="54" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>425</v>
       </c>
@@ -18684,7 +18714,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="109" customHeight="1">
+    <row r="55" spans="1:5" ht="109" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>425</v>
       </c>
@@ -18701,7 +18731,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="105.5" customHeight="1">
+    <row r="56" spans="1:5" ht="105.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>425</v>
       </c>
@@ -18718,7 +18748,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="117.5" customHeight="1">
+    <row r="57" spans="1:5" ht="117.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>433</v>
       </c>
@@ -18735,7 +18765,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="115" customHeight="1">
+    <row r="58" spans="1:5" ht="115" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>436</v>
       </c>
@@ -18752,7 +18782,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="103" customHeight="1">
+    <row r="59" spans="1:5" ht="103" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>442</v>
       </c>
@@ -18769,7 +18799,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="127.5" customHeight="1">
+    <row r="60" spans="1:5" ht="127.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>442</v>
       </c>
@@ -18786,7 +18816,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="108" customHeight="1">
+    <row r="61" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>448</v>
       </c>
@@ -18803,7 +18833,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="110" customHeight="1">
+    <row r="62" spans="1:5" ht="110" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>454</v>
       </c>
@@ -18820,14 +18850,14 @@
         <v>453</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="99.5" customHeight="1">
+    <row r="63" spans="1:5" ht="99.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
     </row>
-    <row r="64" spans="1:5" ht="114.5" customHeight="1">
+    <row r="64" spans="1:5" ht="114.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>

--- a/RippleStreet_API/src/test/resources/config/CB.xlsx
+++ b/RippleStreet_API/src/test/resources/config/CB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashanthchigarer\Desktop\"/>
     </mc:Choice>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="769">
   <si>
     <t>Expected_Output</t>
   </si>
@@ -4556,24 +4556,11 @@
   <si>
     <t>getAllFeedForEvents</t>
   </si>
-  <si>
-    <t>{"count":3,"events":[{"eventData":{"id":1298,"name":"Discover Wines Aged in Spirits Barrels HP","brandName":"Robert Mondavi Private Selection","sponsorId":576,"milestoneLabel":"Applications close on","milestoneDate":"Sat Sep 23 16:29:59 GMT 2023","promotionalText":null,"categories":"Beer, wine, liquor","isChatterBox":false,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"lagunitas","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1479,"name":"Cooking HP","brandName":"Carapelli® Extra Virgin Olive Oil","sponsorId":429,"milestoneLabel":"Applications close on","milestoneDate":"Sun Jun 16 11:06:00 GMT 2024","promotionalText":null,"categories":null,"isChatterBox":false,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"cookinghp","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1496,"name":"Re1","brandName":"Beyond Meat","sponsorId":588,"milestoneLabel":"Applications close on","milestoneDate":"Thu Sep 28 02:53:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":true,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"re1","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false}]}</t>
-  </si>
-  <si>
-    <t>{"count":11,"events":[{"eventData":{"id":1298,"name":"Discover Wines Aged in Spirits Barrels HP","brandName":"Robert Mondavi Private Selection","sponsorId":576,"milestoneLabel":"Host selection by ","milestoneDate":"Sun Sep 24 11:59:59 GMT 2023","promotionalText":null,"categories":"Beer, wine, liquor","isChatterBox":false,"heroPlayList":null,"totalApplications":25,"availablePacks":0,"reviewCount":null,"reviewAverageRating":null,"slug":"lagunitas","packArrivalDate":null},"tag":null,"activities":{"total":2,"completed":0,"completionPercentage":0.0},"isBookmarked":false},{"eventData":{"id":1310,"name":"Breakfast Sausage Chatterbox​","brandName":"MORNINGSTAR FARMS®","sponsorId":116,"milestoneLabel":"Chatterbox selection by ","milestoneDate":"Tue Feb 15 23:59:59 GMT 2022","promotionalText":null,"categories":null,"isChatterBox":true,"heroPlayList":null,"totalApplications":3,"availablePacks":0,"reviewCount":null,"reviewAverageRating":null,"slug":"morningstarfarmssausagechat","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1472,"name":"Nexxus","brandName":"Blue Bunny®","sponsorId":587,"milestoneLabel":"Chatterbox selection by ","milestoneDate":"Sun Aug 20 11:02:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":true,"heroPlayList":null,"totalApplications":4,"availablePacks":0,"reviewCount":null,"reviewAverageRating":null,"slug":"nexxus2","packArrivalDate":null},"tag":null,"activities":{"total":0,"completed":0,"completionPercentage":100.0},"isBookmarked":false},{"eventData":{"id":1479,"name":"Cooking HP","brandName":"Carapelli® Extra Virgin Olive Oil","sponsorId":429,"milestoneLabel":"Host selection by ","milestoneDate":"Thu Jun 27 11:06:00 GMT 2024","promotionalText":null,"categories":null,"isChatterBox":false,"heroPlayList":null,"totalApplications":7,"availablePacks":2,"reviewCount":null,"reviewAverageRating":null,"slug":"cookinghp","packArrivalDate":null},"tag":null,"activities":{"total":0,"completed":0,"completionPercentage":100.0},"isBookmarked":false},{"eventData":{"id":1483,"name":"Ultimate Soccer Watch Party","brandName":"CHIPS AHOY!","sponsorId":349,"milestoneLabel":"Host selection by ","milestoneDate":"Fri Jul 21 23:59:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":false,"heroPlayList":null,"totalApplications":30,"availablePacks":978,"reviewCount":null,"reviewAverageRating":null,"slug":"soccer","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1487,"name":"Simply� Mixology","brandName":"SKYY","sponsorId":590,"milestoneLabel":"Chatterbox selection by ","milestoneDate":"Sat Sep 02 23:58:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":true,"heroPlayList":null,"totalApplications":5,"availablePacks":850,"reviewCount":null,"reviewAverageRating":null,"slug":"simplymixologychat","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1488,"name":"Tailgate Party&amp;#8203;","brandName":"Blue Bunny®","sponsorId":587,"milestoneLabel":"Host selection by ","milestoneDate":"Wed Sep 06 23:59:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":false,"heroPlayList":null,"totalApplications":6,"availablePacks":4465,"reviewCount":null,"reviewAverageRating":null,"slug":"tailgateparty","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1489,"name":"It's All Gravy Party","brandName":"Blue Bunny®","sponsorId":587,"milestoneLabel":"Host selection by ","milestoneDate":"Wed Aug 23 08:20:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":false,"heroPlayList":null,"totalApplications":7,"availablePacks":1384,"reviewCount":null,"reviewAverageRating":null,"slug":"itsallgravyparty","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1493,"name":"CVS Pharmacy","brandName":"SKYY","sponsorId":590,"milestoneLabel":"Chatterbox selection by ","milestoneDate":"Wed Aug 23 10:44:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":true,"heroPlayList":null,"totalApplications":7,"availablePacks":5,"reviewCount":null,"reviewAverageRating":null,"slug":"1031by","packArrivalDate":null},"tag":null,"activities":{"total":0,"completed":0,"completionPercentage":100.0},"isBookmarked":false},{"eventData":{"id":1494,"name":"Activia Probiotic Dailies ","brandName":"Beyond Meat","sponsorId":588,"milestoneLabel":"Chatterbox selection by ","milestoneDate":"Sun Nov 30 00:00:00 GMT 2","promotionalText":null,"categories":null,"isChatterBox":true,"heroPlayList":null,"totalApplications":10,"availablePacks":20,"reviewCount":null,"reviewAverageRating":null,"slug":"activiaprobioticdailies","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false}]}</t>
-  </si>
-  <si>
-    <t>{"count":11,"events":[{"eventData":{"id":1298,"name":"Discover Wines Aged in Spirits Barrels HP","brandName":"Robert Mondavi Private Selection","sponsorId":576,"milestoneLabel":"Party date ","milestoneDate":"Sun Sep 24 16:30:00 GMT 2023","promotionalText":null,"categories":"Beer, wine, liquor","isChatterBox":false,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"lagunitas","packArrivalDate":"Sun Sep 24 15:59:59 GMT 2023"},"tag":null,"activities":{"total":2,"completed":0,"completionPercentage":0.0},"isBookmarked":false},{"eventData":{"id":1310,"name":"Breakfast Sausage Chatterbox​","brandName":"MORNINGSTAR FARMS®","sponsorId":116,"milestoneLabel":"Party date ","milestoneDate":"Mon May 01 00:00:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":true,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"morningstarfarmssausagechat","packArrivalDate":"Fri Jun 30 23:59:00 GMT 2023"},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1472,"name":"Nexxus","brandName":"Blue Bunny®","sponsorId":587,"milestoneLabel":"Party date ","milestoneDate":"Mon Aug 21 11:02:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":true,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"nexxus2","packArrivalDate":"Fri Sep 01 11:02:00 GMT 2023"},"tag":null,"activities":{"total":0,"completed":0,"completionPercentage":100.0},"isBookmarked":false},{"eventData":{"id":1479,"name":"Cooking HP","brandName":"Carapelli® Extra Virgin Olive Oil","sponsorId":429,"milestoneLabel":"Party date ","milestoneDate":"Sun Jun 30 11:07:00 GMT 2024","promotionalText":null,"categories":null,"isChatterBox":false,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"cookinghp","packArrivalDate":"Sat Jun 29 11:07:00 GMT 2024"},"tag":null,"activities":{"total":0,"completed":0,"completionPercentage":100.0},"isBookmarked":false},{"eventData":{"id":1483,"name":"Ultimate Soccer Watch Party","brandName":"CHIPS AHOY!","sponsorId":349,"milestoneLabel":"Party date ","milestoneDate":"Fri Jul 21 23:59:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":false,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"soccer","packArrivalDate":"Fri Jul 21 23:59:00 GMT 2023"},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1487,"name":"Simply� Mixology","brandName":"SKYY","sponsorId":590,"milestoneLabel":"Party date ","milestoneDate":"Sun Sep 03 00:01:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":true,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"simplymixologychat","packArrivalDate":"Thu Sep 07 23:59:00 GMT 2023"},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1488,"name":"Tailgate Party&amp;#8203;","brandName":"Blue Bunny®","sponsorId":587,"milestoneLabel":"Party date ","milestoneDate":"Thu Sep 14 00:01:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":false,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"tailgateparty","packArrivalDate":"Fri Sep 08 23:58:00 GMT 2023"},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1489,"name":"It's All Gravy Party","brandName":"Blue Bunny®","sponsorId":587,"milestoneLabel":"Party date ","milestoneDate":"Wed Sep 13 00:01:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":false,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"itsallgravyparty","packArrivalDate":"Tue Aug 22 08:20:00 GMT 2023"},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1493,"name":"CVS Pharmacy","brandName":"SKYY","sponsorId":590,"milestoneLabel":"Party date ","milestoneDate":"Wed Aug 23 10:44:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":true,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"1031by","packArrivalDate":"Mon Sep 04 10:44:00 GMT 2023"},"tag":null,"activities":{"total":0,"completed":0,"completionPercentage":100.0},"isBookmarked":false},{"eventData":{"id":1494,"name":"Activia Probiotic Dailies ","brandName":"Beyond Meat","sponsorId":588,"milestoneLabel":"Party date ","milestoneDate":"Sun Nov 30 00:00:00 GMT 2","promotionalText":null,"categories":null,"isChatterBox":true,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"activiaprobioticdailies","packArrivalDate":"Sun Nov 30 00:00:00 GMT 2"},"tag":null,"activities":null,"isBookmarked":false}]}</t>
-  </si>
-  <si>
-    <t>{"count":11,"events":[{"eventData":{"id":1298,"name":"Discover Wines Aged in Spirits Barrels HP","brandName":"Robert Mondavi Private Selection","sponsorId":576,"milestoneLabel":"Applications close on","milestoneDate":"Sat Sep 23 16:29:59 GMT 2023","promotionalText":null,"categories":"Beer, wine, liquor","isChatterBox":false,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"lagunitas","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1310,"name":"Breakfast Sausage Chatterbox​","brandName":"MORNINGSTAR FARMS®","sponsorId":116,"milestoneLabel":"This Event ended on","milestoneDate":"Sat Nov 04 15:29:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":true,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"morningstarfarmssausagechat","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1472,"name":"Nexxus","brandName":"Blue Bunny®","sponsorId":587,"milestoneLabel":"Experiencing until","milestoneDate":"Sun Sep 10 11:03:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":true,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"nexxus2","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1479,"name":"Cooking HP","brandName":"Carapelli® Extra Virgin Olive Oil","sponsorId":429,"milestoneLabel":"Applications close on","milestoneDate":"Sun Jun 16 11:06:00 GMT 2024","promotionalText":null,"categories":null,"isChatterBox":false,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"cookinghp","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1483,"name":"Ultimate Soccer Watch Party","brandName":"CHIPS AHOY!","sponsorId":349,"milestoneLabel":"Experiencing until","milestoneDate":"Mon Sep 18 23:59:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":false,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"soccer","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1487,"name":"Simply� Mixology","brandName":"SKYY","sponsorId":590,"milestoneLabel":"Selections close on","milestoneDate":"Fri Sep 01 23:59:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":true,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"simplymixologychat","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1488,"name":"Tailgate Party&amp;#8203;","brandName":"Blue Bunny®","sponsorId":587,"milestoneLabel":"Selections close on","milestoneDate":"Wed Sep 06 23:59:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":false,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"tailgateparty","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1489,"name":"It's All Gravy Party","brandName":"Blue Bunny®","sponsorId":587,"milestoneLabel":"Experiencing until","milestoneDate":"Mon Sep 25 10:47:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":false,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"itsallgravyparty","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1493,"name":"CVS Pharmacy","brandName":"SKYY","sponsorId":590,"milestoneLabel":"Experiencing until","milestoneDate":"Mon Sep 04 10:44:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":true,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"1031by","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false},{"eventData":{"id":1494,"name":"Activia Probiotic Dailies ","brandName":"Beyond Meat","sponsorId":588,"milestoneLabel":"This Event ended on","milestoneDate":"Mon Sep 04 11:07:00 GMT 2023","promotionalText":null,"categories":null,"isChatterBox":true,"heroPlayList":null,"totalApplications":null,"availablePacks":null,"reviewCount":null,"reviewAverageRating":null,"slug":"activiaprobioticdailies","packArrivalDate":null},"tag":null,"activities":null,"isBookmarked":false}]}</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5094,12 +5081,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="47.453125"/>
-    <col min="2" max="2" customWidth="true" width="44.453125"/>
-    <col min="3" max="4" customWidth="true" width="54.81640625"/>
-    <col min="5" max="5" customWidth="true" width="46.36328125"/>
-    <col min="6" max="6" customWidth="true" width="32.0"/>
-    <col min="7" max="7" customWidth="true" width="64.81640625"/>
+    <col min="1" max="1" width="47.453125" customWidth="1"/>
+    <col min="2" max="2" width="44.453125" customWidth="1"/>
+    <col min="3" max="4" width="54.81640625" customWidth="1"/>
+    <col min="5" max="5" width="46.36328125" customWidth="1"/>
+    <col min="6" max="6" width="32" customWidth="1"/>
+    <col min="7" max="7" width="64.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="49" customHeight="1" x14ac:dyDescent="0.35">
@@ -13654,8 +13641,8 @@
         <v>640</v>
       </c>
       <c r="E381" s="24"/>
-      <c r="F381" s="7" t="n">
-        <v>200.0</v>
+      <c r="F381" s="7">
+        <v>200</v>
       </c>
       <c r="G381" s="7" t="s">
         <v>755</v>
@@ -13678,8 +13665,8 @@
         <v>640</v>
       </c>
       <c r="E382" s="24"/>
-      <c r="F382" s="7" t="n">
-        <v>200.0</v>
+      <c r="F382" s="7">
+        <v>200</v>
       </c>
       <c r="G382" s="7" t="s">
         <v>755</v>
@@ -13702,8 +13689,8 @@
         <v>598</v>
       </c>
       <c r="E383" s="24"/>
-      <c r="F383" s="7" t="n">
-        <v>200.0</v>
+      <c r="F383" s="7">
+        <v>200</v>
       </c>
       <c r="G383" s="7" t="s">
         <v>755</v>
@@ -13726,8 +13713,8 @@
         <v>741</v>
       </c>
       <c r="E384" s="24"/>
-      <c r="F384" s="7" t="n">
-        <v>200.0</v>
+      <c r="F384" s="7">
+        <v>200</v>
       </c>
       <c r="G384" s="7" t="s">
         <v>757</v>
@@ -13750,8 +13737,8 @@
         <v>640</v>
       </c>
       <c r="E385" s="24"/>
-      <c r="F385" s="7" t="n">
-        <v>200.0</v>
+      <c r="F385" s="7">
+        <v>200</v>
       </c>
       <c r="G385" s="7" t="s">
         <v>755</v>
@@ -13774,8 +13761,8 @@
         <v>742</v>
       </c>
       <c r="E386" s="24"/>
-      <c r="F386" s="7" t="n">
-        <v>200.0</v>
+      <c r="F386" s="7">
+        <v>200</v>
       </c>
       <c r="G386" s="7" t="s">
         <v>757</v>
@@ -13798,8 +13785,8 @@
         <v>743</v>
       </c>
       <c r="E387" s="24"/>
-      <c r="F387" s="7" t="n">
-        <v>200.0</v>
+      <c r="F387" s="7">
+        <v>200</v>
       </c>
       <c r="G387" s="7" t="s">
         <v>757</v>
@@ -13822,8 +13809,8 @@
         <v>744</v>
       </c>
       <c r="E388" s="24"/>
-      <c r="F388" s="7" t="n">
-        <v>200.0</v>
+      <c r="F388" s="7">
+        <v>200</v>
       </c>
       <c r="G388" s="7" t="s">
         <v>757</v>
@@ -13846,8 +13833,8 @@
         <v>682</v>
       </c>
       <c r="E389" s="24"/>
-      <c r="F389" s="7" t="n">
-        <v>200.0</v>
+      <c r="F389" s="7">
+        <v>200</v>
       </c>
       <c r="G389" s="7" t="s">
         <v>755</v>
@@ -13870,8 +13857,8 @@
         <v>640</v>
       </c>
       <c r="E390" s="24"/>
-      <c r="F390" s="7" t="n">
-        <v>200.0</v>
+      <c r="F390" s="7">
+        <v>200</v>
       </c>
       <c r="G390" s="7" t="s">
         <v>755</v>
@@ -13894,8 +13881,8 @@
         <v>745</v>
       </c>
       <c r="E391" s="24"/>
-      <c r="F391" s="7" t="n">
-        <v>200.0</v>
+      <c r="F391" s="7">
+        <v>200</v>
       </c>
       <c r="G391" s="7" t="s">
         <v>757</v>
@@ -13918,8 +13905,8 @@
         <v>640</v>
       </c>
       <c r="E392" s="24"/>
-      <c r="F392" s="7" t="n">
-        <v>200.0</v>
+      <c r="F392" s="7">
+        <v>200</v>
       </c>
       <c r="G392" s="7" t="s">
         <v>755</v>
@@ -13942,8 +13929,8 @@
         <v>640</v>
       </c>
       <c r="E393" s="24"/>
-      <c r="F393" s="7" t="n">
-        <v>200.0</v>
+      <c r="F393" s="7">
+        <v>200</v>
       </c>
       <c r="G393" s="7" t="s">
         <v>755</v>
@@ -13966,8 +13953,8 @@
         <v>746</v>
       </c>
       <c r="E394" s="24"/>
-      <c r="F394" s="7" t="n">
-        <v>200.0</v>
+      <c r="F394" s="7">
+        <v>200</v>
       </c>
       <c r="G394" s="7" t="s">
         <v>757</v>
@@ -13990,8 +13977,8 @@
         <v>640</v>
       </c>
       <c r="E395" s="24"/>
-      <c r="F395" s="7" t="n">
-        <v>200.0</v>
+      <c r="F395" s="7">
+        <v>200</v>
       </c>
       <c r="G395" s="7" t="s">
         <v>755</v>
@@ -14014,8 +14001,8 @@
         <v>640</v>
       </c>
       <c r="E396" s="24"/>
-      <c r="F396" s="7" t="n">
-        <v>200.0</v>
+      <c r="F396" s="7">
+        <v>200</v>
       </c>
       <c r="G396" s="7" t="s">
         <v>755</v>
@@ -14241,11 +14228,11 @@
         <v>667</v>
       </c>
       <c r="D407" s="5" t="s">
-        <v>769</v>
+        <v>727</v>
       </c>
       <c r="E407" s="24"/>
-      <c r="F407" s="7" t="n">
-        <v>200.0</v>
+      <c r="F407" s="7">
+        <v>200</v>
       </c>
       <c r="G407" s="7" t="s">
         <v>757</v>
@@ -14265,11 +14252,11 @@
         <v>692</v>
       </c>
       <c r="D408" s="5" t="s">
-        <v>770</v>
+        <v>750</v>
       </c>
       <c r="E408" s="24"/>
-      <c r="F408" s="7" t="n">
-        <v>200.0</v>
+      <c r="F408" s="7">
+        <v>200</v>
       </c>
       <c r="G408" s="7" t="s">
         <v>757</v>
@@ -14289,11 +14276,11 @@
         <v>693</v>
       </c>
       <c r="D409" s="5" t="s">
-        <v>771</v>
+        <v>751</v>
       </c>
       <c r="E409" s="24"/>
-      <c r="F409" s="7" t="n">
-        <v>200.0</v>
+      <c r="F409" s="7">
+        <v>200</v>
       </c>
       <c r="G409" s="7" t="s">
         <v>757</v>
@@ -14313,11 +14300,11 @@
         <v>694</v>
       </c>
       <c r="D410" s="5" t="s">
-        <v>772</v>
+        <v>752</v>
       </c>
       <c r="E410" s="24"/>
-      <c r="F410" s="7" t="n">
-        <v>200.0</v>
+      <c r="F410" s="7">
+        <v>200</v>
       </c>
       <c r="G410" s="7" t="s">
         <v>757</v>
@@ -14337,11 +14324,11 @@
         <v>694</v>
       </c>
       <c r="D411" s="5" t="s">
-        <v>772</v>
+        <v>752</v>
       </c>
       <c r="E411" s="24"/>
-      <c r="F411" s="7" t="n">
-        <v>200.0</v>
+      <c r="F411" s="7">
+        <v>200</v>
       </c>
       <c r="G411" s="7" t="s">
         <v>757</v>
@@ -17823,11 +17810,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="43.90625"/>
-    <col min="2" max="2" customWidth="true" width="60.26953125"/>
-    <col min="3" max="3" customWidth="true" width="58.90625"/>
-    <col min="4" max="4" customWidth="true" width="75.08984375"/>
-    <col min="5" max="5" customWidth="true" width="60.26953125"/>
+    <col min="1" max="1" width="43.90625" customWidth="1"/>
+    <col min="2" max="2" width="60.26953125" customWidth="1"/>
+    <col min="3" max="3" width="58.90625" customWidth="1"/>
+    <col min="4" max="4" width="75.08984375" customWidth="1"/>
+    <col min="5" max="5" width="60.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.35">

--- a/RippleStreet_API/src/test/resources/config/CB.xlsx
+++ b/RippleStreet_API/src/test/resources/config/CB.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashanthchigarer\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A2EC02-0AC3-4394-9C28-7F0B0ED5B192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F09F0A-6317-45A0-A5ED-7231E8EBAE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{76379156-385B-4CE0-9353-DC164ABCD207}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="794">
   <si>
     <t>Expected_Output</t>
   </si>
@@ -4556,11 +4556,87 @@
   <si>
     <t>getAllFeedForEvents</t>
   </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>{"timestamp":1693816568494,"status":500,"error":"Internal Server Error","path":"/event/events/bookmark/1485"}</t>
+  </si>
+  <si>
+    <t>{"endpoint":"/invoke/event-campaign-manager/v1/campaign/filter","page":1,"size":10,"offset":null,"filters":[{"field":"campaignId","label":"campaign Id","dataType":"INTEGER","type":"INPUT","options":[],"required":false,"value":null,"multiSelect":false},{"field":"campaignName","label":"campaign Name","dataType":"STRING","type":"INPUT","options":[],"required":false,"value":null,"multiSelect":false},{"field":"sponsorName","label":"sponsor Name","dataType":"STRING","type":"INPUT","options":[],"required":false,"value":null,"multiSelect":false}],"sort":[{"field":"campaignId","order":"DESC"}]}</t>
+  </si>
+  <si>
+    <t>{"endpoint":"/invoke/event-campaign-manager/v1/sponsor/filter","page":1,"size":10,"offset":null,"filters":[{"field":"sponsorId","label":"sponsor Id","dataType":"INTEGER","type":"INPUT","options":[],"required":false,"value":null,"multiSelect":false},{"field":"sponsorName","label":"sponsor Name","dataType":"STRING","type":"INPUT","options":[],"required":false,"value":null,"multiSelect":false},{"field":"slug","label":"slug","dataType":"STRING","type":"INPUT","options":[],"required":false,"value":null,"multiSelect":false},{"field":"isDeleted","label":"isDeleted","dataType":"BOOLEAN","type":"TOGGLE","options":[],"required":false,"value":null,"multiSelect":false},{"field":"isDiscoverable","label":"isDiscoverable","dataType":"BOOLEAN","type":"TOGGLE","options":[],"required":false,"value":null,"multiSelect":false},{"field":"isActive","label":"isActive","dataType":"BOOLEAN","type":"TOGGLE","options":[],"required":false,"value":null,"multiSelect":false}],"sort":[{"field":"sponsorId","order":"DESC"}]}</t>
+  </si>
+  <si>
+    <t>{"endpoint":"/invoke/activityugcreview/v1/discussions/filter","page":1,"size":10,"offset":null,"filters":[{"field":"personId","label":"person Id","dataType":"INTEGER","type":"INPUT","options":[],"required":false,"value":null,"multiSelect":false},{"field":"eventId","label":"event Id","dataType":"INTEGER","type":"INPUT","options":[],"required":false,"value":null,"multiSelect":false},{"field":"isFeatured","label":"isFeatured","dataType":"BOOLEAN","type":"TOGGLE","options":[],"required":false,"value":null,"multiSelect":false},{"field":"isBuried","label":"isBuried","dataType":"BOOLEAN","type":"TOGGLE","options":[],"required":false,"value":null,"multiSelect":false},{"field":"isPriority","label":"isPriority","dataType":"BOOLEAN","type":"TOGGLE","options":[],"required":false,"value":null,"multiSelect":false},{"field":"isModerated","label":"isModerated","dataType":"BOOLEAN","type":"TOGGLE","options":[],"required":false,"value":null,"multiSelect":false},{"field":"isReported","label":"isReported","dataType":"BOOLEAN","type":"TOGGLE","options":[],"required":false,"value":null,"multiSelect":false}],"sort":[{"field":"discussionId","order":"DESC"}]}</t>
+  </si>
+  <si>
+    <t>{"endpoint":"/invoke/activityugcreview/review/external/filter","page":1,"size":10,"offset":null,"filters":[{"field":"personId","label":"person Id","dataType":"INTEGER","type":"INPUT","options":[],"required":false,"value":null,"multiSelect":false},{"field":"eventId","label":"event Id","dataType":"INTEGER","type":"INPUT","options":[],"required":false,"value":null,"multiSelect":false},{"field":"isCompliant","label":"isCompliant","dataType":"BOOLEAN","type":"TOGGLE","options":[],"required":false,"value":null,"multiSelect":false},{"field":"isComplete","label":"isComplete","dataType":"BOOLEAN","type":"TOGGLE","options":[],"required":false,"value":null,"multiSelect":false}],"sort":[{"field":"externalId","order":"DESC"}]}</t>
+  </si>
+  <si>
+    <t>{"endpoint":"/invoke/reward-service/v1/preference/list","page":1,"size":10,"offset":null,"filters":[{"field":"eventId","label":"event Id","dataType":"INTEGER","type":"INPUT","options":[],"required":true,"value":null,"multiSelect":false},{"field":"personId","label":"person Id","dataType":"INTEGER","type":"INPUT","options":[],"required":false,"value":null,"multiSelect":false},{"field":"optInsName","label":"optIns Name","dataType":"STRING","type":"INPUT","options":[],"required":false,"value":null,"multiSelect":false},{"field":"rewardName","label":"reward Name","dataType":"STRING","type":"INPUT","options":[],"required":false,"value":null,"multiSelect":false},{"field":"ranking","label":"ranking","dataType":"INTEGER","type":"INPUT","options":[],"required":false,"value":null,"multiSelect":false},{"field":"segmentId","label":"segment Id","dataType":"STRING","type":"INPUT","options":[],"required":false,"value":null,"multiSelect":false}],"sort":[{"field":"rewardPreferenceId","order":"DESC"}]}</t>
+  </si>
+  <si>
+    <t>{"endpoint":"/invoke/segmentation/v1/segmentData/users/details","page":0,"size":10,"offset":null,"filters":[{"field":"segmentId","label":"segment Id","dataType":"STRING","type":"INPUT","options":[],"required":true,"value":null,"multiSelect":false},{"field":"personId","label":"person Id","dataType":"INTEGER","type":"INPUT","options":[],"required":false,"value":null,"multiSelect":false}],"sort":[{"field":"personId","order":"DESC"}]}</t>
+  </si>
+  <si>
+    <t>{"endpoint":"/invoke/common-service/v1/receipt/list","page":0,"size":10,"offset":null,"filters":[{"field":"eventId","label":"event Id","dataType":"INTEGER","type":"INPUT","options":[],"required":true,"value":null,"multiSelect":false},{"field":"personId","label":"person Id","dataType":"INTEGER","type":"INPUT","options":[],"required":false,"value":null,"multiSelect":false},{"field":"action","label":"action","dataType":"STRING","type":"CHECKBOX","options":["INITIATED","APPROVED","PENDING","REJECTED"],"required":false,"value":null,"multiSelect":false}],"sort":[{"field":"receiptId","order":"DESC"}]}</t>
+  </si>
+  <si>
+    <t>{"endpoint":"/invoke/community-service/v1/participant/list","page":1,"size":10,"offset":null,"filters":[{"field":"personId","label":"person Id","dataType":"INTEGER","type":"INPUT","options":[],"required":false,"value":null,"multiSelect":false},{"field":"eventId","label":"event Id","dataType":"INTEGER","type":"INPUT","options":[],"required":false,"value":null,"multiSelect":false},{"field":"participantType","label":"Participant Type","dataType":"STRING","type":"DROPDOWN","options":["Host","Guest","Applicant","Chatterbox","Reject","Finalist","Reserved","Waitlisted","All"],"required":true,"value":"All","multiSelect":false}],"sort":[{"field":"participantId","order":"DESC"}]}</t>
+  </si>
+  <si>
+    <t>{"endpoint":"/invoke/community-service/v1/party/list","page":1,"size":10,"offset":null,"filters":[{"field":"eventId","label":"event Id","dataType":"INTEGER","type":"INPUT","options":[],"required":true,"value":null,"multiSelect":false},{"field":"isReserved","label":"isReserved","dataType":"BOOLEAN","type":"TOGGLE","options":[],"required":false,"value":null,"multiSelect":false},{"field":"isSetup","label":"isSetup","dataType":"BOOLEAN","type":"TOGGLE","options":[],"required":false,"value":null,"multiSelect":false},{"field":"personId","label":"person Id","dataType":"INTEGER","type":"INPUT","options":[],"required":false,"value":null,"multiSelect":false}],"sort":[{"field":"partyId","order":"DESC"}]}</t>
+  </si>
+  <si>
+    <t>{"totalCount":2,"applications":[{"finalistCandidate":false,"finalistInactive":false,"finalist":false,"personId":9691239,"email":"lalithac+1@nu10.co","ageVerified":null,"completed":true,"applicationId":10887730},{"finalistCandidate":false,"finalistInactive":false,"finalist":false,"personId":9691400,"email":"lalithac@yopmail.com","ageVerified":2,"completed":true,"applicationId":10887731}]}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5075,18 +5151,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938AA5C4-D23B-4354-B61E-D632D48448E3}">
   <dimension ref="A1:J703"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A419" zoomScale="59" zoomScaleNormal="104" workbookViewId="0">
-      <selection activeCell="C425" sqref="C425"/>
+    <sheetView tabSelected="1" topLeftCell="A420" zoomScale="59" zoomScaleNormal="104" workbookViewId="0">
+      <selection activeCell="C446" sqref="C446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.453125" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" customWidth="1"/>
-    <col min="3" max="4" width="54.81640625" customWidth="1"/>
-    <col min="5" max="5" width="46.36328125" customWidth="1"/>
-    <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="7" width="64.81640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="47.453125"/>
+    <col min="2" max="2" customWidth="true" width="44.453125"/>
+    <col min="3" max="4" customWidth="true" width="54.81640625"/>
+    <col min="5" max="5" customWidth="true" width="46.36328125"/>
+    <col min="6" max="6" customWidth="true" width="32.0"/>
+    <col min="7" max="7" customWidth="true" width="64.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="49" customHeight="1" x14ac:dyDescent="0.35">
@@ -5558,14 +5634,14 @@
         <v>722</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>722</v>
+        <v>793</v>
       </c>
       <c r="E20" s="24"/>
-      <c r="F20" s="7">
-        <v>200</v>
+      <c r="F20" s="7" t="n">
+        <v>200.0</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
@@ -6789,8 +6865,8 @@
         <v>675</v>
       </c>
       <c r="E72" s="24"/>
-      <c r="F72" s="7">
-        <v>200</v>
+      <c r="F72" s="7" t="n">
+        <v>200.0</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>755</v>
@@ -6813,8 +6889,8 @@
         <v>676</v>
       </c>
       <c r="E73" s="24"/>
-      <c r="F73" s="7">
-        <v>200</v>
+      <c r="F73" s="7" t="n">
+        <v>200.0</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>755</v>
@@ -7533,8 +7609,8 @@
         <v>704</v>
       </c>
       <c r="E103" s="24"/>
-      <c r="F103" s="7">
-        <v>200</v>
+      <c r="F103" s="7" t="n">
+        <v>200.0</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>755</v>
@@ -7677,8 +7753,8 @@
         <v>702</v>
       </c>
       <c r="E109" s="24"/>
-      <c r="F109" s="7">
-        <v>200</v>
+      <c r="F109" s="7" t="n">
+        <v>200.0</v>
       </c>
       <c r="G109" s="7" t="s">
         <v>755</v>
@@ -7701,8 +7777,8 @@
         <v>724</v>
       </c>
       <c r="E110" s="24"/>
-      <c r="F110" s="7">
-        <v>200</v>
+      <c r="F110" s="7" t="n">
+        <v>200.0</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>755</v>
@@ -14489,18 +14565,26 @@
       <c r="I419" s="29"/>
       <c r="J419" s="29"/>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A420" s="7" t="s">
         <v>767</v>
       </c>
       <c r="B420" s="7" t="s">
         <v>768</v>
       </c>
-      <c r="C420" s="7"/>
-      <c r="D420" s="7"/>
+      <c r="C420" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="D420" s="5" t="s">
+        <v>726</v>
+      </c>
       <c r="E420" s="24"/>
-      <c r="F420" s="7"/>
-      <c r="G420" s="7"/>
+      <c r="F420" s="7">
+        <v>200</v>
+      </c>
+      <c r="G420" s="7" t="s">
+        <v>755</v>
+      </c>
       <c r="H420" s="29"/>
       <c r="I420" s="29"/>
       <c r="J420" s="29"/>
@@ -14508,13 +14592,19 @@
     <row r="421" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A421" s="7"/>
       <c r="B421" s="7"/>
-      <c r="C421" s="7">
-        <v>1</v>
-      </c>
-      <c r="D421" s="7"/>
+      <c r="C421" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="D421" s="7" t="s">
+        <v>784</v>
+      </c>
       <c r="E421" s="24"/>
-      <c r="F421" s="7"/>
-      <c r="G421" s="7"/>
+      <c r="F421" s="7" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G421" s="7" t="s">
+        <v>757</v>
+      </c>
       <c r="H421" s="29"/>
       <c r="I421" s="29"/>
       <c r="J421" s="29"/>
@@ -14522,13 +14612,19 @@
     <row r="422" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A422" s="7"/>
       <c r="B422" s="7"/>
-      <c r="C422" s="7">
-        <v>2</v>
-      </c>
-      <c r="D422" s="7"/>
+      <c r="C422" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="D422" s="7" t="s">
+        <v>785</v>
+      </c>
       <c r="E422" s="24"/>
-      <c r="F422" s="7"/>
-      <c r="G422" s="7"/>
+      <c r="F422" s="7" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G422" s="7" t="s">
+        <v>757</v>
+      </c>
       <c r="H422" s="29"/>
       <c r="I422" s="29"/>
       <c r="J422" s="29"/>
@@ -14536,13 +14632,19 @@
     <row r="423" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A423" s="7"/>
       <c r="B423" s="7"/>
-      <c r="C423" s="7">
-        <v>3</v>
-      </c>
-      <c r="D423" s="7"/>
+      <c r="C423" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="D423" s="7" t="s">
+        <v>786</v>
+      </c>
       <c r="E423" s="24"/>
-      <c r="F423" s="7"/>
-      <c r="G423" s="7"/>
+      <c r="F423" s="7" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G423" s="7" t="s">
+        <v>757</v>
+      </c>
       <c r="H423" s="29"/>
       <c r="I423" s="29"/>
       <c r="J423" s="29"/>
@@ -14550,13 +14652,19 @@
     <row r="424" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A424" s="7"/>
       <c r="B424" s="7"/>
-      <c r="C424" s="7">
-        <v>3</v>
-      </c>
-      <c r="D424" s="7"/>
+      <c r="C424" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="D424" s="7" t="s">
+        <v>787</v>
+      </c>
       <c r="E424" s="24"/>
-      <c r="F424" s="7"/>
-      <c r="G424" s="7"/>
+      <c r="F424" s="7" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G424" s="7" t="s">
+        <v>757</v>
+      </c>
       <c r="H424" s="29"/>
       <c r="I424" s="29"/>
       <c r="J424" s="29"/>
@@ -14564,11 +14672,19 @@
     <row r="425" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A425" s="7"/>
       <c r="B425" s="7"/>
-      <c r="C425" s="7"/>
-      <c r="D425" s="7"/>
+      <c r="C425" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="D425" s="7" t="s">
+        <v>788</v>
+      </c>
       <c r="E425" s="24"/>
-      <c r="F425" s="7"/>
-      <c r="G425" s="7"/>
+      <c r="F425" s="7" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G425" s="7" t="s">
+        <v>757</v>
+      </c>
       <c r="H425" s="29"/>
       <c r="I425" s="29"/>
       <c r="J425" s="29"/>
@@ -14576,11 +14692,19 @@
     <row r="426" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A426" s="7"/>
       <c r="B426" s="7"/>
-      <c r="C426" s="7"/>
-      <c r="D426" s="7"/>
+      <c r="C426" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="D426" s="7" t="s">
+        <v>789</v>
+      </c>
       <c r="E426" s="24"/>
-      <c r="F426" s="7"/>
-      <c r="G426" s="7"/>
+      <c r="F426" s="7" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G426" s="7" t="s">
+        <v>757</v>
+      </c>
       <c r="H426" s="29"/>
       <c r="I426" s="29"/>
       <c r="J426" s="29"/>
@@ -14588,11 +14712,19 @@
     <row r="427" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A427" s="7"/>
       <c r="B427" s="7"/>
-      <c r="C427" s="7"/>
-      <c r="D427" s="7"/>
+      <c r="C427" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="D427" s="7" t="s">
+        <v>790</v>
+      </c>
       <c r="E427" s="24"/>
-      <c r="F427" s="7"/>
-      <c r="G427" s="7"/>
+      <c r="F427" s="7" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G427" s="7" t="s">
+        <v>757</v>
+      </c>
       <c r="H427" s="29"/>
       <c r="I427" s="29"/>
       <c r="J427" s="29"/>
@@ -14600,11 +14732,19 @@
     <row r="428" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A428" s="7"/>
       <c r="B428" s="7"/>
-      <c r="C428" s="7"/>
-      <c r="D428" s="7"/>
+      <c r="C428" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="D428" s="7" t="s">
+        <v>791</v>
+      </c>
       <c r="E428" s="24"/>
-      <c r="F428" s="7"/>
-      <c r="G428" s="7"/>
+      <c r="F428" s="7" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G428" s="7" t="s">
+        <v>757</v>
+      </c>
       <c r="H428" s="29"/>
       <c r="I428" s="29"/>
       <c r="J428" s="29"/>
@@ -14612,11 +14752,19 @@
     <row r="429" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A429" s="7"/>
       <c r="B429" s="7"/>
-      <c r="C429" s="7"/>
-      <c r="D429" s="7"/>
+      <c r="C429" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="D429" s="7" t="s">
+        <v>792</v>
+      </c>
       <c r="E429" s="24"/>
-      <c r="F429" s="7"/>
-      <c r="G429" s="7"/>
+      <c r="F429" s="7" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G429" s="7" t="s">
+        <v>757</v>
+      </c>
       <c r="H429" s="29"/>
       <c r="I429" s="29"/>
       <c r="J429" s="29"/>
@@ -14624,11 +14772,19 @@
     <row r="430" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A430" s="7"/>
       <c r="B430" s="7"/>
-      <c r="C430" s="7"/>
-      <c r="D430" s="7"/>
+      <c r="C430" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="D430" s="7" t="s">
+        <v>792</v>
+      </c>
       <c r="E430" s="24"/>
-      <c r="F430" s="7"/>
-      <c r="G430" s="7"/>
+      <c r="F430" s="7" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G430" s="7" t="s">
+        <v>757</v>
+      </c>
       <c r="H430" s="29"/>
       <c r="I430" s="29"/>
       <c r="J430" s="29"/>
@@ -14636,7 +14792,9 @@
     <row r="431" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A431" s="7"/>
       <c r="B431" s="7"/>
-      <c r="C431" s="7"/>
+      <c r="C431" s="7" t="s">
+        <v>771</v>
+      </c>
       <c r="D431" s="7"/>
       <c r="E431" s="24"/>
       <c r="F431" s="7"/>
@@ -14648,7 +14806,9 @@
     <row r="432" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A432" s="7"/>
       <c r="B432" s="7"/>
-      <c r="C432" s="7"/>
+      <c r="C432" s="7" t="s">
+        <v>772</v>
+      </c>
       <c r="D432" s="7"/>
       <c r="E432" s="24"/>
       <c r="F432" s="7"/>
@@ -14660,7 +14820,9 @@
     <row r="433" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A433" s="7"/>
       <c r="B433" s="7"/>
-      <c r="C433" s="7"/>
+      <c r="C433" s="7" t="s">
+        <v>776</v>
+      </c>
       <c r="D433" s="7"/>
       <c r="E433" s="24"/>
       <c r="F433" s="7"/>
@@ -14672,7 +14834,9 @@
     <row r="434" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A434" s="7"/>
       <c r="B434" s="7"/>
-      <c r="C434" s="7"/>
+      <c r="C434" s="7" t="s">
+        <v>769</v>
+      </c>
       <c r="D434" s="7"/>
       <c r="E434" s="24"/>
       <c r="F434" s="7"/>
@@ -14684,7 +14848,9 @@
     <row r="435" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A435" s="7"/>
       <c r="B435" s="7"/>
-      <c r="C435" s="7"/>
+      <c r="C435" s="7" t="s">
+        <v>775</v>
+      </c>
       <c r="D435" s="7"/>
       <c r="E435" s="24"/>
       <c r="F435" s="7"/>
@@ -14696,7 +14862,9 @@
     <row r="436" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A436" s="7"/>
       <c r="B436" s="7"/>
-      <c r="C436" s="7"/>
+      <c r="C436" s="7" t="s">
+        <v>524</v>
+      </c>
       <c r="D436" s="7"/>
       <c r="E436" s="24"/>
       <c r="F436" s="7"/>
@@ -14708,7 +14876,9 @@
     <row r="437" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A437" s="7"/>
       <c r="B437" s="7"/>
-      <c r="C437" s="7"/>
+      <c r="C437" s="7" t="s">
+        <v>778</v>
+      </c>
       <c r="D437" s="7"/>
       <c r="E437" s="24"/>
       <c r="F437" s="7"/>
@@ -14720,7 +14890,9 @@
     <row r="438" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A438" s="7"/>
       <c r="B438" s="7"/>
-      <c r="C438" s="7"/>
+      <c r="C438" s="7" t="s">
+        <v>777</v>
+      </c>
       <c r="D438" s="7"/>
       <c r="E438" s="24"/>
       <c r="F438" s="7"/>
@@ -14732,7 +14904,9 @@
     <row r="439" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A439" s="7"/>
       <c r="B439" s="7"/>
-      <c r="C439" s="7"/>
+      <c r="C439" s="7" t="s">
+        <v>779</v>
+      </c>
       <c r="D439" s="7"/>
       <c r="E439" s="24"/>
       <c r="F439" s="7"/>
@@ -14744,7 +14918,9 @@
     <row r="440" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A440" s="7"/>
       <c r="B440" s="7"/>
-      <c r="C440" s="7"/>
+      <c r="C440" s="7" t="s">
+        <v>769</v>
+      </c>
       <c r="D440" s="7"/>
       <c r="E440" s="24"/>
       <c r="F440" s="7"/>
@@ -14756,7 +14932,9 @@
     <row r="441" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A441" s="7"/>
       <c r="B441" s="7"/>
-      <c r="C441" s="7"/>
+      <c r="C441" s="7" t="s">
+        <v>774</v>
+      </c>
       <c r="D441" s="7"/>
       <c r="E441" s="24"/>
       <c r="F441" s="7"/>
@@ -14768,7 +14946,9 @@
     <row r="442" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A442" s="7"/>
       <c r="B442" s="7"/>
-      <c r="C442" s="7"/>
+      <c r="C442" s="7" t="s">
+        <v>780</v>
+      </c>
       <c r="D442" s="7"/>
       <c r="E442" s="24"/>
       <c r="F442" s="7"/>
@@ -14780,7 +14960,9 @@
     <row r="443" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A443" s="7"/>
       <c r="B443" s="7"/>
-      <c r="C443" s="7"/>
+      <c r="C443" s="7" t="s">
+        <v>781</v>
+      </c>
       <c r="D443" s="7"/>
       <c r="E443" s="24"/>
       <c r="F443" s="7"/>
@@ -14792,7 +14974,9 @@
     <row r="444" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A444" s="7"/>
       <c r="B444" s="7"/>
-      <c r="C444" s="7"/>
+      <c r="C444" s="7" t="s">
+        <v>782</v>
+      </c>
       <c r="D444" s="7"/>
       <c r="E444" s="24"/>
       <c r="F444" s="7"/>
@@ -14804,7 +14988,9 @@
     <row r="445" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A445" s="7"/>
       <c r="B445" s="7"/>
-      <c r="C445" s="7"/>
+      <c r="C445" s="7" t="s">
+        <v>524</v>
+      </c>
       <c r="D445" s="7"/>
       <c r="E445" s="24"/>
       <c r="F445" s="7"/>
@@ -17810,11 +17996,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.90625" customWidth="1"/>
-    <col min="2" max="2" width="60.26953125" customWidth="1"/>
-    <col min="3" max="3" width="58.90625" customWidth="1"/>
-    <col min="4" max="4" width="75.08984375" customWidth="1"/>
-    <col min="5" max="5" width="60.26953125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="43.90625"/>
+    <col min="2" max="2" customWidth="true" width="60.26953125"/>
+    <col min="3" max="3" customWidth="true" width="58.90625"/>
+    <col min="4" max="4" customWidth="true" width="75.08984375"/>
+    <col min="5" max="5" customWidth="true" width="60.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.35">
